--- a/Index_Ref/FS_Index_Ref.xlsx
+++ b/Index_Ref/FS_Index_Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Index_Ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1507" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C465ED-D171-48CC-8113-8D8E59DC8FF1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4830" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="596">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -54,29 +65,1772 @@
     <t>Provinz</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>a'</t>
-  </si>
-  <si>
-    <t>Mappe_01_0001</t>
-  </si>
-  <si>
-    <t>Vilchband</t>
-  </si>
-  <si>
-    <t>Mosbach</t>
-  </si>
-  <si>
-    <t>Baden</t>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Mappe_03_0001</t>
+  </si>
+  <si>
+    <t>Rügen</t>
+  </si>
+  <si>
+    <t>Pommern</t>
+  </si>
+  <si>
+    <t>Chie[?][k]ow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0002</t>
+  </si>
+  <si>
+    <t>Waase</t>
+  </si>
+  <si>
+    <t>Mappe_03_0003</t>
+  </si>
+  <si>
+    <t>Ramitz</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Mappe_03_0004</t>
+  </si>
+  <si>
+    <t>Sehlen</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Mappe_03_0005</t>
+  </si>
+  <si>
+    <t>Garz {handschriftlich steht auf Seite 1 Wendorf, dazu dann aber die Anmerkung &lt;Wendorf hat keine Schule&gt;, auf Seite 4 steht klar Garz}</t>
+  </si>
+  <si>
+    <t>Mappe_03_0006</t>
+  </si>
+  <si>
+    <t>Patzig</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Mappe_03_0007</t>
+  </si>
+  <si>
+    <t>Promoisel</t>
+  </si>
+  <si>
+    <t>b. Sagard</t>
+  </si>
+  <si>
+    <t>Mappe_03_0008</t>
+  </si>
+  <si>
+    <t>Altreddevitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0009</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Kloster</t>
+  </si>
+  <si>
+    <t>a. Hiddensee</t>
+  </si>
+  <si>
+    <t>Mappe_03_0011</t>
+  </si>
+  <si>
+    <t>Mappe_03_0010</t>
+  </si>
+  <si>
+    <t>Schaprode</t>
+  </si>
+  <si>
+    <t>Rügen &lt;Pommern&gt;</t>
+  </si>
+  <si>
+    <t>Mappe_03_0012</t>
+  </si>
+  <si>
+    <t>Dumsevitz</t>
+  </si>
+  <si>
+    <t>b/Garz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0013</t>
+  </si>
+  <si>
+    <t>Altefähr</t>
+  </si>
+  <si>
+    <t>Mappe_03_0014</t>
+  </si>
+  <si>
+    <t>Bischofsdorf</t>
+  </si>
+  <si>
+    <t>Rügen &lt;Rgbg. Stettin&gt;</t>
+  </si>
+  <si>
+    <t>Mappe_03_0015</t>
+  </si>
+  <si>
+    <t>Cammin</t>
+  </si>
+  <si>
+    <t>auf Witto[w]</t>
+  </si>
+  <si>
+    <t>Mappe_03_0016</t>
+  </si>
+  <si>
+    <t>Ralswick</t>
+  </si>
+  <si>
+    <t>Mappe_03_0017</t>
+  </si>
+  <si>
+    <t>Altenkirchen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0018</t>
+  </si>
+  <si>
+    <t>Banz</t>
+  </si>
+  <si>
+    <t>Mappe-03_0019</t>
+  </si>
+  <si>
+    <t>Breege</t>
+  </si>
+  <si>
+    <t>Mappe_03_0020</t>
+  </si>
+  <si>
+    <t>Groß-Zicker &lt;Post Thießow Rügen&gt;</t>
+  </si>
+  <si>
+    <t>Mappe_03_0021</t>
+  </si>
+  <si>
+    <t>Zicker</t>
+  </si>
+  <si>
+    <t>Mappe_03_0022</t>
+  </si>
+  <si>
+    <t>Dranske</t>
+  </si>
+  <si>
+    <t>Mappe_03_0023</t>
+  </si>
+  <si>
+    <t>Zudar</t>
+  </si>
+  <si>
+    <t>Mappe_03_0024</t>
+  </si>
+  <si>
+    <t>Ueselitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0025</t>
+  </si>
+  <si>
+    <t>Neu-Reddevitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0026</t>
+  </si>
+  <si>
+    <t>Rothenkirchen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0027</t>
+  </si>
+  <si>
+    <t>Bessin</t>
+  </si>
+  <si>
+    <t>Mappe_03_0028</t>
+  </si>
+  <si>
+    <t>Rambin</t>
+  </si>
+  <si>
+    <t>Mappe_03_0029</t>
+  </si>
+  <si>
+    <t>Seedorf</t>
+  </si>
+  <si>
+    <t>Mappe_03_0030</t>
+  </si>
+  <si>
+    <t>Vilmnitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0031</t>
+  </si>
+  <si>
+    <t>Middelhagen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0032</t>
+  </si>
+  <si>
+    <t>Thiessow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0033</t>
+  </si>
+  <si>
+    <t>Göhren</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Mappe_03_0034</t>
+  </si>
+  <si>
+    <t>Putgarten</t>
+  </si>
+  <si>
+    <t>Post Altenkirchen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0035</t>
+  </si>
+  <si>
+    <t>Zirkow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0036</t>
+  </si>
+  <si>
+    <t>Jarkwitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0037</t>
+  </si>
+  <si>
+    <t>Binz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0038</t>
+  </si>
+  <si>
+    <t>Swantow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0039</t>
+  </si>
+  <si>
+    <t>Gr. Kubbelkow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0040</t>
+  </si>
+  <si>
+    <t>Varbelvitz</t>
+  </si>
+  <si>
+    <t>b Gingst</t>
+  </si>
+  <si>
+    <t>Pom̄</t>
+  </si>
+  <si>
+    <t>Mappe_03_0041</t>
+  </si>
+  <si>
+    <t>Bubkewitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0042</t>
+  </si>
+  <si>
+    <t>Sagard</t>
+  </si>
+  <si>
+    <t>Mappe_03_0043</t>
+  </si>
+  <si>
+    <t>Gingst</t>
+  </si>
+  <si>
+    <t>Mappe_03_0044</t>
+  </si>
+  <si>
+    <t>Bobbin</t>
+  </si>
+  <si>
+    <t>Mappe_03_0045</t>
+  </si>
+  <si>
+    <t>Wiek</t>
+  </si>
+  <si>
+    <t>Mappe_03_0046</t>
+  </si>
+  <si>
+    <t>Putbus</t>
+  </si>
+  <si>
+    <t>Mappe_03_0047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garz  </t>
+  </si>
+  <si>
+    <t>Mappe_03_0048</t>
+  </si>
+  <si>
+    <t>Volkshagen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0049</t>
+  </si>
+  <si>
+    <t>Kniepow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0050</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0051</t>
+  </si>
+  <si>
+    <t>Neuendorf</t>
+  </si>
+  <si>
+    <t>Insel Hiddensee</t>
+  </si>
+  <si>
+    <t>Mappe_03_0052</t>
+  </si>
+  <si>
+    <t>Landow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0053</t>
+  </si>
+  <si>
+    <t>Lühsmitz {auf der ersten Seite Lüssmitz} {heute Lüßmitz}</t>
+  </si>
+  <si>
+    <t>Mappe_03_0054</t>
+  </si>
+  <si>
+    <t>Poseritz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0055</t>
+  </si>
+  <si>
+    <t>Glowe</t>
+  </si>
+  <si>
+    <t>Mappe_03_0056</t>
+  </si>
+  <si>
+    <t>Gagern</t>
+  </si>
+  <si>
+    <t>Mappe_03_0057</t>
+  </si>
+  <si>
+    <t>Mölle Medow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0058</t>
+  </si>
+  <si>
+    <t>Lanken-Granitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0059</t>
+  </si>
+  <si>
+    <t>Hagen-Jasmund</t>
+  </si>
+  <si>
+    <t>Mappe_03_0060</t>
+  </si>
+  <si>
+    <t>Dreschwitz</t>
+  </si>
+  <si>
+    <t>Mappe_03_0061</t>
+  </si>
+  <si>
+    <t>Samtens</t>
+  </si>
+  <si>
+    <t>Mappe_03_0062</t>
+  </si>
+  <si>
+    <t>Neuenkirchen</t>
+  </si>
+  <si>
+    <t>Mappe_03_0063</t>
+  </si>
+  <si>
+    <t>Gustow</t>
+  </si>
+  <si>
+    <t>Mappe_03_0064</t>
+  </si>
+  <si>
+    <t>Nipmerow</t>
+  </si>
+  <si>
+    <t>XXI_02_0001</t>
+  </si>
+  <si>
+    <t>XXI_02_0002</t>
+  </si>
+  <si>
+    <t>XXI_02_0003</t>
+  </si>
+  <si>
+    <t>XXI_02_0004</t>
+  </si>
+  <si>
+    <t>XXI_02_0005</t>
+  </si>
+  <si>
+    <t>XXI_02_0006</t>
+  </si>
+  <si>
+    <t>XXI_02_0007</t>
+  </si>
+  <si>
+    <t>XXI_02_0008</t>
+  </si>
+  <si>
+    <t>XXI_02_0009</t>
+  </si>
+  <si>
+    <t>XXI_02_0010</t>
+  </si>
+  <si>
+    <t>XXI_02_0011</t>
+  </si>
+  <si>
+    <t>XXI_02_0012</t>
+  </si>
+  <si>
+    <t>XXI_02_0013</t>
+  </si>
+  <si>
+    <t>XXI_02_0014</t>
+  </si>
+  <si>
+    <t>XXI_02_0015</t>
+  </si>
+  <si>
+    <t>XXI_02_0016</t>
+  </si>
+  <si>
+    <t>XXI_02_0017</t>
+  </si>
+  <si>
+    <t>XXI_02_0018</t>
+  </si>
+  <si>
+    <t>XXI_02_0019</t>
+  </si>
+  <si>
+    <t>XXI_02_0020</t>
+  </si>
+  <si>
+    <t>XXI_02_0021</t>
+  </si>
+  <si>
+    <t>XXI_02_0022</t>
+  </si>
+  <si>
+    <t>XXI_02_0023</t>
+  </si>
+  <si>
+    <t>XXI_02_0024</t>
+  </si>
+  <si>
+    <t>XXI_02_0025</t>
+  </si>
+  <si>
+    <t>XXI_02_0026</t>
+  </si>
+  <si>
+    <t>XXI_02_0027</t>
+  </si>
+  <si>
+    <t>XXI_02_0028</t>
+  </si>
+  <si>
+    <t>XXI_02_0029</t>
+  </si>
+  <si>
+    <t>XXI_02_0030</t>
+  </si>
+  <si>
+    <t>XXI_02_0031</t>
+  </si>
+  <si>
+    <t>XXI_02_0032</t>
+  </si>
+  <si>
+    <t>XXI_02_0033</t>
+  </si>
+  <si>
+    <t>XXI_02_0034</t>
+  </si>
+  <si>
+    <t>XXI_02_0035</t>
+  </si>
+  <si>
+    <t>XXI_02_0036</t>
+  </si>
+  <si>
+    <t>XXI_02_0037</t>
+  </si>
+  <si>
+    <t>XXI_02_0038</t>
+  </si>
+  <si>
+    <t>XXI_02_0039</t>
+  </si>
+  <si>
+    <t>XXI_02_0040</t>
+  </si>
+  <si>
+    <t>XXI_02_0041</t>
+  </si>
+  <si>
+    <t>XXI_02_0042</t>
+  </si>
+  <si>
+    <t>XXI_02_0043</t>
+  </si>
+  <si>
+    <t>XXI_02_0044</t>
+  </si>
+  <si>
+    <t>XXI_02_0045</t>
+  </si>
+  <si>
+    <t>XXI_02_0046</t>
+  </si>
+  <si>
+    <t>XXI_02_0047</t>
+  </si>
+  <si>
+    <t>XXI_02_0048</t>
+  </si>
+  <si>
+    <t>XXI_02_0049</t>
+  </si>
+  <si>
+    <t>XXI_02_0050</t>
+  </si>
+  <si>
+    <t>XXI_02_0051</t>
+  </si>
+  <si>
+    <t>XXI_02_0052</t>
+  </si>
+  <si>
+    <t>XXI_02_0053</t>
+  </si>
+  <si>
+    <t>XXI_02_0054</t>
+  </si>
+  <si>
+    <t>XXI_02_0055</t>
+  </si>
+  <si>
+    <t>XXI_02_0056</t>
+  </si>
+  <si>
+    <t>XXI_02_0057</t>
+  </si>
+  <si>
+    <t>XXI_02_0058</t>
+  </si>
+  <si>
+    <t>XXI_02_0059</t>
+  </si>
+  <si>
+    <t>XXI_02_0060</t>
+  </si>
+  <si>
+    <t>XXI_02_0061</t>
+  </si>
+  <si>
+    <t>XXI_02_0062</t>
+  </si>
+  <si>
+    <t>XXI_02_0063</t>
+  </si>
+  <si>
+    <t>XXI_02_0064</t>
+  </si>
+  <si>
+    <t>XXI_02_0065</t>
+  </si>
+  <si>
+    <t>XXI_02_0066</t>
+  </si>
+  <si>
+    <t>XXI_02_0067</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Westerland</t>
+  </si>
+  <si>
+    <t>Sylt</t>
+  </si>
+  <si>
+    <t>Südtondern</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Lindholm</t>
+  </si>
+  <si>
+    <t>Schlesw.-Holstein</t>
+  </si>
+  <si>
+    <t>Meyn</t>
+  </si>
+  <si>
+    <t>Flensburg-Land</t>
+  </si>
+  <si>
+    <t>Schwensby</t>
+  </si>
+  <si>
+    <t>Flensburg-Land &lt;Reg. Bez.: Schleswig&gt;</t>
+  </si>
+  <si>
+    <t>Gau Nordmark &lt;Schleswig-Holst &gt;</t>
+  </si>
+  <si>
+    <t>Keppelbeck</t>
+  </si>
+  <si>
+    <t>Flensburg</t>
+  </si>
+  <si>
+    <t>Schlews. Holst.</t>
+  </si>
+  <si>
+    <t>Övenum</t>
+  </si>
+  <si>
+    <t>a/Föhr</t>
+  </si>
+  <si>
+    <t>Husum</t>
+  </si>
+  <si>
+    <t>Soph.-Magd Koog &lt;Sophien-Magdalenen-&gt;</t>
+  </si>
+  <si>
+    <t>Kollund</t>
+  </si>
+  <si>
+    <t>Idstedt</t>
+  </si>
+  <si>
+    <t>Schleswig</t>
+  </si>
+  <si>
+    <t>Eckernförde</t>
+  </si>
+  <si>
+    <t>Sieseb[ÿ]</t>
+  </si>
+  <si>
+    <t>Hallig Hooge</t>
+  </si>
+  <si>
+    <t>Boklund</t>
+  </si>
+  <si>
+    <t>Altenhof</t>
+  </si>
+  <si>
+    <t>Dänischenhagen</t>
+  </si>
+  <si>
+    <t>Schl.-Holstein</t>
+  </si>
+  <si>
+    <t>Wisch</t>
+  </si>
+  <si>
+    <t>Plön</t>
+  </si>
+  <si>
+    <t>Burg</t>
+  </si>
+  <si>
+    <t>a. Fehmarn</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>Warmhörn, Siewersfleth</t>
+  </si>
+  <si>
+    <t>Eiderstedt</t>
+  </si>
+  <si>
+    <t>Ramstedt</t>
+  </si>
+  <si>
+    <t>Hohn</t>
+  </si>
+  <si>
+    <t>Rendsburg &lt;Schlesw.-Holstein&gt;</t>
+  </si>
+  <si>
+    <t>Schleswig Holstein</t>
+  </si>
+  <si>
+    <t>Hassmoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendsburg  </t>
+  </si>
+  <si>
+    <t>Wellsee</t>
+  </si>
+  <si>
+    <t>Kühren</t>
+  </si>
+  <si>
+    <t>b/Lütjenburg</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>1 &lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Helgoland</t>
+  </si>
+  <si>
+    <t>Kreis Pinneberg</t>
+  </si>
+  <si>
+    <t>Hillgroven</t>
+  </si>
+  <si>
+    <t>Norderdithmarschen</t>
+  </si>
+  <si>
+    <t>Süderheistedt</t>
+  </si>
+  <si>
+    <t>Oldenburg i/Holst.</t>
+  </si>
+  <si>
+    <t>Kabelhorst &lt;Schule Schwienkuhl&gt;</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Seefeld</t>
+  </si>
+  <si>
+    <t>Rendsburg</t>
+  </si>
+  <si>
+    <t>Böken</t>
+  </si>
+  <si>
+    <t>Schl. Holstein</t>
+  </si>
+  <si>
+    <t>Liensfeld</t>
+  </si>
+  <si>
+    <t>Eutin</t>
+  </si>
+  <si>
+    <t>Rettin</t>
+  </si>
+  <si>
+    <t>Neustadt i. Holst.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Farnewinkel</t>
+  </si>
+  <si>
+    <t>Süderdithmarschen</t>
+  </si>
+  <si>
+    <t>Bornhöved</t>
+  </si>
+  <si>
+    <t>Segeberg</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Kaiser Wilhelm Koog</t>
+  </si>
+  <si>
+    <t>Süderdithmarschen &lt;Amtsbez. Kronprinzenkoog Schlesw.- Holst&gt;</t>
+  </si>
+  <si>
+    <t>Eddelak</t>
+  </si>
+  <si>
+    <t>Wilster</t>
+  </si>
+  <si>
+    <t>Steinburg</t>
+  </si>
+  <si>
+    <t>Hitzhusen</t>
+  </si>
+  <si>
+    <t>Schlesw.-Holst.</t>
+  </si>
+  <si>
+    <t>Kreutzkamp</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insel  </t>
+  </si>
+  <si>
+    <t>Neuwerk</t>
+  </si>
+  <si>
+    <t>Cuxhaven</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Bebensee</t>
+  </si>
+  <si>
+    <t>Seheberg</t>
+  </si>
+  <si>
+    <t>Mönkhagen</t>
+  </si>
+  <si>
+    <t>Stormarn</t>
+  </si>
+  <si>
+    <t>Schlesw. Holstein</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Spiekeroog</t>
+  </si>
+  <si>
+    <t>Wittmund</t>
+  </si>
+  <si>
+    <t>Otterdorf</t>
+  </si>
+  <si>
+    <t>Land Hadeln</t>
+  </si>
+  <si>
+    <t>Hasenfleth</t>
+  </si>
+  <si>
+    <t>Strohdeich</t>
+  </si>
+  <si>
+    <t>Hemdingen</t>
+  </si>
+  <si>
+    <t>Pinneberg</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Nordseebad Norderney</t>
+  </si>
+  <si>
+    <t>Norden</t>
+  </si>
+  <si>
+    <t>Langeoog</t>
+  </si>
+  <si>
+    <t>Misselwarden</t>
+  </si>
+  <si>
+    <t>Wesermünde</t>
+  </si>
+  <si>
+    <t>Jersbeck</t>
+  </si>
+  <si>
+    <t>Schl-Holstein</t>
+  </si>
+  <si>
+    <t>Siebenbäumen</t>
+  </si>
+  <si>
+    <t>Herzogtum Lauenburg</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Nesse</t>
+  </si>
+  <si>
+    <t>[H]annover {stehen tut da eher Aannover}</t>
+  </si>
+  <si>
+    <t>Alfstedt</t>
+  </si>
+  <si>
+    <t>Brobergen</t>
+  </si>
+  <si>
+    <t>Stade</t>
+  </si>
+  <si>
+    <t>Stade-Campe</t>
+  </si>
+  <si>
+    <t>c &lt;rote 199 davor&gt;</t>
+  </si>
+  <si>
+    <t>Hamburg Eidelstedt</t>
+  </si>
+  <si>
+    <t>Hamburg 7.</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Hamburg-Rahlstedt</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>&lt;früher Holstein&gt;</t>
+  </si>
+  <si>
+    <t>Hollenbek</t>
+  </si>
+  <si>
+    <t>Herz. Lauenburg</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>XXI_02_0068</t>
+  </si>
+  <si>
+    <t>XXI_02_0069</t>
+  </si>
+  <si>
+    <t>XXI_02_0070</t>
+  </si>
+  <si>
+    <t>XXI_02_0071</t>
+  </si>
+  <si>
+    <t>XXI_02_0072</t>
+  </si>
+  <si>
+    <t>XXI_02_0073</t>
+  </si>
+  <si>
+    <t>XXI_02_0074</t>
+  </si>
+  <si>
+    <t>XXI_02_0075</t>
+  </si>
+  <si>
+    <t>XXI_02_0076</t>
+  </si>
+  <si>
+    <t>XXI_02_0077</t>
+  </si>
+  <si>
+    <t>XXI_02_0078</t>
+  </si>
+  <si>
+    <t>XXI_02_0079</t>
+  </si>
+  <si>
+    <t>XXI_02_0080</t>
+  </si>
+  <si>
+    <t>XXI_02_0081</t>
+  </si>
+  <si>
+    <t>XXI_02_0082</t>
+  </si>
+  <si>
+    <t>XXI_02_0083</t>
+  </si>
+  <si>
+    <t>XXI_02_0084</t>
+  </si>
+  <si>
+    <t>XXI_02_0085</t>
+  </si>
+  <si>
+    <t>XXI_02_0086</t>
+  </si>
+  <si>
+    <t>XXI_02_0087</t>
+  </si>
+  <si>
+    <t>XXI_02_0088</t>
+  </si>
+  <si>
+    <t>XXI_02_0089</t>
+  </si>
+  <si>
+    <t>XXI_02_0090</t>
+  </si>
+  <si>
+    <t>XXI_02_0091</t>
+  </si>
+  <si>
+    <t>XXI_02_0092</t>
+  </si>
+  <si>
+    <t>XXI_02_0093</t>
+  </si>
+  <si>
+    <t>XXI_02_0094</t>
+  </si>
+  <si>
+    <t>XXI_02_0095</t>
+  </si>
+  <si>
+    <t>XXI_02_0096</t>
+  </si>
+  <si>
+    <t>XXI_02_0097</t>
+  </si>
+  <si>
+    <t>XXI_02_0098</t>
+  </si>
+  <si>
+    <t>XXI_02_0099</t>
+  </si>
+  <si>
+    <t>XXI_02_0100</t>
+  </si>
+  <si>
+    <t>XXI_02_0101</t>
+  </si>
+  <si>
+    <t>XXI_02_0102</t>
+  </si>
+  <si>
+    <t>XXI_02_0103</t>
+  </si>
+  <si>
+    <t>XXI_02_0104</t>
+  </si>
+  <si>
+    <t>XXI_02_0105</t>
+  </si>
+  <si>
+    <t>XXI_02_0106</t>
+  </si>
+  <si>
+    <t>XXI_02_0107</t>
+  </si>
+  <si>
+    <t>XXI_02_0108</t>
+  </si>
+  <si>
+    <t>XXI_02_0109</t>
+  </si>
+  <si>
+    <t>XXI_02_0110</t>
+  </si>
+  <si>
+    <t>XXI_02_0111</t>
+  </si>
+  <si>
+    <t>XXI_02_0112</t>
+  </si>
+  <si>
+    <t>XXI_02_0113</t>
+  </si>
+  <si>
+    <t>XXI_02_0114</t>
+  </si>
+  <si>
+    <t>XXI_02_0115</t>
+  </si>
+  <si>
+    <t>XXI_02_0116</t>
+  </si>
+  <si>
+    <t>XXI_02_0117</t>
+  </si>
+  <si>
+    <t>XXI_02_0118</t>
+  </si>
+  <si>
+    <t>XXI_02_0119</t>
+  </si>
+  <si>
+    <t>XXI_02_0120</t>
+  </si>
+  <si>
+    <t>XXI_02_0121</t>
+  </si>
+  <si>
+    <t>XXI_02_0122</t>
+  </si>
+  <si>
+    <t>XXI_02_0123</t>
+  </si>
+  <si>
+    <t>XXI_02_0124</t>
+  </si>
+  <si>
+    <t>XXI_02_0125</t>
+  </si>
+  <si>
+    <t>XXI_02_0126</t>
+  </si>
+  <si>
+    <t>XXI_02_0127</t>
+  </si>
+  <si>
+    <t>XXI_02_0128</t>
+  </si>
+  <si>
+    <t>XXI_02_0129</t>
+  </si>
+  <si>
+    <t>XXI_02_0130</t>
+  </si>
+  <si>
+    <t>XXI_02_0131</t>
+  </si>
+  <si>
+    <t>XXI_02_0132</t>
+  </si>
+  <si>
+    <t>XXI_02_0133</t>
+  </si>
+  <si>
+    <t>XXI_02_0134</t>
+  </si>
+  <si>
+    <t>XXI_02_0135</t>
+  </si>
+  <si>
+    <t>XXI_02_0136</t>
+  </si>
+  <si>
+    <t>XXI_02_0137</t>
+  </si>
+  <si>
+    <t>XXI_02_0138</t>
+  </si>
+  <si>
+    <t>XXI_02_0139</t>
+  </si>
+  <si>
+    <t>XXI_02_0140</t>
+  </si>
+  <si>
+    <t>XXI_02_0141</t>
+  </si>
+  <si>
+    <t>Kniphausersiel {auf 4. Seite &lt;aufgehoben&gt; }</t>
+  </si>
+  <si>
+    <t>Land Oldenburg</t>
+  </si>
+  <si>
+    <t>Wilhelmshaven</t>
+  </si>
+  <si>
+    <t>Tettens</t>
+  </si>
+  <si>
+    <t>über Nordenham</t>
+  </si>
+  <si>
+    <t>Wesermarsch</t>
+  </si>
+  <si>
+    <t>Talkau</t>
+  </si>
+  <si>
+    <t>Hrzgt. Lauenburg</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Uttum</t>
+  </si>
+  <si>
+    <t>Beverstedt</t>
+  </si>
+  <si>
+    <t>Plönjeshausen</t>
+  </si>
+  <si>
+    <t>Bremervörde &lt;Regbz. Stade&gt;</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Spetzerfehn</t>
+  </si>
+  <si>
+    <t>Aurich</t>
+  </si>
+  <si>
+    <t>Bentstreek</t>
+  </si>
+  <si>
+    <t>Obenstrohe</t>
+  </si>
+  <si>
+    <t>Friesland</t>
+  </si>
+  <si>
+    <t>Alse</t>
+  </si>
+  <si>
+    <t>Regesbostel</t>
+  </si>
+  <si>
+    <t>Harburg</t>
+  </si>
+  <si>
+    <t>Westerhof</t>
+  </si>
+  <si>
+    <t>f &lt;lilane 291 davor&gt;</t>
+  </si>
+  <si>
+    <t>Zollenspieker</t>
+  </si>
+  <si>
+    <t>Hombrg Kreis 9</t>
+  </si>
+  <si>
+    <t>Homburg Kirch[w]ä[r]der 2</t>
+  </si>
+  <si>
+    <t>Juliusburg</t>
+  </si>
+  <si>
+    <t>Lauenburg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Hamersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremervörde  </t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Logabirum̄</t>
+  </si>
+  <si>
+    <t>Leer</t>
+  </si>
+  <si>
+    <t>Westerloy</t>
+  </si>
+  <si>
+    <t>Ammerland</t>
+  </si>
+  <si>
+    <t>Rastede</t>
+  </si>
+  <si>
+    <t>Ammerland Gau Weser-Ems</t>
+  </si>
+  <si>
+    <t>Elsfleth</t>
+  </si>
+  <si>
+    <t>a. W.</t>
+  </si>
+  <si>
+    <t>Freistaat Oldenburg</t>
+  </si>
+  <si>
+    <t>Scharmbeckstotel</t>
+  </si>
+  <si>
+    <t>Osterholz</t>
+  </si>
+  <si>
+    <t>Kirchtimke</t>
+  </si>
+  <si>
+    <t>Bremervörde &lt;Reg. Bez. Stade&gt;</t>
+  </si>
+  <si>
+    <t>Handeloh</t>
+  </si>
+  <si>
+    <t>Egestorf</t>
+  </si>
+  <si>
+    <t>Harburg &lt;Reg. Bez.Lüneburg&gt;</t>
+  </si>
+  <si>
+    <t>Wendisch Evern</t>
+  </si>
+  <si>
+    <t>Lüneburg</t>
+  </si>
+  <si>
+    <t>Barskamp</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Glansdorf</t>
+  </si>
+  <si>
+    <t>Leer i/Ostfriesland</t>
+  </si>
+  <si>
+    <t>Achtanm[e]r</t>
+  </si>
+  <si>
+    <t>über Oldenburg Post Westerholt</t>
+  </si>
+  <si>
+    <t>Stuckenborstel</t>
+  </si>
+  <si>
+    <t>Rotenburg</t>
+  </si>
+  <si>
+    <t>Hemsbünde</t>
+  </si>
+  <si>
+    <t>Rotenburg Hann</t>
+  </si>
+  <si>
+    <t>Jelmstorf</t>
+  </si>
+  <si>
+    <t>Uelzen</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Aschendorf</t>
+  </si>
+  <si>
+    <t>Ems</t>
+  </si>
+  <si>
+    <t>Aschendorf-Hümmling</t>
+  </si>
+  <si>
+    <t>Ganderkesee</t>
+  </si>
+  <si>
+    <t>Habenhausen</t>
+  </si>
+  <si>
+    <t>a/Bremen</t>
+  </si>
+  <si>
+    <t>Bremen Landgebiet</t>
+  </si>
+  <si>
+    <t>Land Bremen</t>
+  </si>
+  <si>
+    <t>Schwalingen</t>
+  </si>
+  <si>
+    <t>Soltau</t>
+  </si>
+  <si>
+    <t>Lopau</t>
+  </si>
+  <si>
+    <t>Uelzen &lt;Reg- Bez. Lüneburg&gt;</t>
+  </si>
+  <si>
+    <t>Stoelze</t>
+  </si>
+  <si>
+    <t>Wibbese</t>
+  </si>
+  <si>
+    <t>Danneberg</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Fuhrhop</t>
+  </si>
+  <si>
+    <t>Fallingborstel</t>
+  </si>
+  <si>
+    <t>Dalldorf</t>
+  </si>
+  <si>
+    <t>[8] {könnte auch eine hässliche 5 sein}</t>
+  </si>
+  <si>
+    <t>Wustrow</t>
+  </si>
+  <si>
+    <t>Dammeberg</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Neusustrum</t>
+  </si>
+  <si>
+    <t>über Lathen Ems</t>
+  </si>
+  <si>
+    <t>Börger</t>
+  </si>
+  <si>
+    <t>Neumarkhausen</t>
+  </si>
+  <si>
+    <t>Cloppenburg</t>
+  </si>
+  <si>
+    <t>Lethe</t>
+  </si>
+  <si>
+    <t>Oldenburg-Land</t>
+  </si>
+  <si>
+    <t>Harpstedt</t>
+  </si>
+  <si>
+    <t>Grafschaft Hoya {auf der 1. Seite steht Diepholz}</t>
+  </si>
+  <si>
+    <t>Syke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafschaft Hoya  </t>
+  </si>
+  <si>
+    <t>Oiste</t>
+  </si>
+  <si>
+    <t>Verden</t>
+  </si>
+  <si>
+    <t>Idsingen</t>
+  </si>
+  <si>
+    <t>Celle</t>
+  </si>
+  <si>
+    <t>Poitzen</t>
+  </si>
+  <si>
+    <t>Holxen</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Meppen</t>
+  </si>
+  <si>
+    <t>Kl.-Berssen</t>
+  </si>
+  <si>
+    <t>Benstrup</t>
+  </si>
+  <si>
+    <t>Land: Oldenburg</t>
+  </si>
+  <si>
+    <t>Schwichteler</t>
+  </si>
+  <si>
+    <t>Gem. Cappeln</t>
+  </si>
+  <si>
+    <t>Bockstedt</t>
+  </si>
+  <si>
+    <t>Grafschaft Diepholz</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Versen</t>
+  </si>
+  <si>
+    <t>Schwaförden</t>
+  </si>
+  <si>
+    <t>Grafsch. Diepholz</t>
+  </si>
+  <si>
+    <t>Balge</t>
+  </si>
+  <si>
+    <t>Nienburg/Weser</t>
+  </si>
+  <si>
+    <t>Hademstorf</t>
+  </si>
+  <si>
+    <t>Meißendorf</t>
+  </si>
+  <si>
+    <t>Celle &lt;Rgbz. Lüneburg&gt;</t>
+  </si>
+  <si>
+    <t>Scheuen</t>
+  </si>
+  <si>
+    <t>Bargfeld &lt;Schulort Eldingen&gt; {nur Bargfeld auf der 1. Seite, auf 4.: {Schulort} Eldingen, &lt;Ort&gt; Bargfeld}</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Echtelerfeld</t>
+  </si>
+  <si>
+    <t>Bentheim</t>
+  </si>
+  <si>
+    <t>Gross-Bawinkel</t>
+  </si>
+  <si>
+    <t>Lingen</t>
+  </si>
+  <si>
+    <t>Hekese</t>
+  </si>
+  <si>
+    <t>Belsenbrück {steht nicht auf der 4. seite im Feld, nur vorn}</t>
+  </si>
+  <si>
+    <t>XXI_02_0142</t>
+  </si>
+  <si>
+    <t>XXI_02_0143</t>
+  </si>
+  <si>
+    <t>XXI_02_0144</t>
+  </si>
+  <si>
+    <t>XXI_02_0145</t>
+  </si>
+  <si>
+    <t>Grönloh</t>
+  </si>
+  <si>
+    <t>Bersenbrück</t>
+  </si>
+  <si>
+    <t>Rehden</t>
+  </si>
+  <si>
+    <t>Scherringhausen</t>
+  </si>
+  <si>
+    <t>Leeseringen</t>
+  </si>
+  <si>
+    <t>Nienburg-Weser</t>
+  </si>
+  <si>
+    <t>Bühren</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Wietmarschen</t>
+  </si>
+  <si>
+    <t>Fuhrberg</t>
+  </si>
+  <si>
+    <t>Burgdorf</t>
+  </si>
+  <si>
+    <t>Wienhausen</t>
+  </si>
+  <si>
+    <t>Kästorf</t>
+  </si>
+  <si>
+    <t>Gifhorn</t>
+  </si>
+  <si>
+    <t>Bergfeld</t>
+  </si>
+  <si>
+    <t>Helmstadt</t>
+  </si>
+  <si>
+    <t>Land Braunschweig</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Beesten</t>
+  </si>
+  <si>
+    <t>Wehdem</t>
+  </si>
+  <si>
+    <t>Westfalen</t>
+  </si>
+  <si>
+    <t>L[ü]bbecke</t>
+  </si>
+  <si>
+    <t>Schamerloh</t>
+  </si>
+  <si>
+    <t>Nienburg a/W</t>
+  </si>
+  <si>
+    <t>Münchehagen</t>
+  </si>
+  <si>
+    <t>Nienburg-[Ki]eser</t>
+  </si>
+  <si>
+    <t>Luthe</t>
+  </si>
+  <si>
+    <t>Neustadt a/Rbge Hannover</t>
+  </si>
+  <si>
+    <t>Hannover Preußen</t>
+  </si>
+  <si>
+    <t>Neustadt a/[Rbge}</t>
+  </si>
+  <si>
+    <t>Hannover-Bothfeld</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Engden</t>
+  </si>
+  <si>
+    <t>Niewedde</t>
+  </si>
+  <si>
+    <t>Wittlage</t>
+  </si>
+  <si>
+    <t>Dollbergen</t>
+  </si>
+  <si>
+    <t>Hehlingen</t>
+  </si>
+  <si>
+    <t>Hannover &lt;kürzlich zu&gt; Hannover, &lt;vorher Prov.&gt; Sachsen</t>
+  </si>
+  <si>
+    <t>Gifhorn {nur auf seite 1, auf seite 4: Grenze zwischen Altmark + Heide}</t>
+  </si>
+  <si>
+    <t>Meine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +1854,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -141,10 +1907,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +2218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,13 +2226,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -504,28 +2276,6061 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>999</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>999</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <v>999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27">
+        <v>999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <v>999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <v>999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>999</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32">
+        <v>999</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37">
+        <v>999</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38">
+        <v>999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>999</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40">
+        <v>999</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42">
+        <v>999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44">
+        <v>999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <v>999</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49">
+        <v>999</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50">
+        <v>999</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51">
+        <v>999</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53">
+        <v>999</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56">
+        <v>999</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>46</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57">
+        <v>999</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>47</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58">
+        <v>999</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59">
+        <v>999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60">
+        <v>999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>46</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61">
+        <v>999</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62">
+        <v>999</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63">
+        <v>999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64">
+        <v>999</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65">
+        <v>999</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+      <c r="G66" t="s">
+        <v>225</v>
+      </c>
+      <c r="H66" t="s">
+        <v>226</v>
+      </c>
+      <c r="I66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67">
+        <v>999</v>
+      </c>
+      <c r="H67" t="s">
+        <v>226</v>
+      </c>
+      <c r="I67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68">
+        <v>999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69">
+        <v>999</v>
+      </c>
+      <c r="H69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70">
+        <v>999</v>
+      </c>
+      <c r="H70" t="s">
+        <v>237</v>
+      </c>
+      <c r="I70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G71" t="s">
+        <v>240</v>
+      </c>
+      <c r="H71" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72">
+        <v>999</v>
+      </c>
+      <c r="H72" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73">
+        <v>999</v>
+      </c>
+      <c r="H73" t="s">
+        <v>241</v>
+      </c>
+      <c r="I73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74">
+        <v>999</v>
+      </c>
+      <c r="H74" t="s">
+        <v>245</v>
+      </c>
+      <c r="I74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>26</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75">
+        <v>999</v>
+      </c>
+      <c r="H75" t="s">
+        <v>246</v>
+      </c>
+      <c r="I75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76">
+        <v>999</v>
+      </c>
+      <c r="H76" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77">
+        <v>999</v>
+      </c>
+      <c r="H77" t="s">
+        <v>246</v>
+      </c>
+      <c r="I77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>26</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78">
+        <v>999</v>
+      </c>
+      <c r="H78" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>27</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79">
+        <v>999</v>
+      </c>
+      <c r="H79" t="s">
+        <v>246</v>
+      </c>
+      <c r="I79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80">
+        <v>999</v>
+      </c>
+      <c r="H80" t="s">
+        <v>254</v>
+      </c>
+      <c r="I80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>34</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" t="s">
+        <v>256</v>
+      </c>
+      <c r="H81" t="s">
+        <v>257</v>
+      </c>
+      <c r="I81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="3">
+        <v>20</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="3">
+        <v>999</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83">
+        <v>999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
+      <c r="G84">
+        <v>999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85">
+        <v>999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>265</v>
+      </c>
+      <c r="I85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86">
+        <v>999</v>
+      </c>
+      <c r="H86" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" t="s">
+        <v>268</v>
+      </c>
+      <c r="H87" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88">
         <v>14</v>
       </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" t="s">
+        <v>271</v>
+      </c>
+      <c r="G88">
+        <v>999</v>
+      </c>
+      <c r="H88" t="s">
+        <v>272</v>
+      </c>
+      <c r="I88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" t="s">
+        <v>273</v>
+      </c>
+      <c r="G89">
+        <v>999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>274</v>
+      </c>
+      <c r="I89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" t="s">
+        <v>275</v>
+      </c>
+      <c r="G90">
+        <v>999</v>
+      </c>
+      <c r="H90" t="s">
+        <v>274</v>
+      </c>
+      <c r="I90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91">
+        <v>32</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91">
+        <v>999</v>
+      </c>
+      <c r="H91" t="s">
+        <v>276</v>
+      </c>
+      <c r="I91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92">
+        <v>999</v>
+      </c>
+      <c r="H92" t="s">
+        <v>280</v>
+      </c>
+      <c r="I92" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
+        <v>281</v>
+      </c>
+      <c r="G93">
+        <v>999</v>
+      </c>
+      <c r="H93" t="s">
+        <v>280</v>
+      </c>
+      <c r="I93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
+        <v>283</v>
+      </c>
+      <c r="G94">
+        <v>999</v>
+      </c>
+      <c r="H94" t="s">
+        <v>284</v>
+      </c>
+      <c r="I94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" t="s">
+        <v>285</v>
+      </c>
+      <c r="G95" t="s">
+        <v>286</v>
+      </c>
+      <c r="H95" t="s">
+        <v>257</v>
+      </c>
+      <c r="I95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
+        <v>288</v>
+      </c>
+      <c r="G96">
+        <v>999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>289</v>
+      </c>
+      <c r="I96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97">
+        <v>28</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97">
+        <v>999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>291</v>
+      </c>
+      <c r="I97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
+        <v>293</v>
+      </c>
+      <c r="G98">
+        <v>999</v>
+      </c>
+      <c r="H98" t="s">
+        <v>294</v>
+      </c>
+      <c r="I98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99">
+        <v>999</v>
+      </c>
+      <c r="H99" t="s">
+        <v>289</v>
+      </c>
+      <c r="I99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
+        <v>296</v>
+      </c>
+      <c r="G100">
+        <v>999</v>
+      </c>
+      <c r="H100" t="s">
+        <v>297</v>
+      </c>
+      <c r="I100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101">
+        <v>26</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101">
+        <v>999</v>
+      </c>
+      <c r="H101" t="s">
+        <v>291</v>
+      </c>
+      <c r="I101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102">
+        <v>31</v>
+      </c>
+      <c r="D102">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+      <c r="G102">
+        <v>999</v>
+      </c>
+      <c r="H102" t="s">
+        <v>284</v>
+      </c>
+      <c r="I102" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>193</v>
+      </c>
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104">
+        <v>28</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>306</v>
+      </c>
+      <c r="G104">
+        <v>999</v>
+      </c>
+      <c r="H104" t="s">
+        <v>307</v>
+      </c>
+      <c r="I104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>195</v>
+      </c>
+      <c r="F105" t="s">
+        <v>308</v>
+      </c>
+      <c r="G105">
+        <v>999</v>
+      </c>
+      <c r="H105" t="s">
+        <v>309</v>
+      </c>
+      <c r="I105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" t="s">
+        <v>312</v>
+      </c>
+      <c r="G106">
+        <v>999</v>
+      </c>
+      <c r="H106" t="s">
+        <v>313</v>
+      </c>
+      <c r="I106" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>197</v>
+      </c>
+      <c r="F107" t="s">
+        <v>314</v>
+      </c>
+      <c r="G107">
+        <v>999</v>
+      </c>
+      <c r="H107" t="s">
+        <v>315</v>
+      </c>
+      <c r="I107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" t="s">
+        <v>316</v>
+      </c>
+      <c r="G108">
+        <v>999</v>
+      </c>
+      <c r="H108" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>199</v>
+      </c>
+      <c r="F109" t="s">
+        <v>317</v>
+      </c>
+      <c r="G109">
+        <v>999</v>
+      </c>
+      <c r="H109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I109" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>200</v>
+      </c>
+      <c r="F110" t="s">
+        <v>318</v>
+      </c>
+      <c r="G110">
+        <v>999</v>
+      </c>
+      <c r="H110" t="s">
+        <v>319</v>
+      </c>
+      <c r="I110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>201</v>
+      </c>
+      <c r="F111" t="s">
+        <v>321</v>
+      </c>
+      <c r="G111">
+        <v>999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>322</v>
+      </c>
+      <c r="I111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>320</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" t="s">
+        <v>323</v>
+      </c>
+      <c r="G112">
+        <v>999</v>
+      </c>
+      <c r="H112" t="s">
+        <v>313</v>
+      </c>
+      <c r="I112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" t="s">
+        <v>324</v>
+      </c>
+      <c r="G113">
+        <v>999</v>
+      </c>
+      <c r="H113" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114">
+        <v>28</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114">
+        <v>999</v>
+      </c>
+      <c r="H114" t="s">
+        <v>309</v>
+      </c>
+      <c r="I114" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>205</v>
+      </c>
+      <c r="F115" t="s">
+        <v>328</v>
+      </c>
+      <c r="G115">
+        <v>999</v>
+      </c>
+      <c r="H115" t="s">
+        <v>329</v>
+      </c>
+      <c r="I115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>206</v>
+      </c>
+      <c r="F116" t="s">
+        <v>322</v>
+      </c>
+      <c r="G116">
+        <v>999</v>
+      </c>
+      <c r="H116" t="s">
+        <v>322</v>
+      </c>
+      <c r="I116">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>330</v>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>207</v>
+      </c>
+      <c r="F117" t="s">
+        <v>331</v>
+      </c>
+      <c r="G117">
+        <v>999</v>
+      </c>
+      <c r="H117" t="s">
+        <v>322</v>
+      </c>
+      <c r="I117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>330</v>
+      </c>
+      <c r="C118">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" t="s">
+        <v>333</v>
+      </c>
+      <c r="G118">
+        <v>999</v>
+      </c>
+      <c r="H118" t="s">
+        <v>325</v>
+      </c>
+      <c r="I118" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>209</v>
+      </c>
+      <c r="F119" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119">
+        <v>999</v>
+      </c>
+      <c r="H119" t="s">
+        <v>335</v>
+      </c>
+      <c r="I119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" t="s">
+        <v>336</v>
+      </c>
+      <c r="G120">
+        <v>999</v>
+      </c>
+      <c r="H120" t="s">
+        <v>335</v>
+      </c>
+      <c r="I120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>211</v>
+      </c>
+      <c r="F121" t="s">
+        <v>338</v>
+      </c>
+      <c r="G121">
+        <v>999</v>
+      </c>
+      <c r="H121" t="s">
+        <v>339</v>
+      </c>
+      <c r="I121" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>330</v>
+      </c>
+      <c r="C122">
+        <v>27</v>
+      </c>
+      <c r="D122">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>212</v>
+      </c>
+      <c r="F122" t="s">
+        <v>341</v>
+      </c>
+      <c r="G122">
+        <v>999</v>
+      </c>
+      <c r="H122" t="s">
+        <v>342</v>
+      </c>
+      <c r="I122" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>213</v>
+      </c>
+      <c r="F123" t="s">
+        <v>344</v>
+      </c>
+      <c r="G123">
+        <v>999</v>
+      </c>
+      <c r="H123" t="s">
+        <v>345</v>
+      </c>
+      <c r="I123" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>214</v>
+      </c>
+      <c r="F124" t="s">
+        <v>313</v>
+      </c>
+      <c r="G124">
+        <v>999</v>
+      </c>
+      <c r="H124" t="s">
+        <v>313</v>
+      </c>
+      <c r="I124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>215</v>
+      </c>
+      <c r="F125" t="s">
+        <v>421</v>
+      </c>
+      <c r="G125">
+        <v>999</v>
+      </c>
+      <c r="H125" t="s">
+        <v>423</v>
+      </c>
+      <c r="I125" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" t="s">
+        <v>424</v>
+      </c>
+      <c r="G126" t="s">
+        <v>425</v>
+      </c>
+      <c r="H126" t="s">
+        <v>426</v>
+      </c>
+      <c r="I126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>217</v>
+      </c>
+      <c r="F127" t="s">
+        <v>427</v>
+      </c>
+      <c r="G127">
+        <v>999</v>
+      </c>
+      <c r="H127" t="s">
+        <v>428</v>
+      </c>
+      <c r="I127" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" t="s">
+        <v>430</v>
+      </c>
+      <c r="G128">
+        <v>999</v>
+      </c>
+      <c r="H128" t="s">
+        <v>322</v>
+      </c>
+      <c r="I128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129">
+        <v>19</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>219</v>
+      </c>
+      <c r="F129" t="s">
+        <v>431</v>
+      </c>
+      <c r="G129">
+        <v>999</v>
+      </c>
+      <c r="H129" t="s">
+        <v>325</v>
+      </c>
+      <c r="I129" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130">
+        <v>22</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" t="s">
+        <v>432</v>
+      </c>
+      <c r="G130">
+        <v>999</v>
+      </c>
+      <c r="H130" t="s">
+        <v>433</v>
+      </c>
+      <c r="I130" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>434</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>221</v>
+      </c>
+      <c r="F131" t="s">
+        <v>435</v>
+      </c>
+      <c r="G131">
+        <v>999</v>
+      </c>
+      <c r="H131" t="s">
+        <v>436</v>
+      </c>
+      <c r="I131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>434</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>222</v>
+      </c>
+      <c r="F132" t="s">
+        <v>437</v>
+      </c>
+      <c r="G132">
+        <v>999</v>
+      </c>
+      <c r="H132" t="s">
+        <v>313</v>
+      </c>
+      <c r="I132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>434</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>347</v>
+      </c>
+      <c r="F133" t="s">
+        <v>438</v>
+      </c>
+      <c r="G133">
+        <v>999</v>
+      </c>
+      <c r="H133" t="s">
+        <v>439</v>
+      </c>
+      <c r="I133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>434</v>
+      </c>
+      <c r="C134">
+        <v>17</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>348</v>
+      </c>
+      <c r="F134" t="s">
+        <v>440</v>
+      </c>
+      <c r="G134">
+        <v>999</v>
+      </c>
+      <c r="H134" t="s">
+        <v>426</v>
+      </c>
+      <c r="I134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>434</v>
+      </c>
+      <c r="C135">
+        <v>24</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>349</v>
+      </c>
+      <c r="F135" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135">
+        <v>999</v>
+      </c>
+      <c r="H135" t="s">
+        <v>442</v>
+      </c>
+      <c r="I135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>434</v>
+      </c>
+      <c r="C136">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>350</v>
+      </c>
+      <c r="F136" t="s">
+        <v>443</v>
+      </c>
+      <c r="G136">
+        <v>999</v>
+      </c>
+      <c r="H136" t="s">
+        <v>442</v>
+      </c>
+      <c r="I136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>444</v>
+      </c>
+      <c r="C137">
+        <v>28</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>351</v>
+      </c>
+      <c r="F137" t="s">
+        <v>445</v>
+      </c>
+      <c r="G137" t="s">
+        <v>447</v>
+      </c>
+      <c r="H137" t="s">
+        <v>446</v>
+      </c>
+      <c r="I137" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>352</v>
+      </c>
+      <c r="F138" t="s">
+        <v>448</v>
+      </c>
+      <c r="G138">
+        <v>999</v>
+      </c>
+      <c r="H138" t="s">
+        <v>449</v>
+      </c>
+      <c r="I138" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>353</v>
+      </c>
+      <c r="F139" t="s">
+        <v>451</v>
+      </c>
+      <c r="G139">
+        <v>999</v>
+      </c>
+      <c r="H139" t="s">
+        <v>452</v>
+      </c>
+      <c r="I139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>354</v>
+      </c>
+      <c r="F140" t="s">
+        <v>454</v>
+      </c>
+      <c r="G140">
+        <v>999</v>
+      </c>
+      <c r="H140" t="s">
+        <v>455</v>
+      </c>
+      <c r="I140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>453</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>355</v>
+      </c>
+      <c r="F141" t="s">
+        <v>456</v>
+      </c>
+      <c r="G141">
+        <v>999</v>
+      </c>
+      <c r="H141" t="s">
+        <v>457</v>
+      </c>
+      <c r="I141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>453</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>356</v>
+      </c>
+      <c r="F142" t="s">
+        <v>458</v>
+      </c>
+      <c r="G142">
+        <v>999</v>
+      </c>
+      <c r="H142" t="s">
+        <v>459</v>
+      </c>
+      <c r="I142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>453</v>
+      </c>
+      <c r="C143">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>357</v>
+      </c>
+      <c r="F143" t="s">
+        <v>460</v>
+      </c>
+      <c r="G143" t="s">
+        <v>461</v>
+      </c>
+      <c r="H143" t="s">
+        <v>426</v>
+      </c>
+      <c r="I143" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>453</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>358</v>
+      </c>
+      <c r="F144" t="s">
+        <v>463</v>
+      </c>
+      <c r="G144">
+        <v>999</v>
+      </c>
+      <c r="H144" t="s">
+        <v>464</v>
+      </c>
+      <c r="I144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>453</v>
+      </c>
+      <c r="C145">
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>359</v>
+      </c>
+      <c r="F145" t="s">
+        <v>465</v>
+      </c>
+      <c r="G145">
+        <v>999</v>
+      </c>
+      <c r="H145" t="s">
+        <v>466</v>
+      </c>
+      <c r="I145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>360</v>
+      </c>
+      <c r="F146" t="s">
+        <v>467</v>
+      </c>
+      <c r="G146">
+        <v>999</v>
+      </c>
+      <c r="H146" t="s">
+        <v>442</v>
+      </c>
+      <c r="I146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>453</v>
+      </c>
+      <c r="C147">
+        <v>27</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>361</v>
+      </c>
+      <c r="F147" t="s">
+        <v>468</v>
+      </c>
+      <c r="G147">
+        <v>999</v>
+      </c>
+      <c r="H147" t="s">
+        <v>469</v>
+      </c>
+      <c r="I147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>453</v>
+      </c>
+      <c r="C148">
+        <v>29</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>362</v>
+      </c>
+      <c r="F148" t="s">
+        <v>470</v>
+      </c>
+      <c r="G148">
+        <v>999</v>
+      </c>
+      <c r="H148" t="s">
+        <v>471</v>
+      </c>
+      <c r="I148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>453</v>
+      </c>
+      <c r="C149">
+        <v>31</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>363</v>
+      </c>
+      <c r="F149" t="s">
+        <v>472</v>
+      </c>
+      <c r="G149">
+        <v>999</v>
+      </c>
+      <c r="H149" t="s">
+        <v>471</v>
+      </c>
+      <c r="I149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>364</v>
+      </c>
+      <c r="F150" t="s">
+        <v>474</v>
+      </c>
+      <c r="G150">
+        <v>999</v>
+      </c>
+      <c r="H150" t="s">
+        <v>475</v>
+      </c>
+      <c r="I150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>365</v>
+      </c>
+      <c r="F151" t="s">
+        <v>476</v>
+      </c>
+      <c r="G151">
+        <v>999</v>
+      </c>
+      <c r="H151" t="s">
+        <v>477</v>
+      </c>
+      <c r="I151" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152">
+        <v>22</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>366</v>
+      </c>
+      <c r="F152" t="s">
+        <v>478</v>
+      </c>
+      <c r="G152">
+        <v>999</v>
+      </c>
+      <c r="H152" t="s">
+        <v>479</v>
+      </c>
+      <c r="I152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>367</v>
+      </c>
+      <c r="F153" t="s">
+        <v>480</v>
+      </c>
+      <c r="G153">
+        <v>999</v>
+      </c>
+      <c r="H153" t="s">
+        <v>481</v>
+      </c>
+      <c r="I153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154">
+        <v>30</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>368</v>
+      </c>
+      <c r="F154" t="s">
+        <v>482</v>
+      </c>
+      <c r="G154">
+        <v>999</v>
+      </c>
+      <c r="H154" t="s">
+        <v>483</v>
+      </c>
+      <c r="I154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>484</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>369</v>
+      </c>
+      <c r="F155" t="s">
+        <v>485</v>
+      </c>
+      <c r="G155" t="s">
+        <v>486</v>
+      </c>
+      <c r="H155" t="s">
+        <v>487</v>
+      </c>
+      <c r="I155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>484</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>370</v>
+      </c>
+      <c r="F156" t="s">
+        <v>488</v>
+      </c>
+      <c r="G156">
+        <v>999</v>
+      </c>
+      <c r="H156" t="s">
+        <v>257</v>
+      </c>
+      <c r="I156">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>484</v>
+      </c>
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>371</v>
+      </c>
+      <c r="F157" t="s">
+        <v>489</v>
+      </c>
+      <c r="G157" t="s">
+        <v>490</v>
+      </c>
+      <c r="H157" t="s">
+        <v>491</v>
+      </c>
+      <c r="I157" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>484</v>
+      </c>
+      <c r="C158">
+        <v>25</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>372</v>
+      </c>
+      <c r="F158" t="s">
+        <v>493</v>
+      </c>
+      <c r="G158">
+        <v>999</v>
+      </c>
+      <c r="H158" t="s">
+        <v>494</v>
+      </c>
+      <c r="I158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>484</v>
+      </c>
+      <c r="C159">
+        <v>28</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" t="s">
+        <v>495</v>
+      </c>
+      <c r="G159">
+        <v>999</v>
+      </c>
+      <c r="H159" t="s">
+        <v>496</v>
+      </c>
+      <c r="I159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>484</v>
+      </c>
+      <c r="C160">
+        <v>31</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>374</v>
+      </c>
+      <c r="F160" t="s">
+        <v>497</v>
+      </c>
+      <c r="G160">
+        <v>999</v>
+      </c>
+      <c r="H160" t="s">
+        <v>483</v>
+      </c>
+      <c r="I160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161">
+        <v>33</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
+      <c r="F161" t="s">
+        <v>498</v>
+      </c>
+      <c r="G161">
+        <v>999</v>
+      </c>
+      <c r="H161" t="s">
+        <v>499</v>
+      </c>
+      <c r="I161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>500</v>
+      </c>
+      <c r="C162">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>376</v>
+      </c>
+      <c r="F162" t="s">
+        <v>501</v>
+      </c>
+      <c r="G162">
+        <v>999</v>
+      </c>
+      <c r="H162" t="s">
+        <v>502</v>
+      </c>
+      <c r="I162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>500</v>
+      </c>
+      <c r="C163">
+        <v>31</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>377</v>
+      </c>
+      <c r="F163" t="s">
+        <v>503</v>
+      </c>
+      <c r="G163">
+        <v>999</v>
+      </c>
+      <c r="H163" t="s">
+        <v>483</v>
+      </c>
+      <c r="I163" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164">
+        <v>33</v>
+      </c>
+      <c r="D164" t="s">
+        <v>504</v>
+      </c>
+      <c r="E164" t="s">
+        <v>378</v>
+      </c>
+      <c r="F164" t="s">
+        <v>505</v>
+      </c>
+      <c r="G164">
+        <v>999</v>
+      </c>
+      <c r="H164" t="s">
+        <v>506</v>
+      </c>
+      <c r="I164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>507</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>379</v>
+      </c>
+      <c r="F165" t="s">
+        <v>508</v>
+      </c>
+      <c r="G165" t="s">
+        <v>509</v>
+      </c>
+      <c r="H165" t="s">
+        <v>487</v>
+      </c>
+      <c r="I165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>507</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>380</v>
+      </c>
+      <c r="F166" t="s">
+        <v>510</v>
+      </c>
+      <c r="G166">
+        <v>999</v>
+      </c>
+      <c r="H166" t="s">
+        <v>487</v>
+      </c>
+      <c r="I166" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>507</v>
+      </c>
+      <c r="C167">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>381</v>
+      </c>
+      <c r="F167" t="s">
+        <v>511</v>
+      </c>
+      <c r="G167">
+        <v>999</v>
+      </c>
+      <c r="H167" t="s">
+        <v>512</v>
+      </c>
+      <c r="I167" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>507</v>
+      </c>
+      <c r="C168">
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>382</v>
+      </c>
+      <c r="F168" t="s">
+        <v>513</v>
+      </c>
+      <c r="G168">
+        <v>999</v>
+      </c>
+      <c r="H168" t="s">
+        <v>514</v>
+      </c>
+      <c r="I168" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>507</v>
+      </c>
+      <c r="C169">
+        <v>18</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>383</v>
+      </c>
+      <c r="F169" t="s">
+        <v>515</v>
+      </c>
+      <c r="G169">
+        <v>999</v>
+      </c>
+      <c r="H169" t="s">
+        <v>516</v>
+      </c>
+      <c r="I169" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>384</v>
+      </c>
+      <c r="F170" t="s">
+        <v>517</v>
+      </c>
+      <c r="G170">
+        <v>999</v>
+      </c>
+      <c r="H170" t="s">
+        <v>518</v>
+      </c>
+      <c r="I170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171">
+        <v>21</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>385</v>
+      </c>
+      <c r="F171" t="s">
+        <v>519</v>
+      </c>
+      <c r="G171">
+        <v>999</v>
+      </c>
+      <c r="H171" t="s">
+        <v>520</v>
+      </c>
+      <c r="I171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>507</v>
+      </c>
+      <c r="C172">
+        <v>23</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>386</v>
+      </c>
+      <c r="F172" t="s">
+        <v>521</v>
+      </c>
+      <c r="G172">
+        <v>999</v>
+      </c>
+      <c r="H172" t="s">
+        <v>502</v>
+      </c>
+      <c r="I172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>507</v>
+      </c>
+      <c r="C173">
+        <v>27</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>387</v>
+      </c>
+      <c r="F173" t="s">
+        <v>523</v>
+      </c>
+      <c r="G173">
+        <v>999</v>
+      </c>
+      <c r="H173" t="s">
+        <v>522</v>
+      </c>
+      <c r="I173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>507</v>
+      </c>
+      <c r="C174">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>388</v>
+      </c>
+      <c r="F174" t="s">
+        <v>524</v>
+      </c>
+      <c r="G174">
+        <v>999</v>
+      </c>
+      <c r="H174" t="s">
+        <v>483</v>
+      </c>
+      <c r="I174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>525</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>389</v>
+      </c>
+      <c r="F175" t="s">
+        <v>527</v>
+      </c>
+      <c r="G175">
+        <v>999</v>
+      </c>
+      <c r="H175" t="s">
+        <v>526</v>
+      </c>
+      <c r="I175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176">
+        <v>13</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176" t="s">
+        <v>390</v>
+      </c>
+      <c r="F176" t="s">
+        <v>528</v>
+      </c>
+      <c r="G176">
+        <v>999</v>
+      </c>
+      <c r="H176" t="s">
+        <v>512</v>
+      </c>
+      <c r="I176" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177">
+        <v>16</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>391</v>
+      </c>
+      <c r="F177" t="s">
+        <v>530</v>
+      </c>
+      <c r="G177" t="s">
+        <v>531</v>
+      </c>
+      <c r="H177" t="s">
+        <v>512</v>
+      </c>
+      <c r="I177" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>525</v>
+      </c>
+      <c r="C178">
+        <v>18</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>392</v>
+      </c>
+      <c r="F178" t="s">
+        <v>532</v>
+      </c>
+      <c r="G178">
+        <v>999</v>
+      </c>
+      <c r="H178" t="s">
+        <v>533</v>
+      </c>
+      <c r="I178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>393</v>
+      </c>
+      <c r="F179" t="s">
+        <v>535</v>
+      </c>
+      <c r="G179">
+        <v>999</v>
+      </c>
+      <c r="H179" t="s">
+        <v>526</v>
+      </c>
+      <c r="I179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180">
+        <v>19</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>394</v>
+      </c>
+      <c r="F180" t="s">
+        <v>536</v>
+      </c>
+      <c r="G180">
+        <v>999</v>
+      </c>
+      <c r="H180" t="s">
+        <v>537</v>
+      </c>
+      <c r="I180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181">
+        <v>22</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>395</v>
+      </c>
+      <c r="F181" t="s">
+        <v>538</v>
+      </c>
+      <c r="G181">
+        <v>999</v>
+      </c>
+      <c r="H181" t="s">
+        <v>539</v>
+      </c>
+      <c r="I181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>534</v>
+      </c>
+      <c r="C182">
+        <v>24</v>
+      </c>
+      <c r="D182">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>396</v>
+      </c>
+      <c r="F182" t="s">
+        <v>540</v>
+      </c>
+      <c r="G182">
+        <v>999</v>
+      </c>
+      <c r="H182" t="s">
+        <v>502</v>
+      </c>
+      <c r="I182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>534</v>
+      </c>
+      <c r="C183">
+        <v>26</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>397</v>
+      </c>
+      <c r="F183" t="s">
+        <v>541</v>
+      </c>
+      <c r="G183">
+        <v>999</v>
+      </c>
+      <c r="H183" t="s">
+        <v>542</v>
+      </c>
+      <c r="I183" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>534</v>
+      </c>
+      <c r="C184">
+        <v>27</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>398</v>
+      </c>
+      <c r="F184" t="s">
+        <v>543</v>
+      </c>
+      <c r="G184">
+        <v>999</v>
+      </c>
+      <c r="H184" t="s">
+        <v>522</v>
+      </c>
+      <c r="I184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>534</v>
+      </c>
+      <c r="C185">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>399</v>
+      </c>
+      <c r="F185" t="s">
+        <v>544</v>
+      </c>
+      <c r="G185">
+        <v>999</v>
+      </c>
+      <c r="H185" t="s">
+        <v>522</v>
+      </c>
+      <c r="I185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>545</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>400</v>
+      </c>
+      <c r="F186" t="s">
+        <v>546</v>
+      </c>
+      <c r="G186">
+        <v>999</v>
+      </c>
+      <c r="H186" t="s">
+        <v>547</v>
+      </c>
+      <c r="I186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>545</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>401</v>
+      </c>
+      <c r="F187" t="s">
+        <v>548</v>
+      </c>
+      <c r="G187">
+        <v>999</v>
+      </c>
+      <c r="H187" t="s">
+        <v>549</v>
+      </c>
+      <c r="I187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>545</v>
+      </c>
+      <c r="C188">
+        <v>13</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>402</v>
+      </c>
+      <c r="F188" t="s">
+        <v>550</v>
+      </c>
+      <c r="G188">
+        <v>999</v>
+      </c>
+      <c r="H188" t="s">
+        <v>551</v>
+      </c>
+      <c r="I188" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
+        <v>545</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>403</v>
+      </c>
+      <c r="F189" t="s">
+        <v>556</v>
+      </c>
+      <c r="G189">
+        <v>999</v>
+      </c>
+      <c r="H189" t="s">
+        <v>557</v>
+      </c>
+      <c r="I189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>545</v>
+      </c>
+      <c r="C190">
+        <v>17</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>404</v>
+      </c>
+      <c r="F190" t="s">
+        <v>558</v>
+      </c>
+      <c r="G190">
+        <v>999</v>
+      </c>
+      <c r="H190" t="s">
+        <v>537</v>
+      </c>
+      <c r="I190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
+        <v>545</v>
+      </c>
+      <c r="C191">
+        <v>19</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>405</v>
+      </c>
+      <c r="F191" t="s">
+        <v>559</v>
+      </c>
+      <c r="G191">
+        <v>999</v>
+      </c>
+      <c r="H191" t="s">
+        <v>539</v>
+      </c>
+      <c r="I191" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192">
+        <v>21</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>406</v>
+      </c>
+      <c r="F192" t="s">
+        <v>560</v>
+      </c>
+      <c r="G192">
+        <v>999</v>
+      </c>
+      <c r="H192" t="s">
+        <v>561</v>
+      </c>
+      <c r="I192" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>545</v>
+      </c>
+      <c r="C193">
+        <v>23</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+      <c r="E193" t="s">
+        <v>407</v>
+      </c>
+      <c r="F193" t="s">
+        <v>562</v>
+      </c>
+      <c r="G193">
+        <v>999</v>
+      </c>
+      <c r="H193" t="s">
+        <v>585</v>
+      </c>
+      <c r="I193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>563</v>
+      </c>
+      <c r="C194">
+        <v>9</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>408</v>
+      </c>
+      <c r="F194" t="s">
+        <v>564</v>
+      </c>
+      <c r="G194">
+        <v>999</v>
+      </c>
+      <c r="H194" t="s">
+        <v>547</v>
+      </c>
+      <c r="I194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>563</v>
+      </c>
+      <c r="C195">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>409</v>
+      </c>
+      <c r="F195" t="s">
+        <v>565</v>
+      </c>
+      <c r="G195">
+        <v>999</v>
+      </c>
+      <c r="H195" t="s">
+        <v>566</v>
+      </c>
+      <c r="I195" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>563</v>
+      </c>
+      <c r="C196">
+        <v>28</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>410</v>
+      </c>
+      <c r="F196" t="s">
+        <v>567</v>
+      </c>
+      <c r="G196">
+        <v>999</v>
+      </c>
+      <c r="H196" t="s">
+        <v>522</v>
+      </c>
+      <c r="I196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
+        <v>563</v>
+      </c>
+      <c r="C197">
+        <v>30</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>411</v>
+      </c>
+      <c r="F197" t="s">
+        <v>568</v>
+      </c>
+      <c r="G197">
+        <v>999</v>
+      </c>
+      <c r="H197" t="s">
+        <v>569</v>
+      </c>
+      <c r="I197" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>563</v>
+      </c>
+      <c r="C198">
+        <v>32</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>412</v>
+      </c>
+      <c r="F198" t="s">
+        <v>570</v>
+      </c>
+      <c r="G198">
+        <v>999</v>
+      </c>
+      <c r="H198" t="s">
+        <v>571</v>
+      </c>
+      <c r="I198" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>573</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>413</v>
+      </c>
+      <c r="F199" t="s">
+        <v>574</v>
+      </c>
+      <c r="G199">
+        <v>999</v>
+      </c>
+      <c r="H199" t="s">
+        <v>549</v>
+      </c>
+      <c r="I199" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>573</v>
+      </c>
+      <c r="C200">
+        <v>14</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>414</v>
+      </c>
+      <c r="F200" t="s">
+        <v>151</v>
+      </c>
+      <c r="G200">
+        <v>999</v>
+      </c>
+      <c r="H200" t="s">
+        <v>557</v>
+      </c>
+      <c r="I200" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>573</v>
+      </c>
+      <c r="C201">
+        <v>17</v>
+      </c>
+      <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>415</v>
+      </c>
+      <c r="F201" t="s">
+        <v>575</v>
+      </c>
+      <c r="G201">
+        <v>999</v>
+      </c>
+      <c r="H201" t="s">
+        <v>577</v>
+      </c>
+      <c r="I201" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>573</v>
+      </c>
+      <c r="C202">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>416</v>
+      </c>
+      <c r="F202" t="s">
+        <v>578</v>
+      </c>
+      <c r="G202">
+        <v>999</v>
+      </c>
+      <c r="H202" t="s">
+        <v>579</v>
+      </c>
+      <c r="I202" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
+        <v>573</v>
+      </c>
+      <c r="C203">
+        <v>22</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>417</v>
+      </c>
+      <c r="F203" t="s">
+        <v>580</v>
+      </c>
+      <c r="G203">
+        <v>999</v>
+      </c>
+      <c r="H203" t="s">
+        <v>581</v>
+      </c>
+      <c r="I203" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>573</v>
+      </c>
+      <c r="C204">
+        <v>23</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>418</v>
+      </c>
+      <c r="F204" t="s">
+        <v>582</v>
+      </c>
+      <c r="G204">
+        <v>999</v>
+      </c>
+      <c r="H204" t="s">
+        <v>583</v>
+      </c>
+      <c r="I204" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>573</v>
+      </c>
+      <c r="C205">
+        <v>25</v>
+      </c>
+      <c r="D205">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>419</v>
+      </c>
+      <c r="F205" t="s">
+        <v>586</v>
+      </c>
+      <c r="G205">
+        <v>999</v>
+      </c>
+      <c r="H205" t="s">
+        <v>305</v>
+      </c>
+      <c r="I205" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>587</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>420</v>
+      </c>
+      <c r="F206" t="s">
+        <v>588</v>
+      </c>
+      <c r="G206">
+        <v>999</v>
+      </c>
+      <c r="H206" t="s">
+        <v>547</v>
+      </c>
+      <c r="I206" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>587</v>
+      </c>
+      <c r="C207">
+        <v>16</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>552</v>
+      </c>
+      <c r="F207" t="s">
+        <v>589</v>
+      </c>
+      <c r="G207">
+        <v>999</v>
+      </c>
+      <c r="H207" t="s">
+        <v>590</v>
+      </c>
+      <c r="I207" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>587</v>
+      </c>
+      <c r="C208">
+        <v>28</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>553</v>
+      </c>
+      <c r="F208" t="s">
+        <v>591</v>
+      </c>
+      <c r="G208">
+        <v>999</v>
+      </c>
+      <c r="H208" t="s">
+        <v>566</v>
+      </c>
+      <c r="I208" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>587</v>
+      </c>
+      <c r="C209">
+        <v>32</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>554</v>
+      </c>
+      <c r="F209" t="s">
+        <v>592</v>
+      </c>
+      <c r="G209">
+        <v>999</v>
+      </c>
+      <c r="H209" t="s">
+        <v>594</v>
+      </c>
+      <c r="I209" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
+        <v>587</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>555</v>
+      </c>
+      <c r="F210" t="s">
+        <v>595</v>
+      </c>
+      <c r="G210">
+        <v>999</v>
+      </c>
+      <c r="H210" t="s">
+        <v>569</v>
+      </c>
+      <c r="I210" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Index_Ref/FS_Index_Ref.xlsx
+++ b/Index_Ref/FS_Index_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1507" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C465ED-D171-48CC-8113-8D8E59DC8FF1}"/>
+  <xr:revisionPtr revIDLastSave="1817" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3866B1-EFFE-4853-A790-86D544F59098}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="833">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -1824,6 +1824,717 @@
   </si>
   <si>
     <t>Meine</t>
+  </si>
+  <si>
+    <t>XXI_03_0001</t>
+  </si>
+  <si>
+    <t>XXI_03_0002</t>
+  </si>
+  <si>
+    <t>XXI_03_0003</t>
+  </si>
+  <si>
+    <t>XXI_03_0004</t>
+  </si>
+  <si>
+    <t>XXI_03_0005</t>
+  </si>
+  <si>
+    <t>XXI_03_0006</t>
+  </si>
+  <si>
+    <t>XXI_03_0007</t>
+  </si>
+  <si>
+    <t>XXI_03_0008</t>
+  </si>
+  <si>
+    <t>XXI_03_0009</t>
+  </si>
+  <si>
+    <t>XXI_03_0010</t>
+  </si>
+  <si>
+    <t>XXI_03_0011</t>
+  </si>
+  <si>
+    <t>XXI_03_0012</t>
+  </si>
+  <si>
+    <t>XXI_03_0013</t>
+  </si>
+  <si>
+    <t>XXI_03_0014</t>
+  </si>
+  <si>
+    <t>XXI_03_0015</t>
+  </si>
+  <si>
+    <t>XXI_03_0016</t>
+  </si>
+  <si>
+    <t>XXI_03_0017</t>
+  </si>
+  <si>
+    <t>XXI_03_0018</t>
+  </si>
+  <si>
+    <t>XXI_03_0019</t>
+  </si>
+  <si>
+    <t>XXI_03_0020</t>
+  </si>
+  <si>
+    <t>XXI_03_0021</t>
+  </si>
+  <si>
+    <t>XXI_03_0022</t>
+  </si>
+  <si>
+    <t>XXI_03_0023</t>
+  </si>
+  <si>
+    <t>XXI_03_0024</t>
+  </si>
+  <si>
+    <t>XXI_03_0025</t>
+  </si>
+  <si>
+    <t>XXI_03_0026</t>
+  </si>
+  <si>
+    <t>XXI_03_0027</t>
+  </si>
+  <si>
+    <t>XXI_03_0028</t>
+  </si>
+  <si>
+    <t>XXI_03_0029</t>
+  </si>
+  <si>
+    <t>XXI_03_0030</t>
+  </si>
+  <si>
+    <t>XXI_03_0031</t>
+  </si>
+  <si>
+    <t>XXI_03_0032</t>
+  </si>
+  <si>
+    <t>XXI_03_0033</t>
+  </si>
+  <si>
+    <t>XXI_03_0034</t>
+  </si>
+  <si>
+    <t>XXI_03_0035</t>
+  </si>
+  <si>
+    <t>XXI_03_0036</t>
+  </si>
+  <si>
+    <t>XXI_03_0037</t>
+  </si>
+  <si>
+    <t>XXI_03_0038</t>
+  </si>
+  <si>
+    <t>XXI_03_0039</t>
+  </si>
+  <si>
+    <t>XXI_03_0040</t>
+  </si>
+  <si>
+    <t>XXI_03_0041</t>
+  </si>
+  <si>
+    <t>XXI_03_0042</t>
+  </si>
+  <si>
+    <t>XXI_03_0043</t>
+  </si>
+  <si>
+    <t>XXI_03_0044</t>
+  </si>
+  <si>
+    <t>XXI_03_0045</t>
+  </si>
+  <si>
+    <t>XXI_03_0046</t>
+  </si>
+  <si>
+    <t>XXI_03_0047</t>
+  </si>
+  <si>
+    <t>XXI_03_0048</t>
+  </si>
+  <si>
+    <t>XXI_03_0049</t>
+  </si>
+  <si>
+    <t>XXI_03_0050</t>
+  </si>
+  <si>
+    <t>XXI_03_0051</t>
+  </si>
+  <si>
+    <t>XXI_03_0052</t>
+  </si>
+  <si>
+    <t>XXI_03_0053</t>
+  </si>
+  <si>
+    <t>XXI_03_0054</t>
+  </si>
+  <si>
+    <t>XXI_03_0055</t>
+  </si>
+  <si>
+    <t>XXI_03_0056</t>
+  </si>
+  <si>
+    <t>XXI_03_0057</t>
+  </si>
+  <si>
+    <t>XXI_03_0058</t>
+  </si>
+  <si>
+    <t>XXI_03_0059</t>
+  </si>
+  <si>
+    <t>XXI_03_0060</t>
+  </si>
+  <si>
+    <t>XXI_03_0061</t>
+  </si>
+  <si>
+    <t>XXI_03_0062</t>
+  </si>
+  <si>
+    <t>XXI_03_0063</t>
+  </si>
+  <si>
+    <t>XXI_03_0064</t>
+  </si>
+  <si>
+    <t>XXI_03_0065</t>
+  </si>
+  <si>
+    <t>XXI_03_0066</t>
+  </si>
+  <si>
+    <t>XXI_03_0067</t>
+  </si>
+  <si>
+    <t>XXI_03_0068</t>
+  </si>
+  <si>
+    <t>XXI_03_0069</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Mittenwald</t>
+  </si>
+  <si>
+    <t>Garmisch-Partenkirchen</t>
+  </si>
+  <si>
+    <t>Oberbayern</t>
+  </si>
+  <si>
+    <t>g'</t>
+  </si>
+  <si>
+    <t>Dahn</t>
+  </si>
+  <si>
+    <t>Pirmasens</t>
+  </si>
+  <si>
+    <t>Westmark</t>
+  </si>
+  <si>
+    <t>Neupotz</t>
+  </si>
+  <si>
+    <t>Saarpfalz</t>
+  </si>
+  <si>
+    <t>Germersheim</t>
+  </si>
+  <si>
+    <t>Talheim</t>
+  </si>
+  <si>
+    <t>Württembg.</t>
+  </si>
+  <si>
+    <t>Heilbron̄</t>
+  </si>
+  <si>
+    <t>Finsterrot</t>
+  </si>
+  <si>
+    <t>Schwäb. Hall</t>
+  </si>
+  <si>
+    <t>Land: Württemberg</t>
+  </si>
+  <si>
+    <t>Vellberg</t>
+  </si>
+  <si>
+    <t>Gau Württemberg</t>
+  </si>
+  <si>
+    <t>Hall {auf der 1. Seite: Schwäbisch-Hall}</t>
+  </si>
+  <si>
+    <t>Ehingen</t>
+  </si>
+  <si>
+    <t>Dinkelsbühl</t>
+  </si>
+  <si>
+    <t>Mittelfranken</t>
+  </si>
+  <si>
+    <t>Prackenbach</t>
+  </si>
+  <si>
+    <t>Viechtach</t>
+  </si>
+  <si>
+    <t>Niederbayern</t>
+  </si>
+  <si>
+    <t>h'</t>
+  </si>
+  <si>
+    <t>Bayern, Gau Franken</t>
+  </si>
+  <si>
+    <t>Sammenheim</t>
+  </si>
+  <si>
+    <t>Gunzenhausen</t>
+  </si>
+  <si>
+    <t>Ruppmannsburg</t>
+  </si>
+  <si>
+    <t>Hilpoltstein</t>
+  </si>
+  <si>
+    <t>Dietfurt</t>
+  </si>
+  <si>
+    <t>Oberpfalz</t>
+  </si>
+  <si>
+    <t>Pielenhofen</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Oberpfalz b. Ostmark</t>
+  </si>
+  <si>
+    <t>Wenzenbach</t>
+  </si>
+  <si>
+    <t>&lt;Umgeburg von&gt; Regensburg &lt;12 km nördlich v. Rgbg.&gt;</t>
+  </si>
+  <si>
+    <t>Niederb[ä]yern Oberpfalz</t>
+  </si>
+  <si>
+    <t>Rettenbach</t>
+  </si>
+  <si>
+    <t>Oberpf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern  </t>
+  </si>
+  <si>
+    <t>Bodenmais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regen  </t>
+  </si>
+  <si>
+    <t>i'</t>
+  </si>
+  <si>
+    <t>Oberweissach</t>
+  </si>
+  <si>
+    <t>Backnang</t>
+  </si>
+  <si>
+    <t>Land Württemberg</t>
+  </si>
+  <si>
+    <t>Untergröningen</t>
+  </si>
+  <si>
+    <t>Schw. Gmünd</t>
+  </si>
+  <si>
+    <t>Württemberg</t>
+  </si>
+  <si>
+    <t>Killingen</t>
+  </si>
+  <si>
+    <t>[A]alen</t>
+  </si>
+  <si>
+    <t>Maihingen</t>
+  </si>
+  <si>
+    <t>Nördlingen</t>
+  </si>
+  <si>
+    <t>Schwaben</t>
+  </si>
+  <si>
+    <t>Zandt</t>
+  </si>
+  <si>
+    <t>Eichstätt {steht auf seite 4 nicht an richtiger stelle, aber auf seite 1 eindeutig}</t>
+  </si>
+  <si>
+    <t>Kelheim</t>
+  </si>
+  <si>
+    <t>Altbayern</t>
+  </si>
+  <si>
+    <t>Thalmassing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Nie?????] Oberpfalz  </t>
+  </si>
+  <si>
+    <t>Straubing-Land</t>
+  </si>
+  <si>
+    <t>Niederm[o]tzing</t>
+  </si>
+  <si>
+    <t>k'</t>
+  </si>
+  <si>
+    <t>Pinache</t>
+  </si>
+  <si>
+    <t>Vaihingen/Enz</t>
+  </si>
+  <si>
+    <t>Ludwigsburg</t>
+  </si>
+  <si>
+    <t>Eglosheim, Ludwigsburg {auf seite 1 sthet nur egloshein, auf seite 4 Ludwigsburg/Eglosburg}</t>
+  </si>
+  <si>
+    <t>Gundelsheim</t>
+  </si>
+  <si>
+    <t>Donauwörth</t>
+  </si>
+  <si>
+    <t>Obereichstätt</t>
+  </si>
+  <si>
+    <t>Eichstätt U. Fr.</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Aschenau</t>
+  </si>
+  <si>
+    <t>Deggendorf</t>
+  </si>
+  <si>
+    <t>Bay.-Ostmark</t>
+  </si>
+  <si>
+    <t>Kirchberg</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Bayrischer Wald</t>
+  </si>
+  <si>
+    <t>Neuschönau</t>
+  </si>
+  <si>
+    <t>Segen-Grafenau</t>
+  </si>
+  <si>
+    <t>Bayer. Ostmark</t>
+  </si>
+  <si>
+    <t>l'</t>
+  </si>
+  <si>
+    <t>Thanashardt</t>
+  </si>
+  <si>
+    <t>Eßlingen</t>
+  </si>
+  <si>
+    <t>Waldstetten</t>
+  </si>
+  <si>
+    <t>Gmünd</t>
+  </si>
+  <si>
+    <t>Ochsenberg</t>
+  </si>
+  <si>
+    <t>Heidenheim Br.</t>
+  </si>
+  <si>
+    <t>Bollstadt</t>
+  </si>
+  <si>
+    <t>Hafenreut</t>
+  </si>
+  <si>
+    <t>Unterstall</t>
+  </si>
+  <si>
+    <t>Neuburg a. D.</t>
+  </si>
+  <si>
+    <t>Feldkirchen</t>
+  </si>
+  <si>
+    <t>b. Ingolst./Donau</t>
+  </si>
+  <si>
+    <t>Ingolstadt-München</t>
+  </si>
+  <si>
+    <t>Siegenburg</t>
+  </si>
+  <si>
+    <t>Oberlindhart</t>
+  </si>
+  <si>
+    <t>Mallersdorf</t>
+  </si>
+  <si>
+    <t>Reg. Bez. Nied[l].-Oberpf</t>
+  </si>
+  <si>
+    <t>Buchhausen</t>
+  </si>
+  <si>
+    <t>Dingolfing</t>
+  </si>
+  <si>
+    <t>Bayrische Ostmark</t>
+  </si>
+  <si>
+    <t>Otzing</t>
+  </si>
+  <si>
+    <t>Deggendorf Niederbayern</t>
+  </si>
+  <si>
+    <t>Niederb[yer]</t>
+  </si>
+  <si>
+    <t>Ranfels</t>
+  </si>
+  <si>
+    <t>Regen-Grafenau</t>
+  </si>
+  <si>
+    <t>XXI_03_0070</t>
+  </si>
+  <si>
+    <t>XXI_03_0071</t>
+  </si>
+  <si>
+    <t>XXI_03_0072</t>
+  </si>
+  <si>
+    <t>XXI_03_0073</t>
+  </si>
+  <si>
+    <t>XXI_03_0074</t>
+  </si>
+  <si>
+    <t>XXI_03_0075</t>
+  </si>
+  <si>
+    <t>XXI_03_0076</t>
+  </si>
+  <si>
+    <t>XXI_03_0077</t>
+  </si>
+  <si>
+    <t>XXI_03_0078</t>
+  </si>
+  <si>
+    <t>XXI_03_0079</t>
+  </si>
+  <si>
+    <t>XXI_03_0080</t>
+  </si>
+  <si>
+    <t>XXI_03_0081</t>
+  </si>
+  <si>
+    <t>XXI_03_0082</t>
+  </si>
+  <si>
+    <t>XXI_03_0083</t>
+  </si>
+  <si>
+    <t>XXI_03_0084</t>
+  </si>
+  <si>
+    <t>XXI_03_0085</t>
+  </si>
+  <si>
+    <t>XXI_03_0086</t>
+  </si>
+  <si>
+    <t>XXI_03_0087</t>
+  </si>
+  <si>
+    <t>XXI_03_0088</t>
+  </si>
+  <si>
+    <t>XXI_03_0089</t>
+  </si>
+  <si>
+    <t>XXI_03_0090</t>
+  </si>
+  <si>
+    <t>XXI_03_0091</t>
+  </si>
+  <si>
+    <t>XXI_03_0092</t>
+  </si>
+  <si>
+    <t>XXI_03_0093</t>
+  </si>
+  <si>
+    <t>XXI_03_0094</t>
+  </si>
+  <si>
+    <t>XXI_03_0095</t>
+  </si>
+  <si>
+    <t>XXI_03_0096</t>
+  </si>
+  <si>
+    <t>XXI_03_0097</t>
+  </si>
+  <si>
+    <t>XXI_03_0098</t>
+  </si>
+  <si>
+    <t>XXI_03_0099</t>
+  </si>
+  <si>
+    <t>XXI_03_0100</t>
+  </si>
+  <si>
+    <t>XXI_03_0101</t>
+  </si>
+  <si>
+    <t>XXI_03_0102</t>
+  </si>
+  <si>
+    <t>XXI_03_0103</t>
+  </si>
+  <si>
+    <t>XXI_03_0104</t>
+  </si>
+  <si>
+    <t>XXI_03_0105</t>
+  </si>
+  <si>
+    <t>XXI_03_0106</t>
+  </si>
+  <si>
+    <t>XXI_03_0107</t>
+  </si>
+  <si>
+    <t>XXI_03_0108</t>
+  </si>
+  <si>
+    <t>XXI_03_0109</t>
+  </si>
+  <si>
+    <t>XXI_03_0110</t>
+  </si>
+  <si>
+    <t>XXI_03_0111</t>
+  </si>
+  <si>
+    <t>XXI_03_0112</t>
+  </si>
+  <si>
+    <t>XXI_03_0113</t>
+  </si>
+  <si>
+    <t>XXI_03_0114</t>
+  </si>
+  <si>
+    <t>XXI_03_0115</t>
+  </si>
+  <si>
+    <t>XXI_03_0116</t>
+  </si>
+  <si>
+    <t>XXI_03_0117</t>
+  </si>
+  <si>
+    <t>XXI_03_0118</t>
+  </si>
+  <si>
+    <t>XXI_03_0119</t>
+  </si>
+  <si>
+    <t>XXI_03_0120</t>
+  </si>
+  <si>
+    <t>XXI_03_0121</t>
+  </si>
+  <si>
+    <t>XXI_03_0122</t>
+  </si>
+  <si>
+    <t>XXI_03_0123</t>
+  </si>
+  <si>
+    <t>XXI_03_0124</t>
+  </si>
+  <si>
+    <t>XXI_03_0125</t>
+  </si>
+  <si>
+    <t>XXI_03_0126</t>
+  </si>
+  <si>
+    <t>XXI_03_0127</t>
   </si>
 </sst>
 </file>
@@ -1927,6 +2638,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J210" sqref="J210"/>
+      <selection activeCell="F345" sqref="F345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8329,6 +9044,2174 @@
         <v>305</v>
       </c>
     </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>665</v>
+      </c>
+      <c r="C211">
+        <v>34</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>596</v>
+      </c>
+      <c r="F211" t="s">
+        <v>666</v>
+      </c>
+      <c r="G211">
+        <v>999</v>
+      </c>
+      <c r="H211" t="s">
+        <v>667</v>
+      </c>
+      <c r="I211" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>669</v>
+      </c>
+      <c r="C212">
+        <v>13</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>597</v>
+      </c>
+      <c r="F212" t="s">
+        <v>670</v>
+      </c>
+      <c r="G212">
+        <v>999</v>
+      </c>
+      <c r="H212" t="s">
+        <v>671</v>
+      </c>
+      <c r="I212" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>669</v>
+      </c>
+      <c r="C213">
+        <v>16</v>
+      </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
+      <c r="E213" t="s">
+        <v>598</v>
+      </c>
+      <c r="F213" t="s">
+        <v>673</v>
+      </c>
+      <c r="G213" t="s">
+        <v>674</v>
+      </c>
+      <c r="H213" t="s">
+        <v>675</v>
+      </c>
+      <c r="I213" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>669</v>
+      </c>
+      <c r="C214">
+        <v>22</v>
+      </c>
+      <c r="D214">
+        <v>6</v>
+      </c>
+      <c r="E214" t="s">
+        <v>599</v>
+      </c>
+      <c r="F214" t="s">
+        <v>676</v>
+      </c>
+      <c r="G214">
+        <v>999</v>
+      </c>
+      <c r="H214" t="s">
+        <v>678</v>
+      </c>
+      <c r="I214" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>669</v>
+      </c>
+      <c r="C215">
+        <v>23</v>
+      </c>
+      <c r="D215">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>600</v>
+      </c>
+      <c r="F215" t="s">
+        <v>679</v>
+      </c>
+      <c r="G215">
+        <v>999</v>
+      </c>
+      <c r="H215" t="s">
+        <v>680</v>
+      </c>
+      <c r="I215" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>669</v>
+      </c>
+      <c r="C216">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>601</v>
+      </c>
+      <c r="F216" t="s">
+        <v>682</v>
+      </c>
+      <c r="G216">
+        <v>999</v>
+      </c>
+      <c r="H216" t="s">
+        <v>684</v>
+      </c>
+      <c r="I216" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>669</v>
+      </c>
+      <c r="C217">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>602</v>
+      </c>
+      <c r="F217" t="s">
+        <v>685</v>
+      </c>
+      <c r="G217">
+        <v>999</v>
+      </c>
+      <c r="H217" t="s">
+        <v>686</v>
+      </c>
+      <c r="I217" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>669</v>
+      </c>
+      <c r="C218">
+        <v>43</v>
+      </c>
+      <c r="D218">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>603</v>
+      </c>
+      <c r="F218" t="s">
+        <v>688</v>
+      </c>
+      <c r="G218">
+        <v>999</v>
+      </c>
+      <c r="H218" t="s">
+        <v>689</v>
+      </c>
+      <c r="I218" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>691</v>
+      </c>
+      <c r="C219">
+        <v>28</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
+        <v>604</v>
+      </c>
+      <c r="F219" t="s">
+        <v>686</v>
+      </c>
+      <c r="G219">
+        <v>999</v>
+      </c>
+      <c r="H219" t="s">
+        <v>686</v>
+      </c>
+      <c r="I219" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>691</v>
+      </c>
+      <c r="C220">
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>605</v>
+      </c>
+      <c r="F220" t="s">
+        <v>693</v>
+      </c>
+      <c r="G220">
+        <v>999</v>
+      </c>
+      <c r="H220" t="s">
+        <v>694</v>
+      </c>
+      <c r="I220" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>691</v>
+      </c>
+      <c r="C221">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>606</v>
+      </c>
+      <c r="F221" t="s">
+        <v>695</v>
+      </c>
+      <c r="G221">
+        <v>999</v>
+      </c>
+      <c r="H221" t="s">
+        <v>696</v>
+      </c>
+      <c r="I221" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>691</v>
+      </c>
+      <c r="C222">
+        <v>36</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>607</v>
+      </c>
+      <c r="F222" t="s">
+        <v>697</v>
+      </c>
+      <c r="G222">
+        <v>999</v>
+      </c>
+      <c r="H222" t="s">
+        <v>698</v>
+      </c>
+      <c r="I222">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>691</v>
+      </c>
+      <c r="C223">
+        <v>38</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>608</v>
+      </c>
+      <c r="F223" t="s">
+        <v>699</v>
+      </c>
+      <c r="G223">
+        <v>999</v>
+      </c>
+      <c r="H223" t="s">
+        <v>700</v>
+      </c>
+      <c r="I223" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>691</v>
+      </c>
+      <c r="C224">
+        <v>40</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>609</v>
+      </c>
+      <c r="F224" t="s">
+        <v>702</v>
+      </c>
+      <c r="G224">
+        <v>999</v>
+      </c>
+      <c r="H224" t="s">
+        <v>704</v>
+      </c>
+      <c r="I224" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
+        <v>691</v>
+      </c>
+      <c r="C225">
+        <v>41</v>
+      </c>
+      <c r="D225">
+        <v>4</v>
+      </c>
+      <c r="E225" t="s">
+        <v>610</v>
+      </c>
+      <c r="F225" t="s">
+        <v>705</v>
+      </c>
+      <c r="G225">
+        <v>999</v>
+      </c>
+      <c r="H225" t="s">
+        <v>706</v>
+      </c>
+      <c r="I225" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>691</v>
+      </c>
+      <c r="C226">
+        <v>45</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226" t="s">
+        <v>611</v>
+      </c>
+      <c r="F226" t="s">
+        <v>708</v>
+      </c>
+      <c r="G226">
+        <v>999</v>
+      </c>
+      <c r="H226" t="s">
+        <v>709</v>
+      </c>
+      <c r="I226" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>710</v>
+      </c>
+      <c r="C227">
+        <v>24</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>612</v>
+      </c>
+      <c r="F227" t="s">
+        <v>711</v>
+      </c>
+      <c r="G227">
+        <v>999</v>
+      </c>
+      <c r="H227" t="s">
+        <v>712</v>
+      </c>
+      <c r="I227" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>710</v>
+      </c>
+      <c r="C228">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <v>7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>613</v>
+      </c>
+      <c r="F228" t="s">
+        <v>714</v>
+      </c>
+      <c r="G228">
+        <v>999</v>
+      </c>
+      <c r="H228" t="s">
+        <v>715</v>
+      </c>
+      <c r="I228" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>710</v>
+      </c>
+      <c r="C229">
+        <v>28</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>614</v>
+      </c>
+      <c r="F229" t="s">
+        <v>717</v>
+      </c>
+      <c r="G229">
+        <v>999</v>
+      </c>
+      <c r="H229" t="s">
+        <v>718</v>
+      </c>
+      <c r="I229" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
+        <v>710</v>
+      </c>
+      <c r="C230">
+        <v>29</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>615</v>
+      </c>
+      <c r="F230" t="s">
+        <v>719</v>
+      </c>
+      <c r="G230">
+        <v>999</v>
+      </c>
+      <c r="H230" t="s">
+        <v>720</v>
+      </c>
+      <c r="I230" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>710</v>
+      </c>
+      <c r="C231">
+        <v>35</v>
+      </c>
+      <c r="D231">
+        <v>7</v>
+      </c>
+      <c r="E231" t="s">
+        <v>616</v>
+      </c>
+      <c r="F231" t="s">
+        <v>722</v>
+      </c>
+      <c r="G231">
+        <v>999</v>
+      </c>
+      <c r="H231" t="s">
+        <v>723</v>
+      </c>
+      <c r="I231" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>710</v>
+      </c>
+      <c r="C232">
+        <v>38</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232" t="s">
+        <v>617</v>
+      </c>
+      <c r="F232" t="s">
+        <v>724</v>
+      </c>
+      <c r="G232">
+        <v>999</v>
+      </c>
+      <c r="H232" t="s">
+        <v>724</v>
+      </c>
+      <c r="I232" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>710</v>
+      </c>
+      <c r="C233">
+        <v>39</v>
+      </c>
+      <c r="D233">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>618</v>
+      </c>
+      <c r="F233" t="s">
+        <v>726</v>
+      </c>
+      <c r="G233">
+        <v>999</v>
+      </c>
+      <c r="H233" t="s">
+        <v>700</v>
+      </c>
+      <c r="I233" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>710</v>
+      </c>
+      <c r="C234">
+        <v>42</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234" t="s">
+        <v>619</v>
+      </c>
+      <c r="F234" t="s">
+        <v>729</v>
+      </c>
+      <c r="G234">
+        <v>999</v>
+      </c>
+      <c r="H234" t="s">
+        <v>690</v>
+      </c>
+      <c r="I234" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>730</v>
+      </c>
+      <c r="C235">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>620</v>
+      </c>
+      <c r="F235" t="s">
+        <v>731</v>
+      </c>
+      <c r="G235">
+        <v>999</v>
+      </c>
+      <c r="H235" t="s">
+        <v>732</v>
+      </c>
+      <c r="I235" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C236" s="3">
+        <v>22</v>
+      </c>
+      <c r="D236" s="3">
+        <v>3</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G236" s="3">
+        <v>999</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s">
+        <v>730</v>
+      </c>
+      <c r="C237">
+        <v>32</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>622</v>
+      </c>
+      <c r="F237" t="s">
+        <v>735</v>
+      </c>
+      <c r="G237">
+        <v>999</v>
+      </c>
+      <c r="H237" t="s">
+        <v>736</v>
+      </c>
+      <c r="I237">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>730</v>
+      </c>
+      <c r="C238">
+        <v>33</v>
+      </c>
+      <c r="D238">
+        <v>7</v>
+      </c>
+      <c r="E238" t="s">
+        <v>623</v>
+      </c>
+      <c r="F238" t="s">
+        <v>737</v>
+      </c>
+      <c r="G238">
+        <v>999</v>
+      </c>
+      <c r="H238" t="s">
+        <v>738</v>
+      </c>
+      <c r="I238" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>730</v>
+      </c>
+      <c r="C239">
+        <v>44</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>624</v>
+      </c>
+      <c r="F239" t="s">
+        <v>740</v>
+      </c>
+      <c r="G239">
+        <v>999</v>
+      </c>
+      <c r="H239" t="s">
+        <v>741</v>
+      </c>
+      <c r="I239" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" t="s">
+        <v>730</v>
+      </c>
+      <c r="C240">
+        <v>46</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>625</v>
+      </c>
+      <c r="F240" t="s">
+        <v>743</v>
+      </c>
+      <c r="G240">
+        <v>999</v>
+      </c>
+      <c r="H240" t="s">
+        <v>744</v>
+      </c>
+      <c r="I240" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" t="s">
+        <v>730</v>
+      </c>
+      <c r="C241">
+        <v>47</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>626</v>
+      </c>
+      <c r="F241" t="s">
+        <v>746</v>
+      </c>
+      <c r="G241">
+        <v>999</v>
+      </c>
+      <c r="H241" t="s">
+        <v>747</v>
+      </c>
+      <c r="I241" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
+        <v>749</v>
+      </c>
+      <c r="C242">
+        <v>23</v>
+      </c>
+      <c r="D242">
+        <v>17</v>
+      </c>
+      <c r="E242" t="s">
+        <v>627</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G242">
+        <v>999</v>
+      </c>
+      <c r="H242" t="s">
+        <v>751</v>
+      </c>
+      <c r="I242" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>749</v>
+      </c>
+      <c r="C243">
+        <v>25</v>
+      </c>
+      <c r="D243">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>628</v>
+      </c>
+      <c r="F243" t="s">
+        <v>752</v>
+      </c>
+      <c r="G243">
+        <v>999</v>
+      </c>
+      <c r="H243" t="s">
+        <v>753</v>
+      </c>
+      <c r="I243" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>749</v>
+      </c>
+      <c r="C244">
+        <v>27</v>
+      </c>
+      <c r="D244">
+        <v>4</v>
+      </c>
+      <c r="E244" t="s">
+        <v>629</v>
+      </c>
+      <c r="F244" t="s">
+        <v>754</v>
+      </c>
+      <c r="G244">
+        <v>999</v>
+      </c>
+      <c r="H244" t="s">
+        <v>755</v>
+      </c>
+      <c r="I244" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" t="s">
+        <v>749</v>
+      </c>
+      <c r="C245">
+        <v>29</v>
+      </c>
+      <c r="D245">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>630</v>
+      </c>
+      <c r="F245" t="s">
+        <v>756</v>
+      </c>
+      <c r="G245">
+        <v>999</v>
+      </c>
+      <c r="H245" t="s">
+        <v>720</v>
+      </c>
+      <c r="I245" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" t="s">
+        <v>749</v>
+      </c>
+      <c r="C246">
+        <v>32</v>
+      </c>
+      <c r="D246">
+        <v>7</v>
+      </c>
+      <c r="E246" t="s">
+        <v>631</v>
+      </c>
+      <c r="F246" t="s">
+        <v>757</v>
+      </c>
+      <c r="G246">
+        <v>999</v>
+      </c>
+      <c r="H246" t="s">
+        <v>736</v>
+      </c>
+      <c r="I246" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" t="s">
+        <v>749</v>
+      </c>
+      <c r="C247">
+        <v>34</v>
+      </c>
+      <c r="D247">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>632</v>
+      </c>
+      <c r="F247" t="s">
+        <v>758</v>
+      </c>
+      <c r="G247">
+        <v>999</v>
+      </c>
+      <c r="H247" t="s">
+        <v>759</v>
+      </c>
+      <c r="I247" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" t="s">
+        <v>749</v>
+      </c>
+      <c r="C248">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
+        <v>633</v>
+      </c>
+      <c r="F248" t="s">
+        <v>760</v>
+      </c>
+      <c r="G248" t="s">
+        <v>761</v>
+      </c>
+      <c r="H248" t="s">
+        <v>762</v>
+      </c>
+      <c r="I248" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
+        <v>749</v>
+      </c>
+      <c r="C249">
+        <v>38</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249" t="s">
+        <v>634</v>
+      </c>
+      <c r="F249" t="s">
+        <v>763</v>
+      </c>
+      <c r="G249">
+        <v>999</v>
+      </c>
+      <c r="H249" t="s">
+        <v>724</v>
+      </c>
+      <c r="I249" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>749</v>
+      </c>
+      <c r="C250">
+        <v>40</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>635</v>
+      </c>
+      <c r="F250" t="s">
+        <v>764</v>
+      </c>
+      <c r="G250">
+        <v>999</v>
+      </c>
+      <c r="H250" t="s">
+        <v>765</v>
+      </c>
+      <c r="I250" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>749</v>
+      </c>
+      <c r="C251">
+        <v>41</v>
+      </c>
+      <c r="D251">
+        <v>10</v>
+      </c>
+      <c r="E251" t="s">
+        <v>636</v>
+      </c>
+      <c r="F251" t="s">
+        <v>767</v>
+      </c>
+      <c r="G251">
+        <v>999</v>
+      </c>
+      <c r="H251" t="s">
+        <v>768</v>
+      </c>
+      <c r="I251" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
+        <v>749</v>
+      </c>
+      <c r="C252">
+        <v>43</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>637</v>
+      </c>
+      <c r="F252" t="s">
+        <v>770</v>
+      </c>
+      <c r="G252">
+        <v>999</v>
+      </c>
+      <c r="H252" t="s">
+        <v>771</v>
+      </c>
+      <c r="I252" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" t="s">
+        <v>749</v>
+      </c>
+      <c r="C253">
+        <v>46</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253" t="s">
+        <v>638</v>
+      </c>
+      <c r="F253" t="s">
+        <v>773</v>
+      </c>
+      <c r="G253">
+        <v>999</v>
+      </c>
+      <c r="H253" t="s">
+        <v>774</v>
+      </c>
+      <c r="I253" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>639</v>
+      </c>
+      <c r="G254">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>640</v>
+      </c>
+      <c r="G255">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>641</v>
+      </c>
+      <c r="G256">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>642</v>
+      </c>
+      <c r="G257">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>643</v>
+      </c>
+      <c r="G258">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>644</v>
+      </c>
+      <c r="G259">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>645</v>
+      </c>
+      <c r="G260">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>646</v>
+      </c>
+      <c r="G261">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>647</v>
+      </c>
+      <c r="G262">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>648</v>
+      </c>
+      <c r="G263">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>649</v>
+      </c>
+      <c r="G264">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>650</v>
+      </c>
+      <c r="G265">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>651</v>
+      </c>
+      <c r="G266">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>652</v>
+      </c>
+      <c r="G267">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>653</v>
+      </c>
+      <c r="G268">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>654</v>
+      </c>
+      <c r="G269">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
+        <v>655</v>
+      </c>
+      <c r="G270">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>656</v>
+      </c>
+      <c r="G271">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>657</v>
+      </c>
+      <c r="G272">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>658</v>
+      </c>
+      <c r="G273">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>9</v>
+      </c>
+      <c r="E274" t="s">
+        <v>659</v>
+      </c>
+      <c r="G274">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>9</v>
+      </c>
+      <c r="E275" t="s">
+        <v>660</v>
+      </c>
+      <c r="G275">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>661</v>
+      </c>
+      <c r="G276">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>662</v>
+      </c>
+      <c r="G277">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" t="s">
+        <v>664</v>
+      </c>
+      <c r="G279">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>775</v>
+      </c>
+      <c r="G280">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" t="s">
+        <v>776</v>
+      </c>
+      <c r="G281">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+      <c r="E282" t="s">
+        <v>777</v>
+      </c>
+      <c r="G282">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>778</v>
+      </c>
+      <c r="G283">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>779</v>
+      </c>
+      <c r="G284">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>780</v>
+      </c>
+      <c r="G285">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>781</v>
+      </c>
+      <c r="G286">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>782</v>
+      </c>
+      <c r="G287">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>783</v>
+      </c>
+      <c r="G288">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>784</v>
+      </c>
+      <c r="G289">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>785</v>
+      </c>
+      <c r="G290">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" t="s">
+        <v>786</v>
+      </c>
+      <c r="G291">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>787</v>
+      </c>
+      <c r="G292">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>788</v>
+      </c>
+      <c r="G293">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>789</v>
+      </c>
+      <c r="G294">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>790</v>
+      </c>
+      <c r="G295">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>791</v>
+      </c>
+      <c r="G296">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" t="s">
+        <v>792</v>
+      </c>
+      <c r="G297">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" t="s">
+        <v>793</v>
+      </c>
+      <c r="G298">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>794</v>
+      </c>
+      <c r="G299">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>795</v>
+      </c>
+      <c r="G300">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>796</v>
+      </c>
+      <c r="G301">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" t="s">
+        <v>797</v>
+      </c>
+      <c r="G302">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>798</v>
+      </c>
+      <c r="G303">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>799</v>
+      </c>
+      <c r="G304">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>800</v>
+      </c>
+      <c r="G305">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>801</v>
+      </c>
+      <c r="G306">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>802</v>
+      </c>
+      <c r="G307">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s">
+        <v>803</v>
+      </c>
+      <c r="G308">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>804</v>
+      </c>
+      <c r="G309">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>805</v>
+      </c>
+      <c r="G310">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>806</v>
+      </c>
+      <c r="G311">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>807</v>
+      </c>
+      <c r="G312">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" t="s">
+        <v>808</v>
+      </c>
+      <c r="G313">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>809</v>
+      </c>
+      <c r="G314">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>810</v>
+      </c>
+      <c r="G315">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>811</v>
+      </c>
+      <c r="G316">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>812</v>
+      </c>
+      <c r="G317">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>813</v>
+      </c>
+      <c r="G318">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>814</v>
+      </c>
+      <c r="G319">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>815</v>
+      </c>
+      <c r="G320">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>816</v>
+      </c>
+      <c r="G321">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>817</v>
+      </c>
+      <c r="G322">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" t="s">
+        <v>818</v>
+      </c>
+      <c r="G323">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>819</v>
+      </c>
+      <c r="G324">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>820</v>
+      </c>
+      <c r="G325">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>821</v>
+      </c>
+      <c r="G326">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>822</v>
+      </c>
+      <c r="G327">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>823</v>
+      </c>
+      <c r="G328">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>824</v>
+      </c>
+      <c r="G329">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>825</v>
+      </c>
+      <c r="G330">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>826</v>
+      </c>
+      <c r="G331">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>827</v>
+      </c>
+      <c r="G332">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" t="s">
+        <v>828</v>
+      </c>
+      <c r="G333">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s">
+        <v>829</v>
+      </c>
+      <c r="G334">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" t="s">
+        <v>830</v>
+      </c>
+      <c r="G335">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" t="s">
+        <v>831</v>
+      </c>
+      <c r="G336">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" t="s">
+        <v>832</v>
+      </c>
+      <c r="G337">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Index_Ref/FS_Index_Ref.xlsx
+++ b/Index_Ref/FS_Index_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1817" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3866B1-EFFE-4853-A790-86D544F59098}"/>
+  <xr:revisionPtr revIDLastSave="2373" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6735CB4-7657-4016-87F9-2F7134249EC4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1031">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -2288,9 +2288,6 @@
     <t>l'</t>
   </si>
   <si>
-    <t>Thanashardt</t>
-  </si>
-  <si>
     <t>Eßlingen</t>
   </si>
   <si>
@@ -2535,6 +2532,603 @@
   </si>
   <si>
     <t>XXI_03_0127</t>
+  </si>
+  <si>
+    <t>Thomashardt</t>
+  </si>
+  <si>
+    <t>m'</t>
+  </si>
+  <si>
+    <t>wildbad</t>
+  </si>
+  <si>
+    <t>i. Schw.</t>
+  </si>
+  <si>
+    <t>Calw</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Degerloch {Stuttgart Degerloch auf seite 4}</t>
+  </si>
+  <si>
+    <t>Atzeldorf</t>
+  </si>
+  <si>
+    <t>Wolfstein</t>
+  </si>
+  <si>
+    <t>Hinderbayern</t>
+  </si>
+  <si>
+    <t>Lackenhäuser</t>
+  </si>
+  <si>
+    <t>Kreis Wolfstein &lt;Lackenhüuser Post: Klafferstraß/Ndb. Über Passau&gt;</t>
+  </si>
+  <si>
+    <t>Dettingen</t>
+  </si>
+  <si>
+    <t>n'</t>
+  </si>
+  <si>
+    <t>a. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidenheim  </t>
+  </si>
+  <si>
+    <t>Blankenburg</t>
+  </si>
+  <si>
+    <t>Gau Schwaben {steht bei Kreis}</t>
+  </si>
+  <si>
+    <t>Landkreis Wertingen [steht bei Provinz}</t>
+  </si>
+  <si>
+    <t>Pöttmes</t>
+  </si>
+  <si>
+    <t>Aichach</t>
+  </si>
+  <si>
+    <t>Hohenwart</t>
+  </si>
+  <si>
+    <t>Schrobenhausen</t>
+  </si>
+  <si>
+    <t>Weigendorf</t>
+  </si>
+  <si>
+    <t>Dingolfing &lt;Isarhöhen rechts der Isar&gt;</t>
+  </si>
+  <si>
+    <t>Indersbach</t>
+  </si>
+  <si>
+    <t>Landar a/Isar</t>
+  </si>
+  <si>
+    <t>Aunkirchen</t>
+  </si>
+  <si>
+    <t>Vilshafen</t>
+  </si>
+  <si>
+    <t>Ndb.</t>
+  </si>
+  <si>
+    <t>o'</t>
+  </si>
+  <si>
+    <t>Grönbach-Garrweiler {auf Seite 1 nur Garrweiler}</t>
+  </si>
+  <si>
+    <t>Freudenstadt</t>
+  </si>
+  <si>
+    <t>Gau Württemberg-Hohenzollern</t>
+  </si>
+  <si>
+    <t>Wurmlingen</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
+    <t>Pliezhausen</t>
+  </si>
+  <si>
+    <t>Würt[l]emberg</t>
+  </si>
+  <si>
+    <t>Donnstetten</t>
+  </si>
+  <si>
+    <t>Münsingen</t>
+  </si>
+  <si>
+    <t>Alm</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>Lauingen</t>
+  </si>
+  <si>
+    <t>Schwaben Bayern</t>
+  </si>
+  <si>
+    <t>Dillingen Donau</t>
+  </si>
+  <si>
+    <t>Tübingen Würt[l]emberg</t>
+  </si>
+  <si>
+    <t>Donau {Knabenschule}</t>
+  </si>
+  <si>
+    <t>Tegernbach</t>
+  </si>
+  <si>
+    <t>Mainburg</t>
+  </si>
+  <si>
+    <t>Ni[eder]bayern-Oberpfalz</t>
+  </si>
+  <si>
+    <t>Ergolding</t>
+  </si>
+  <si>
+    <t>Neukirchen</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>Passau</t>
+  </si>
+  <si>
+    <t>Bay Ostmark</t>
+  </si>
+  <si>
+    <t>p'</t>
+  </si>
+  <si>
+    <t>Sonderbuch</t>
+  </si>
+  <si>
+    <t>Ulm/Donau</t>
+  </si>
+  <si>
+    <t>Ober- u. Unterfahlheim{auf seite 1 nur Oberfahlheim}</t>
+  </si>
+  <si>
+    <t>999 {Bayern könnte man auch hier rei setzten}</t>
+  </si>
+  <si>
+    <t>Röfingen</t>
+  </si>
+  <si>
+    <t>Gönzburg</t>
+  </si>
+  <si>
+    <t>Obermauerbach</t>
+  </si>
+  <si>
+    <t>Hohenkammer</t>
+  </si>
+  <si>
+    <t>Freising</t>
+  </si>
+  <si>
+    <t>Ober[b].</t>
+  </si>
+  <si>
+    <t>Baierbach &lt;Post: Neufraunhofen&gt;</t>
+  </si>
+  <si>
+    <t>Vilsbiburg</t>
+  </si>
+  <si>
+    <t>Reicheneibach</t>
+  </si>
+  <si>
+    <t>Landkreis Eggenfelden</t>
+  </si>
+  <si>
+    <t>q'</t>
+  </si>
+  <si>
+    <t>Höfendorf</t>
+  </si>
+  <si>
+    <t>Hechingen</t>
+  </si>
+  <si>
+    <t>Hohenzollern</t>
+  </si>
+  <si>
+    <t>Genkingen</t>
+  </si>
+  <si>
+    <t>Reutlingen</t>
+  </si>
+  <si>
+    <t>Kr. Reutlingen</t>
+  </si>
+  <si>
+    <t>Württ.</t>
+  </si>
+  <si>
+    <t>Täfertingen</t>
+  </si>
+  <si>
+    <t>Augsburg-Land</t>
+  </si>
+  <si>
+    <t>Marzling</t>
+  </si>
+  <si>
+    <t>Hebertsfelden</t>
+  </si>
+  <si>
+    <t>Eggenfelden</t>
+  </si>
+  <si>
+    <t>Bayerbach</t>
+  </si>
+  <si>
+    <t>Griesbach</t>
+  </si>
+  <si>
+    <t>[Gar] Bayr. Ostmark</t>
+  </si>
+  <si>
+    <t>r'</t>
+  </si>
+  <si>
+    <t>Endingen</t>
+  </si>
+  <si>
+    <t>B[a]lingen</t>
+  </si>
+  <si>
+    <t>Bromen</t>
+  </si>
+  <si>
+    <t>Hayingen</t>
+  </si>
+  <si>
+    <t>Rißtissen</t>
+  </si>
+  <si>
+    <t>Ehingen a. D.</t>
+  </si>
+  <si>
+    <t>Tiefenbach</t>
+  </si>
+  <si>
+    <t>Illertissen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gau Schwaben  </t>
+  </si>
+  <si>
+    <t>Haimhausen</t>
+  </si>
+  <si>
+    <t>Dachau</t>
+  </si>
+  <si>
+    <t>Oberb</t>
+  </si>
+  <si>
+    <t>Eichenried</t>
+  </si>
+  <si>
+    <t>Erding</t>
+  </si>
+  <si>
+    <t>Dörfen</t>
+  </si>
+  <si>
+    <t>Obby.</t>
+  </si>
+  <si>
+    <t>Erharting</t>
+  </si>
+  <si>
+    <t>Mühldorf</t>
+  </si>
+  <si>
+    <t>Obb.</t>
+  </si>
+  <si>
+    <t>Marktl</t>
+  </si>
+  <si>
+    <t>am Inn</t>
+  </si>
+  <si>
+    <t>Altötting-Oberbayern</t>
+  </si>
+  <si>
+    <t>Land Bayern</t>
+  </si>
+  <si>
+    <t>s'</t>
+  </si>
+  <si>
+    <t>Krumbach</t>
+  </si>
+  <si>
+    <t>Günzelhofen</t>
+  </si>
+  <si>
+    <t>Fürstenfeldbruck</t>
+  </si>
+  <si>
+    <t>t'</t>
+  </si>
+  <si>
+    <t>Biberach</t>
+  </si>
+  <si>
+    <t>Kirchdorf</t>
+  </si>
+  <si>
+    <t>Biberach/Riß</t>
+  </si>
+  <si>
+    <t>Mattsies</t>
+  </si>
+  <si>
+    <t>Mindelheim</t>
+  </si>
+  <si>
+    <t>Gau Schwaben</t>
+  </si>
+  <si>
+    <t>Neuried</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Zorneding</t>
+  </si>
+  <si>
+    <t>Ebersberg</t>
+  </si>
+  <si>
+    <t>Gau Oberbayern</t>
+  </si>
+  <si>
+    <t>Albaching</t>
+  </si>
+  <si>
+    <t>Wasserburg</t>
+  </si>
+  <si>
+    <t>Unterneukirchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altötting  </t>
+  </si>
+  <si>
+    <t>M[un]chen-Oberbayern</t>
+  </si>
+  <si>
+    <t>u'</t>
+  </si>
+  <si>
+    <t>Unterigling, Oberigling {auf seite 1 nur Oberigling}</t>
+  </si>
+  <si>
+    <t>Landsberg a/Lech</t>
+  </si>
+  <si>
+    <t>Ob[le].</t>
+  </si>
+  <si>
+    <t>Inning</t>
+  </si>
+  <si>
+    <t>Starnberg</t>
+  </si>
+  <si>
+    <t>[Munch]. Oberb.</t>
+  </si>
+  <si>
+    <t>v'</t>
+  </si>
+  <si>
+    <t>Unter-Schwarzach {auf seite 4 Unterschwarzach}</t>
+  </si>
+  <si>
+    <t>Mitterfischen</t>
+  </si>
+  <si>
+    <t>Weilheim</t>
+  </si>
+  <si>
+    <t>Endelhausen</t>
+  </si>
+  <si>
+    <t>Wolfratshausen</t>
+  </si>
+  <si>
+    <t>Seebruck</t>
+  </si>
+  <si>
+    <t>Traunstein</t>
+  </si>
+  <si>
+    <t>w'</t>
+  </si>
+  <si>
+    <t>Ebenweiler</t>
+  </si>
+  <si>
+    <t>Saulgau</t>
+  </si>
+  <si>
+    <t>Niederhofen</t>
+  </si>
+  <si>
+    <t>Wangen</t>
+  </si>
+  <si>
+    <t>Allgäu Gau Württbg</t>
+  </si>
+  <si>
+    <t>Eggenthal</t>
+  </si>
+  <si>
+    <t>Kaufbeuren</t>
+  </si>
+  <si>
+    <t>Denklingen</t>
+  </si>
+  <si>
+    <t>b. Westerham</t>
+  </si>
+  <si>
+    <t>Kreis Aibling</t>
+  </si>
+  <si>
+    <t>Stephanskirchen</t>
+  </si>
+  <si>
+    <t>Rosenheim</t>
+  </si>
+  <si>
+    <t>Petting</t>
+  </si>
+  <si>
+    <t>Laufen</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>Wolfegg</t>
+  </si>
+  <si>
+    <t>Ravensburg Oberschwaben</t>
+  </si>
+  <si>
+    <t>Oberthingau</t>
+  </si>
+  <si>
+    <t>Markt Oberdorf</t>
+  </si>
+  <si>
+    <t>Burggen</t>
+  </si>
+  <si>
+    <t>Schongau</t>
+  </si>
+  <si>
+    <t>Huglfing</t>
+  </si>
+  <si>
+    <t>Oberbuchen</t>
+  </si>
+  <si>
+    <t>Tölz</t>
+  </si>
+  <si>
+    <t>Parsberg</t>
+  </si>
+  <si>
+    <t>Miesbach</t>
+  </si>
+  <si>
+    <t>Marquartstein</t>
+  </si>
+  <si>
+    <t>y'</t>
+  </si>
+  <si>
+    <t>Nußdorf</t>
+  </si>
+  <si>
+    <t>a. Inn</t>
+  </si>
+  <si>
+    <t>Karlstein</t>
+  </si>
+  <si>
+    <t>Berchtesgaden</t>
+  </si>
+  <si>
+    <t>z'</t>
+  </si>
+  <si>
+    <t>a/Bodensee</t>
+  </si>
+  <si>
+    <t>Friedrichshafen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langenargen </t>
+  </si>
+  <si>
+    <t>über Lindau Bodensee</t>
+  </si>
+  <si>
+    <t>Lindau</t>
+  </si>
+  <si>
+    <t>Niederstaufen {auf seite 1 Ndr. Staufen}</t>
+  </si>
+  <si>
+    <t>Sulzberg</t>
+  </si>
+  <si>
+    <t>Kempten Land Allgäu</t>
+  </si>
+  <si>
+    <t>Seeg</t>
+  </si>
+  <si>
+    <t>Marktoberdorf [F]üssen</t>
+  </si>
+  <si>
+    <t>Garmisch {auf seite 4 leer}</t>
+  </si>
+  <si>
+    <t>Eschenlohe {auf seite 4 leer}</t>
+  </si>
+  <si>
+    <t>Ramsau</t>
+  </si>
+  <si>
+    <t>Bayern Oberbayern</t>
+  </si>
+  <si>
+    <t>[by] Berchtesg.</t>
+  </si>
+  <si>
+    <t>a''</t>
+  </si>
+  <si>
+    <t>Sonthofen</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Langenwang</t>
   </si>
 </sst>
 </file>
@@ -2944,13 +3538,14 @@
   <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9959,14 +10554,14 @@
       <c r="E242" t="s">
         <v>627</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F242" t="s">
+        <v>832</v>
+      </c>
+      <c r="G242">
+        <v>999</v>
+      </c>
+      <c r="H242" t="s">
         <v>750</v>
-      </c>
-      <c r="G242">
-        <v>999</v>
-      </c>
-      <c r="H242" t="s">
-        <v>751</v>
       </c>
       <c r="I242" t="s">
         <v>716</v>
@@ -9989,13 +10584,13 @@
         <v>628</v>
       </c>
       <c r="F243" t="s">
+        <v>751</v>
+      </c>
+      <c r="G243">
+        <v>999</v>
+      </c>
+      <c r="H243" t="s">
         <v>752</v>
-      </c>
-      <c r="G243">
-        <v>999</v>
-      </c>
-      <c r="H243" t="s">
-        <v>753</v>
       </c>
       <c r="I243" t="s">
         <v>716</v>
@@ -10018,13 +10613,13 @@
         <v>629</v>
       </c>
       <c r="F244" t="s">
+        <v>753</v>
+      </c>
+      <c r="G244">
+        <v>999</v>
+      </c>
+      <c r="H244" t="s">
         <v>754</v>
-      </c>
-      <c r="G244">
-        <v>999</v>
-      </c>
-      <c r="H244" t="s">
-        <v>755</v>
       </c>
       <c r="I244" t="s">
         <v>716</v>
@@ -10047,7 +10642,7 @@
         <v>630</v>
       </c>
       <c r="F245" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G245">
         <v>999</v>
@@ -10076,7 +10671,7 @@
         <v>631</v>
       </c>
       <c r="F246" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G246">
         <v>999</v>
@@ -10105,13 +10700,13 @@
         <v>632</v>
       </c>
       <c r="F247" t="s">
+        <v>757</v>
+      </c>
+      <c r="G247">
+        <v>999</v>
+      </c>
+      <c r="H247" t="s">
         <v>758</v>
-      </c>
-      <c r="G247">
-        <v>999</v>
-      </c>
-      <c r="H247" t="s">
-        <v>759</v>
       </c>
       <c r="I247" t="s">
         <v>721</v>
@@ -10134,13 +10729,13 @@
         <v>633</v>
       </c>
       <c r="F248" t="s">
+        <v>759</v>
+      </c>
+      <c r="G248" t="s">
         <v>760</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>761</v>
-      </c>
-      <c r="H248" t="s">
-        <v>762</v>
       </c>
       <c r="I248" t="s">
         <v>668</v>
@@ -10163,7 +10758,7 @@
         <v>634</v>
       </c>
       <c r="F249" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G249">
         <v>999</v>
@@ -10192,16 +10787,16 @@
         <v>635</v>
       </c>
       <c r="F250" t="s">
+        <v>763</v>
+      </c>
+      <c r="G250">
+        <v>999</v>
+      </c>
+      <c r="H250" t="s">
         <v>764</v>
       </c>
-      <c r="G250">
-        <v>999</v>
-      </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>765</v>
-      </c>
-      <c r="I250" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10221,16 +10816,16 @@
         <v>636</v>
       </c>
       <c r="F251" t="s">
+        <v>766</v>
+      </c>
+      <c r="G251">
+        <v>999</v>
+      </c>
+      <c r="H251" t="s">
         <v>767</v>
       </c>
-      <c r="G251">
-        <v>999</v>
-      </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
         <v>768</v>
-      </c>
-      <c r="I251" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10250,16 +10845,16 @@
         <v>637</v>
       </c>
       <c r="F252" t="s">
+        <v>769</v>
+      </c>
+      <c r="G252">
+        <v>999</v>
+      </c>
+      <c r="H252" t="s">
         <v>770</v>
       </c>
-      <c r="G252">
-        <v>999</v>
-      </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>771</v>
-      </c>
-      <c r="I252" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10279,13 +10874,13 @@
         <v>638</v>
       </c>
       <c r="F253" t="s">
+        <v>772</v>
+      </c>
+      <c r="G253">
+        <v>999</v>
+      </c>
+      <c r="H253" t="s">
         <v>773</v>
-      </c>
-      <c r="G253">
-        <v>999</v>
-      </c>
-      <c r="H253" t="s">
-        <v>774</v>
       </c>
       <c r="I253" t="s">
         <v>690</v>
@@ -10295,921 +10890,2433 @@
       <c r="A254" t="s">
         <v>9</v>
       </c>
+      <c r="B254" t="s">
+        <v>833</v>
+      </c>
+      <c r="C254">
+        <v>18</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
       <c r="E254" t="s">
         <v>639</v>
       </c>
-      <c r="G254">
-        <v>999</v>
+      <c r="F254" t="s">
+        <v>834</v>
+      </c>
+      <c r="G254" t="s">
+        <v>835</v>
+      </c>
+      <c r="H254" t="s">
+        <v>836</v>
+      </c>
+      <c r="I254" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
+      <c r="B255" t="s">
+        <v>833</v>
+      </c>
+      <c r="C255">
+        <v>22</v>
+      </c>
+      <c r="D255">
+        <v>16</v>
+      </c>
       <c r="E255" t="s">
         <v>640</v>
       </c>
+      <c r="F255" t="s">
+        <v>838</v>
+      </c>
       <c r="G255">
         <v>999</v>
+      </c>
+      <c r="H255" t="s">
+        <v>837</v>
+      </c>
+      <c r="I255" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>9</v>
       </c>
+      <c r="B256" t="s">
+        <v>833</v>
+      </c>
+      <c r="C256">
+        <v>47</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
       <c r="E256" t="s">
         <v>641</v>
       </c>
+      <c r="F256" t="s">
+        <v>839</v>
+      </c>
       <c r="G256">
         <v>999</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>840</v>
+      </c>
+      <c r="I256" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
+      </c>
+      <c r="B257" t="s">
+        <v>833</v>
+      </c>
+      <c r="C257">
+        <v>49</v>
+      </c>
+      <c r="D257">
+        <v>5</v>
       </c>
       <c r="E257" t="s">
         <v>642</v>
       </c>
+      <c r="F257" t="s">
+        <v>842</v>
+      </c>
       <c r="G257">
         <v>999</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>843</v>
+      </c>
+      <c r="I257" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>9</v>
+      </c>
+      <c r="B258" t="s">
+        <v>845</v>
+      </c>
+      <c r="C258">
+        <v>27</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
       </c>
       <c r="E258" t="s">
         <v>643</v>
       </c>
-      <c r="G258">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
+        <v>844</v>
+      </c>
+      <c r="G258" t="s">
+        <v>846</v>
+      </c>
+      <c r="H258" t="s">
+        <v>847</v>
+      </c>
+      <c r="I258" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>9</v>
+      </c>
+      <c r="B259" t="s">
+        <v>845</v>
+      </c>
+      <c r="C259">
+        <v>31</v>
+      </c>
+      <c r="D259">
+        <v>8</v>
       </c>
       <c r="E259" t="s">
         <v>644</v>
       </c>
+      <c r="F259" t="s">
+        <v>848</v>
+      </c>
       <c r="G259">
         <v>999</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>850</v>
+      </c>
+      <c r="I259" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>9</v>
+      </c>
+      <c r="B260" t="s">
+        <v>845</v>
+      </c>
+      <c r="C260">
+        <v>33</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
       </c>
       <c r="E260" t="s">
         <v>645</v>
       </c>
+      <c r="F260" t="s">
+        <v>851</v>
+      </c>
       <c r="G260">
         <v>999</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>852</v>
+      </c>
+      <c r="I260">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>9</v>
+      </c>
+      <c r="B261" t="s">
+        <v>845</v>
+      </c>
+      <c r="C261">
+        <v>35</v>
+      </c>
+      <c r="D261">
+        <v>6</v>
       </c>
       <c r="E261" t="s">
         <v>646</v>
       </c>
+      <c r="F261" t="s">
+        <v>853</v>
+      </c>
       <c r="G261">
         <v>999</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>854</v>
+      </c>
+      <c r="I261" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>9</v>
+      </c>
+      <c r="B262" t="s">
+        <v>845</v>
+      </c>
+      <c r="C262">
+        <v>41</v>
+      </c>
+      <c r="D262">
+        <v>8</v>
       </c>
       <c r="E262" t="s">
         <v>647</v>
       </c>
+      <c r="F262" t="s">
+        <v>855</v>
+      </c>
       <c r="G262">
         <v>999</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>9</v>
+      </c>
+      <c r="B263" t="s">
+        <v>845</v>
+      </c>
+      <c r="C263">
+        <v>43</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
       </c>
       <c r="E263" t="s">
         <v>648</v>
       </c>
+      <c r="F263" t="s">
+        <v>857</v>
+      </c>
       <c r="G263">
         <v>999</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>858</v>
+      </c>
+      <c r="I263">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" t="s">
+        <v>845</v>
+      </c>
+      <c r="C264">
+        <v>45</v>
+      </c>
+      <c r="D264">
         <v>9</v>
       </c>
       <c r="E264" t="s">
         <v>649</v>
       </c>
+      <c r="F264" t="s">
+        <v>859</v>
+      </c>
       <c r="G264">
         <v>999</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>860</v>
+      </c>
+      <c r="I264" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
+      </c>
+      <c r="B265" t="s">
+        <v>862</v>
+      </c>
+      <c r="C265">
+        <v>18</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
       </c>
       <c r="E265" t="s">
         <v>650</v>
       </c>
+      <c r="F265" t="s">
+        <v>863</v>
+      </c>
       <c r="G265">
         <v>999</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>864</v>
+      </c>
+      <c r="I265" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>9</v>
+      </c>
+      <c r="B266" t="s">
+        <v>862</v>
+      </c>
+      <c r="C266">
+        <v>20</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
       </c>
       <c r="E266" t="s">
         <v>651</v>
       </c>
+      <c r="F266" t="s">
+        <v>866</v>
+      </c>
       <c r="G266">
         <v>999</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>867</v>
+      </c>
+      <c r="I266" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>9</v>
+      </c>
+      <c r="B267" t="s">
+        <v>862</v>
+      </c>
+      <c r="C267">
+        <v>22</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
       </c>
       <c r="E267" t="s">
         <v>652</v>
       </c>
+      <c r="F267" t="s">
+        <v>868</v>
+      </c>
       <c r="G267">
         <v>999</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>877</v>
+      </c>
+      <c r="I267" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>9</v>
+      </c>
+      <c r="B268" t="s">
+        <v>862</v>
+      </c>
+      <c r="C268">
+        <v>24</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
       </c>
       <c r="E268" t="s">
         <v>653</v>
       </c>
+      <c r="F268" t="s">
+        <v>870</v>
+      </c>
       <c r="G268">
         <v>999</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>871</v>
+      </c>
+      <c r="I268" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
+      </c>
+      <c r="B269" t="s">
+        <v>862</v>
+      </c>
+      <c r="C269">
+        <v>26</v>
+      </c>
+      <c r="D269">
+        <v>14</v>
       </c>
       <c r="E269" t="s">
         <v>654</v>
       </c>
+      <c r="F269" t="s">
+        <v>873</v>
+      </c>
       <c r="G269">
         <v>999</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>872</v>
+      </c>
+      <c r="I269" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>862</v>
+      </c>
+      <c r="C270">
+        <v>29</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
       </c>
       <c r="E270" t="s">
         <v>655</v>
       </c>
-      <c r="G270">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F270" t="s">
+        <v>874</v>
+      </c>
+      <c r="G270" t="s">
+        <v>878</v>
+      </c>
+      <c r="H270" t="s">
+        <v>876</v>
+      </c>
+      <c r="I270" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>862</v>
+      </c>
+      <c r="C271">
+        <v>37</v>
+      </c>
+      <c r="D271">
+        <v>5</v>
       </c>
       <c r="E271" t="s">
         <v>656</v>
       </c>
+      <c r="F271" t="s">
+        <v>879</v>
+      </c>
       <c r="G271">
         <v>999</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>880</v>
+      </c>
+      <c r="I271" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>9</v>
+      </c>
+      <c r="B272" t="s">
+        <v>862</v>
+      </c>
+      <c r="C272">
+        <v>40</v>
+      </c>
+      <c r="D272">
+        <v>6</v>
       </c>
       <c r="E272" t="s">
         <v>657</v>
       </c>
+      <c r="F272" t="s">
+        <v>882</v>
+      </c>
       <c r="G272">
         <v>999</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>690</v>
+      </c>
+      <c r="I272" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>9</v>
+      </c>
+      <c r="B273" t="s">
+        <v>862</v>
+      </c>
+      <c r="C273">
+        <v>47</v>
+      </c>
+      <c r="D273">
+        <v>6</v>
       </c>
       <c r="E273" t="s">
         <v>658</v>
       </c>
-      <c r="G273">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>883</v>
+      </c>
+      <c r="G273" t="s">
+        <v>884</v>
+      </c>
+      <c r="H273" t="s">
+        <v>885</v>
+      </c>
+      <c r="I273" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>9</v>
+      </c>
+      <c r="B274" t="s">
+        <v>887</v>
+      </c>
+      <c r="C274">
+        <v>25</v>
+      </c>
+      <c r="D274">
+        <v>8</v>
       </c>
       <c r="E274" t="s">
         <v>659</v>
       </c>
+      <c r="F274" t="s">
+        <v>888</v>
+      </c>
       <c r="G274">
         <v>999</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>9</v>
-      </c>
-      <c r="E275" t="s">
+      <c r="H274" t="s">
+        <v>889</v>
+      </c>
+      <c r="I274" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C275" s="3">
+        <v>27</v>
+      </c>
+      <c r="D275" s="3">
+        <v>9</v>
+      </c>
+      <c r="E275" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="G275">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F275" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G275" s="3">
+        <v>999</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>9</v>
+      </c>
+      <c r="B276" t="s">
+        <v>887</v>
+      </c>
+      <c r="C276">
+        <v>29</v>
+      </c>
+      <c r="D276">
+        <v>8</v>
       </c>
       <c r="E276" t="s">
         <v>661</v>
       </c>
+      <c r="F276" t="s">
+        <v>892</v>
+      </c>
       <c r="G276">
         <v>999</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>893</v>
+      </c>
+      <c r="I276" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>9</v>
+      </c>
+      <c r="B277" t="s">
+        <v>887</v>
+      </c>
+      <c r="C277">
+        <v>34</v>
+      </c>
+      <c r="D277">
+        <v>6</v>
       </c>
       <c r="E277" t="s">
         <v>662</v>
       </c>
+      <c r="F277" t="s">
+        <v>894</v>
+      </c>
       <c r="G277">
         <v>999</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>852</v>
+      </c>
+      <c r="I277" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>9</v>
+      </c>
+      <c r="B278" t="s">
+        <v>887</v>
+      </c>
+      <c r="C278">
+        <v>36</v>
+      </c>
+      <c r="D278">
+        <v>6</v>
       </c>
       <c r="E278" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
+        <v>895</v>
+      </c>
+      <c r="G278">
+        <v>999</v>
+      </c>
+      <c r="H278" t="s">
+        <v>896</v>
+      </c>
+      <c r="I278" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>9</v>
+      </c>
+      <c r="B279" t="s">
+        <v>887</v>
+      </c>
+      <c r="C279">
+        <v>40</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
       </c>
       <c r="E279" t="s">
         <v>664</v>
       </c>
+      <c r="F279" t="s">
+        <v>898</v>
+      </c>
       <c r="G279">
         <v>999</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>899</v>
+      </c>
+      <c r="I279" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>9</v>
       </c>
+      <c r="B280" t="s">
+        <v>887</v>
+      </c>
+      <c r="C280">
+        <v>42</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
       <c r="E280" t="s">
+        <v>774</v>
+      </c>
+      <c r="F280" t="s">
+        <v>900</v>
+      </c>
+      <c r="G280">
+        <v>999</v>
+      </c>
+      <c r="H280" t="s">
+        <v>901</v>
+      </c>
+      <c r="I280" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B281" t="s">
+        <v>902</v>
+      </c>
+      <c r="C281">
+        <v>20</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
         <v>775</v>
       </c>
-      <c r="G280">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>9</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
+        <v>903</v>
+      </c>
+      <c r="G281">
+        <v>999</v>
+      </c>
+      <c r="H281" t="s">
+        <v>904</v>
+      </c>
+      <c r="I281" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282" t="s">
+        <v>902</v>
+      </c>
+      <c r="C282">
+        <v>22</v>
+      </c>
+      <c r="D282">
+        <v>7</v>
+      </c>
+      <c r="E282" t="s">
         <v>776</v>
       </c>
-      <c r="G281">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>9</v>
-      </c>
-      <c r="E282" t="s">
+      <c r="F282" t="s">
+        <v>906</v>
+      </c>
+      <c r="G282" t="s">
+        <v>908</v>
+      </c>
+      <c r="H282" t="s">
+        <v>907</v>
+      </c>
+      <c r="I282" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>902</v>
+      </c>
+      <c r="C283">
+        <v>23</v>
+      </c>
+      <c r="D283">
+        <v>7</v>
+      </c>
+      <c r="E283" t="s">
         <v>777</v>
       </c>
-      <c r="G282">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>9</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
+        <v>871</v>
+      </c>
+      <c r="G283">
+        <v>999</v>
+      </c>
+      <c r="H283" t="s">
+        <v>871</v>
+      </c>
+      <c r="I283" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="s">
+        <v>902</v>
+      </c>
+      <c r="C284">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>13</v>
+      </c>
+      <c r="E284" t="s">
         <v>778</v>
       </c>
-      <c r="G283">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>9</v>
-      </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
+        <v>910</v>
+      </c>
+      <c r="G284">
+        <v>999</v>
+      </c>
+      <c r="H284" t="s">
+        <v>911</v>
+      </c>
+      <c r="I284" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>902</v>
+      </c>
+      <c r="C285">
+        <v>37</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285" t="s">
         <v>779</v>
       </c>
-      <c r="G284">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>9</v>
-      </c>
-      <c r="E285" t="s">
+      <c r="F285" t="s">
+        <v>912</v>
+      </c>
+      <c r="G285">
+        <v>999</v>
+      </c>
+      <c r="H285" t="s">
+        <v>896</v>
+      </c>
+      <c r="I285" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" t="s">
+        <v>902</v>
+      </c>
+      <c r="C286">
+        <v>43</v>
+      </c>
+      <c r="D286">
+        <v>4</v>
+      </c>
+      <c r="E286" t="s">
         <v>780</v>
       </c>
-      <c r="G285">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>9</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="F286" t="s">
+        <v>913</v>
+      </c>
+      <c r="G286">
+        <v>999</v>
+      </c>
+      <c r="H286" t="s">
+        <v>914</v>
+      </c>
+      <c r="I286" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" t="s">
+        <v>902</v>
+      </c>
+      <c r="C287">
+        <v>45</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287" t="s">
         <v>781</v>
       </c>
-      <c r="G286">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
+        <v>915</v>
+      </c>
+      <c r="G287">
+        <v>999</v>
+      </c>
+      <c r="H287" t="s">
+        <v>916</v>
+      </c>
+      <c r="I287" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288" t="s">
+        <v>918</v>
+      </c>
+      <c r="C288">
+        <v>20</v>
+      </c>
+      <c r="D288">
+        <v>13</v>
+      </c>
+      <c r="E288" t="s">
         <v>782</v>
       </c>
-      <c r="G287">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="F288" t="s">
+        <v>919</v>
+      </c>
+      <c r="G288">
+        <v>999</v>
+      </c>
+      <c r="H288" t="s">
+        <v>920</v>
+      </c>
+      <c r="I288" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" t="s">
+        <v>918</v>
+      </c>
+      <c r="C289">
+        <v>22</v>
+      </c>
+      <c r="D289">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
         <v>783</v>
       </c>
-      <c r="G288">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>9</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="F289" t="s">
+        <v>921</v>
+      </c>
+      <c r="G289">
+        <v>999</v>
+      </c>
+      <c r="H289" t="s">
+        <v>907</v>
+      </c>
+      <c r="I289" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>918</v>
+      </c>
+      <c r="C290">
+        <v>23</v>
+      </c>
+      <c r="D290">
+        <v>7</v>
+      </c>
+      <c r="E290" t="s">
         <v>784</v>
       </c>
-      <c r="G289">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>9</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="F290" t="s">
+        <v>922</v>
+      </c>
+      <c r="G290">
+        <v>999</v>
+      </c>
+      <c r="H290" t="s">
+        <v>871</v>
+      </c>
+      <c r="I290" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>918</v>
+      </c>
+      <c r="C291">
+        <v>25</v>
+      </c>
+      <c r="D291">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
         <v>785</v>
       </c>
-      <c r="G290">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>9</v>
-      </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
+        <v>923</v>
+      </c>
+      <c r="G291">
+        <v>999</v>
+      </c>
+      <c r="H291" t="s">
+        <v>924</v>
+      </c>
+      <c r="I291" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>9</v>
+      </c>
+      <c r="B292" t="s">
+        <v>918</v>
+      </c>
+      <c r="C292">
+        <v>27</v>
+      </c>
+      <c r="D292">
+        <v>16</v>
+      </c>
+      <c r="E292" t="s">
         <v>786</v>
       </c>
-      <c r="G291">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>9</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="F292" t="s">
+        <v>925</v>
+      </c>
+      <c r="G292">
+        <v>999</v>
+      </c>
+      <c r="H292" t="s">
+        <v>926</v>
+      </c>
+      <c r="I292" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" t="s">
+        <v>918</v>
+      </c>
+      <c r="C293">
+        <v>36</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
         <v>787</v>
       </c>
-      <c r="G292">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>9</v>
-      </c>
-      <c r="E293" t="s">
+      <c r="F293" t="s">
+        <v>928</v>
+      </c>
+      <c r="G293">
+        <v>999</v>
+      </c>
+      <c r="H293" t="s">
+        <v>929</v>
+      </c>
+      <c r="I293" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" t="s">
+        <v>918</v>
+      </c>
+      <c r="C294">
+        <v>37</v>
+      </c>
+      <c r="D294">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
         <v>788</v>
       </c>
-      <c r="G293">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294" t="s">
+      <c r="F294" t="s">
+        <v>931</v>
+      </c>
+      <c r="G294">
+        <v>999</v>
+      </c>
+      <c r="H294" t="s">
+        <v>932</v>
+      </c>
+      <c r="I294" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>9</v>
+      </c>
+      <c r="B295" t="s">
+        <v>918</v>
+      </c>
+      <c r="C295">
+        <v>39</v>
+      </c>
+      <c r="D295">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
         <v>789</v>
       </c>
-      <c r="G294">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>9</v>
-      </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
+        <v>933</v>
+      </c>
+      <c r="G295">
+        <v>999</v>
+      </c>
+      <c r="H295" t="s">
+        <v>932</v>
+      </c>
+      <c r="I295" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" t="s">
+        <v>918</v>
+      </c>
+      <c r="C296">
+        <v>42</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296" t="s">
         <v>790</v>
       </c>
-      <c r="G295">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>9</v>
-      </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
+        <v>935</v>
+      </c>
+      <c r="G296">
+        <v>999</v>
+      </c>
+      <c r="H296" t="s">
+        <v>936</v>
+      </c>
+      <c r="I296" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>9</v>
+      </c>
+      <c r="B297" t="s">
+        <v>918</v>
+      </c>
+      <c r="C297">
+        <v>44</v>
+      </c>
+      <c r="D297">
+        <v>4</v>
+      </c>
+      <c r="E297" t="s">
         <v>791</v>
       </c>
-      <c r="G296">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>9</v>
-      </c>
-      <c r="E297" t="s">
+      <c r="F297" t="s">
+        <v>938</v>
+      </c>
+      <c r="G297" t="s">
+        <v>939</v>
+      </c>
+      <c r="H297" t="s">
+        <v>940</v>
+      </c>
+      <c r="I297" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" t="s">
+        <v>942</v>
+      </c>
+      <c r="C298">
+        <v>29</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
         <v>792</v>
       </c>
-      <c r="G297">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>9</v>
-      </c>
-      <c r="E298" t="s">
+      <c r="F298" t="s">
+        <v>943</v>
+      </c>
+      <c r="G298">
+        <v>999</v>
+      </c>
+      <c r="H298" t="s">
+        <v>943</v>
+      </c>
+      <c r="I298" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" t="s">
+        <v>942</v>
+      </c>
+      <c r="C299">
+        <v>33</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299" t="s">
         <v>793</v>
       </c>
-      <c r="G298">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>9</v>
-      </c>
-      <c r="E299" t="s">
+      <c r="F299" t="s">
+        <v>944</v>
+      </c>
+      <c r="G299">
+        <v>999</v>
+      </c>
+      <c r="H299" t="s">
+        <v>945</v>
+      </c>
+      <c r="I299" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" t="s">
+        <v>946</v>
+      </c>
+      <c r="C300">
+        <v>25</v>
+      </c>
+      <c r="D300">
+        <v>6</v>
+      </c>
+      <c r="E300" t="s">
         <v>794</v>
       </c>
-      <c r="G299">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>9</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
+        <v>947</v>
+      </c>
+      <c r="G300">
+        <v>999</v>
+      </c>
+      <c r="H300" t="s">
+        <v>947</v>
+      </c>
+      <c r="I300" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" t="s">
+        <v>946</v>
+      </c>
+      <c r="C301">
+        <v>27</v>
+      </c>
+      <c r="D301">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
         <v>795</v>
       </c>
-      <c r="G300">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>9</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
+        <v>948</v>
+      </c>
+      <c r="G301">
+        <v>999</v>
+      </c>
+      <c r="H301" t="s">
+        <v>949</v>
+      </c>
+      <c r="I301" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>9</v>
+      </c>
+      <c r="B302" t="s">
+        <v>946</v>
+      </c>
+      <c r="C302">
+        <v>30</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302" t="s">
         <v>796</v>
       </c>
-      <c r="G301">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="F302" t="s">
+        <v>950</v>
+      </c>
+      <c r="G302">
+        <v>999</v>
+      </c>
+      <c r="H302" t="s">
+        <v>951</v>
+      </c>
+      <c r="I302" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" t="s">
+        <v>946</v>
+      </c>
+      <c r="C303">
+        <v>35</v>
+      </c>
+      <c r="D303">
+        <v>10</v>
+      </c>
+      <c r="E303" t="s">
         <v>797</v>
       </c>
-      <c r="G302">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
+        <v>953</v>
+      </c>
+      <c r="G303">
+        <v>999</v>
+      </c>
+      <c r="H303" t="s">
+        <v>954</v>
+      </c>
+      <c r="I303">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>946</v>
+      </c>
+      <c r="C304">
+        <v>37</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304" t="s">
         <v>798</v>
       </c>
-      <c r="G303">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>9</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="F304" t="s">
+        <v>955</v>
+      </c>
+      <c r="G304">
+        <v>999</v>
+      </c>
+      <c r="H304" t="s">
+        <v>956</v>
+      </c>
+      <c r="I304" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" t="s">
+        <v>946</v>
+      </c>
+      <c r="C305">
+        <v>39</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305" t="s">
         <v>799</v>
       </c>
-      <c r="G304">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>9</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="F305" t="s">
+        <v>958</v>
+      </c>
+      <c r="G305">
+        <v>999</v>
+      </c>
+      <c r="H305" t="s">
+        <v>959</v>
+      </c>
+      <c r="I305" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" t="s">
+        <v>946</v>
+      </c>
+      <c r="C306">
+        <v>42</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+      <c r="E306" t="s">
         <v>800</v>
       </c>
-      <c r="G305">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>9</v>
-      </c>
-      <c r="E306" t="s">
+      <c r="F306" t="s">
+        <v>960</v>
+      </c>
+      <c r="G306">
+        <v>999</v>
+      </c>
+      <c r="H306" t="s">
+        <v>961</v>
+      </c>
+      <c r="I306" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C307" s="3">
+        <v>31</v>
+      </c>
+      <c r="D307" s="3">
+        <v>8</v>
+      </c>
+      <c r="E307" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="G306">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>9</v>
-      </c>
-      <c r="E307" t="s">
+      <c r="F307" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="G307" s="3">
+        <v>999</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>963</v>
+      </c>
+      <c r="C308">
+        <v>33</v>
+      </c>
+      <c r="D308">
+        <v>6</v>
+      </c>
+      <c r="E308" t="s">
         <v>802</v>
       </c>
-      <c r="G307">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>9</v>
-      </c>
-      <c r="E308" t="s">
+      <c r="F308" t="s">
+        <v>967</v>
+      </c>
+      <c r="G308">
+        <v>999</v>
+      </c>
+      <c r="H308" t="s">
+        <v>968</v>
+      </c>
+      <c r="I308" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>9</v>
+      </c>
+      <c r="B309" t="s">
+        <v>970</v>
+      </c>
+      <c r="C309">
+        <v>26</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309" t="s">
         <v>803</v>
       </c>
-      <c r="G308">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>9</v>
-      </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
+        <v>971</v>
+      </c>
+      <c r="G309">
+        <v>999</v>
+      </c>
+      <c r="H309" t="s">
+        <v>949</v>
+      </c>
+      <c r="I309" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" t="s">
+        <v>970</v>
+      </c>
+      <c r="C310">
+        <v>33</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310" t="s">
         <v>804</v>
       </c>
-      <c r="G309">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
+        <v>972</v>
+      </c>
+      <c r="G310">
+        <v>999</v>
+      </c>
+      <c r="H310" t="s">
+        <v>973</v>
+      </c>
+      <c r="I310" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311" t="s">
+        <v>970</v>
+      </c>
+      <c r="C311">
+        <v>36</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311" t="s">
         <v>805</v>
       </c>
-      <c r="G310">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>9</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
+        <v>974</v>
+      </c>
+      <c r="G311">
+        <v>999</v>
+      </c>
+      <c r="H311" t="s">
+        <v>975</v>
+      </c>
+      <c r="I311" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" t="s">
+        <v>970</v>
+      </c>
+      <c r="C312">
+        <v>41</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312" t="s">
         <v>806</v>
       </c>
-      <c r="G311">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>9</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
+        <v>976</v>
+      </c>
+      <c r="G312">
+        <v>999</v>
+      </c>
+      <c r="H312" t="s">
+        <v>977</v>
+      </c>
+      <c r="I312" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" t="s">
+        <v>978</v>
+      </c>
+      <c r="C313">
+        <v>24</v>
+      </c>
+      <c r="D313">
+        <v>3</v>
+      </c>
+      <c r="E313" t="s">
         <v>807</v>
       </c>
-      <c r="G312">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>9</v>
-      </c>
-      <c r="E313" t="s">
+      <c r="F313" t="s">
+        <v>979</v>
+      </c>
+      <c r="G313">
+        <v>999</v>
+      </c>
+      <c r="H313" t="s">
+        <v>980</v>
+      </c>
+      <c r="I313" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s">
+        <v>978</v>
+      </c>
+      <c r="C314">
+        <v>27</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
         <v>808</v>
       </c>
-      <c r="G313">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>9</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="F314" t="s">
+        <v>981</v>
+      </c>
+      <c r="G314">
+        <v>999</v>
+      </c>
+      <c r="H314" t="s">
+        <v>982</v>
+      </c>
+      <c r="I314" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>978</v>
+      </c>
+      <c r="C315">
+        <v>30</v>
+      </c>
+      <c r="D315">
+        <v>4</v>
+      </c>
+      <c r="E315" t="s">
         <v>809</v>
       </c>
-      <c r="G314">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>9</v>
-      </c>
-      <c r="E315" t="s">
+      <c r="F315" t="s">
+        <v>984</v>
+      </c>
+      <c r="G315">
+        <v>999</v>
+      </c>
+      <c r="H315" t="s">
+        <v>985</v>
+      </c>
+      <c r="I315" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
+        <v>978</v>
+      </c>
+      <c r="C316">
+        <v>32</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
         <v>810</v>
       </c>
-      <c r="G315">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>9</v>
-      </c>
-      <c r="E316" t="s">
+      <c r="F316" t="s">
+        <v>986</v>
+      </c>
+      <c r="G316">
+        <v>999</v>
+      </c>
+      <c r="H316" t="s">
+        <v>985</v>
+      </c>
+      <c r="I316" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>978</v>
+      </c>
+      <c r="C317">
+        <v>38</v>
+      </c>
+      <c r="D317">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
         <v>811</v>
       </c>
-      <c r="G316">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>9</v>
-      </c>
-      <c r="E317" t="s">
+      <c r="F317" t="s">
+        <v>759</v>
+      </c>
+      <c r="G317" t="s">
+        <v>987</v>
+      </c>
+      <c r="H317" t="s">
+        <v>988</v>
+      </c>
+      <c r="I317" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>978</v>
+      </c>
+      <c r="C318">
+        <v>40</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318" t="s">
         <v>812</v>
       </c>
-      <c r="G317">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>9</v>
-      </c>
-      <c r="E318" t="s">
+      <c r="F318" t="s">
+        <v>989</v>
+      </c>
+      <c r="G318">
+        <v>999</v>
+      </c>
+      <c r="H318" t="s">
+        <v>990</v>
+      </c>
+      <c r="I318" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>978</v>
+      </c>
+      <c r="C319">
+        <v>43</v>
+      </c>
+      <c r="D319">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
         <v>813</v>
       </c>
-      <c r="G318">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>9</v>
-      </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
+        <v>991</v>
+      </c>
+      <c r="G319">
+        <v>999</v>
+      </c>
+      <c r="H319" t="s">
+        <v>992</v>
+      </c>
+      <c r="I319" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>993</v>
+      </c>
+      <c r="C320">
+        <v>25</v>
+      </c>
+      <c r="D320">
+        <v>8</v>
+      </c>
+      <c r="E320" t="s">
         <v>814</v>
       </c>
-      <c r="G319">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>9</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
+        <v>994</v>
+      </c>
+      <c r="G320">
+        <v>999</v>
+      </c>
+      <c r="H320" t="s">
+        <v>995</v>
+      </c>
+      <c r="I320" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>993</v>
+      </c>
+      <c r="C321">
+        <v>30</v>
+      </c>
+      <c r="D321">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s">
         <v>815</v>
       </c>
-      <c r="G320">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>9</v>
-      </c>
-      <c r="E321" t="s">
+      <c r="F321" t="s">
+        <v>996</v>
+      </c>
+      <c r="G321">
+        <v>999</v>
+      </c>
+      <c r="H321" t="s">
+        <v>997</v>
+      </c>
+      <c r="I321">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>993</v>
+      </c>
+      <c r="C322">
+        <v>31</v>
+      </c>
+      <c r="D322">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
         <v>816</v>
       </c>
-      <c r="G321">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>9</v>
-      </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
+        <v>998</v>
+      </c>
+      <c r="G322">
+        <v>999</v>
+      </c>
+      <c r="H322" t="s">
+        <v>999</v>
+      </c>
+      <c r="I322" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>993</v>
+      </c>
+      <c r="C323">
+        <v>33</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323" t="s">
         <v>817</v>
       </c>
-      <c r="G322">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>9</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G323">
+        <v>999</v>
+      </c>
+      <c r="H323" t="s">
+        <v>973</v>
+      </c>
+      <c r="I323" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>993</v>
+      </c>
+      <c r="C324">
+        <v>35</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324" t="s">
         <v>818</v>
       </c>
-      <c r="G323">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>9</v>
-      </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G324">
+        <v>999</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I324" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>993</v>
+      </c>
+      <c r="C325">
+        <v>38</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
         <v>819</v>
       </c>
-      <c r="G324">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>9</v>
-      </c>
-      <c r="E325" t="s">
+      <c r="F325" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G325">
+        <v>999</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I325" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>993</v>
+      </c>
+      <c r="C326">
+        <v>41</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326" t="s">
         <v>820</v>
       </c>
-      <c r="G325">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>9</v>
-      </c>
-      <c r="E326" t="s">
+      <c r="F326" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G326" t="s">
+        <v>937</v>
+      </c>
+      <c r="H326" t="s">
+        <v>977</v>
+      </c>
+      <c r="I326" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C327">
+        <v>39</v>
+      </c>
+      <c r="D327">
+        <v>3</v>
+      </c>
+      <c r="E327" t="s">
         <v>821</v>
       </c>
-      <c r="G326">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>9</v>
-      </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H327" t="s">
+        <v>990</v>
+      </c>
+      <c r="I327" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C328">
+        <v>44</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328" t="s">
         <v>822</v>
       </c>
-      <c r="G327">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>9</v>
-      </c>
-      <c r="E328" t="s">
+      <c r="F328" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G328">
+        <v>999</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I328" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C329">
+        <v>24</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
         <v>823</v>
       </c>
-      <c r="G328">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="F329" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I329" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C330">
+        <v>25</v>
+      </c>
+      <c r="D330">
+        <v>10</v>
+      </c>
+      <c r="E330" t="s">
         <v>824</v>
       </c>
-      <c r="G329">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>9</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="F330" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I330" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C331">
+        <v>29</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331" t="s">
         <v>825</v>
       </c>
-      <c r="G330">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>9</v>
-      </c>
-      <c r="E331" t="s">
+      <c r="F331" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G331">
+        <v>999</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I331" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C332">
+        <v>30</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
         <v>826</v>
       </c>
-      <c r="G331">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>9</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="F332" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G332">
+        <v>999</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I332" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C333">
+        <v>34</v>
+      </c>
+      <c r="D333">
+        <v>3</v>
+      </c>
+      <c r="E333" t="s">
         <v>827</v>
       </c>
-      <c r="G332">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>9</v>
-      </c>
-      <c r="E333" t="s">
+      <c r="F333" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G333">
+        <v>999</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I333">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C334">
+        <v>44</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334" t="s">
         <v>828</v>
       </c>
-      <c r="G333">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>9</v>
-      </c>
-      <c r="E334" t="s">
+      <c r="F334" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C335">
+        <v>28</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+      <c r="E335" t="s">
         <v>829</v>
       </c>
-      <c r="G334">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>9</v>
-      </c>
-      <c r="E335" t="s">
+      <c r="F335" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G335">
+        <v>999</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I335" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C336">
+        <v>36</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336" t="s">
         <v>830</v>
       </c>
-      <c r="G335">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>9</v>
-      </c>
-      <c r="E336" t="s">
+      <c r="F336" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G336">
+        <v>999</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I336" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>665</v>
+      </c>
+      <c r="C337">
+        <v>28</v>
+      </c>
+      <c r="D337">
+        <v>10</v>
+      </c>
+      <c r="E337" t="s">
         <v>831</v>
       </c>
-      <c r="G336">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>9</v>
-      </c>
-      <c r="E337" t="s">
-        <v>832</v>
+      <c r="F337" t="s">
+        <v>1030</v>
       </c>
       <c r="G337">
         <v>999</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I337" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/Index_Ref/FS_Index_Ref.xlsx
+++ b/Index_Ref/FS_Index_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2373" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6735CB4-7657-4016-87F9-2F7134249EC4}"/>
+  <xr:revisionPtr revIDLastSave="2446" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD57C5A-81B4-4127-8B52-5BE981238DFC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="1047">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -2240,9 +2240,6 @@
     <t>Ludwigsburg</t>
   </si>
   <si>
-    <t>Eglosheim, Ludwigsburg {auf seite 1 sthet nur egloshein, auf seite 4 Ludwigsburg/Eglosburg}</t>
-  </si>
-  <si>
     <t>Gundelsheim</t>
   </si>
   <si>
@@ -3129,6 +3126,57 @@
   </si>
   <si>
     <t>Langenwang</t>
+  </si>
+  <si>
+    <t>Eglosheim</t>
+  </si>
+  <si>
+    <t>Mappe_02_0001</t>
+  </si>
+  <si>
+    <t>Mappe_02_0002</t>
+  </si>
+  <si>
+    <t>Mappe_02_0003</t>
+  </si>
+  <si>
+    <t>Mappe_02_0004</t>
+  </si>
+  <si>
+    <t>Mappe_02_0005</t>
+  </si>
+  <si>
+    <t>Göllitz</t>
+  </si>
+  <si>
+    <t>Raplitz Oberdonau</t>
+  </si>
+  <si>
+    <t>Gratzen Oberdonau</t>
+  </si>
+  <si>
+    <t>Wultschau</t>
+  </si>
+  <si>
+    <t>N. D.</t>
+  </si>
+  <si>
+    <t>am Nebelstein</t>
+  </si>
+  <si>
+    <t>Niederdonau</t>
+  </si>
+  <si>
+    <t>Maissen {Auf seite 4 Maißen}</t>
+  </si>
+  <si>
+    <t>Harbach</t>
+  </si>
+  <si>
+    <t>Hirschwies</t>
+  </si>
+  <si>
+    <t>bei Weitra</t>
   </si>
 </sst>
 </file>
@@ -3166,18 +3214,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3216,7 +3258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3535,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10381,7 +10423,7 @@
         <v>621</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>734</v>
+        <v>1030</v>
       </c>
       <c r="G236" s="3">
         <v>999</v>
@@ -10410,13 +10452,13 @@
         <v>622</v>
       </c>
       <c r="F237" t="s">
+        <v>734</v>
+      </c>
+      <c r="G237">
+        <v>999</v>
+      </c>
+      <c r="H237" t="s">
         <v>735</v>
-      </c>
-      <c r="G237">
-        <v>999</v>
-      </c>
-      <c r="H237" t="s">
-        <v>736</v>
       </c>
       <c r="I237">
         <v>999</v>
@@ -10439,16 +10481,16 @@
         <v>623</v>
       </c>
       <c r="F238" t="s">
+        <v>736</v>
+      </c>
+      <c r="G238">
+        <v>999</v>
+      </c>
+      <c r="H238" t="s">
         <v>737</v>
       </c>
-      <c r="G238">
-        <v>999</v>
-      </c>
-      <c r="H238" t="s">
+      <c r="I238" t="s">
         <v>738</v>
-      </c>
-      <c r="I238" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -10468,16 +10510,16 @@
         <v>624</v>
       </c>
       <c r="F239" t="s">
+        <v>739</v>
+      </c>
+      <c r="G239">
+        <v>999</v>
+      </c>
+      <c r="H239" t="s">
         <v>740</v>
       </c>
-      <c r="G239">
-        <v>999</v>
-      </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>741</v>
-      </c>
-      <c r="I239" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -10497,16 +10539,16 @@
         <v>625</v>
       </c>
       <c r="F240" t="s">
+        <v>742</v>
+      </c>
+      <c r="G240">
+        <v>999</v>
+      </c>
+      <c r="H240" t="s">
         <v>743</v>
       </c>
-      <c r="G240">
-        <v>999</v>
-      </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>744</v>
-      </c>
-      <c r="I240" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -10526,16 +10568,16 @@
         <v>626</v>
       </c>
       <c r="F241" t="s">
+        <v>745</v>
+      </c>
+      <c r="G241">
+        <v>999</v>
+      </c>
+      <c r="H241" t="s">
         <v>746</v>
       </c>
-      <c r="G241">
-        <v>999</v>
-      </c>
-      <c r="H241" t="s">
+      <c r="I241" t="s">
         <v>747</v>
-      </c>
-      <c r="I241" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -10543,7 +10585,7 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C242">
         <v>23</v>
@@ -10555,13 +10597,13 @@
         <v>627</v>
       </c>
       <c r="F242" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G242">
         <v>999</v>
       </c>
       <c r="H242" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I242" t="s">
         <v>716</v>
@@ -10572,7 +10614,7 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C243">
         <v>25</v>
@@ -10584,13 +10626,13 @@
         <v>628</v>
       </c>
       <c r="F243" t="s">
+        <v>750</v>
+      </c>
+      <c r="G243">
+        <v>999</v>
+      </c>
+      <c r="H243" t="s">
         <v>751</v>
-      </c>
-      <c r="G243">
-        <v>999</v>
-      </c>
-      <c r="H243" t="s">
-        <v>752</v>
       </c>
       <c r="I243" t="s">
         <v>716</v>
@@ -10601,7 +10643,7 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C244">
         <v>27</v>
@@ -10613,13 +10655,13 @@
         <v>629</v>
       </c>
       <c r="F244" t="s">
+        <v>752</v>
+      </c>
+      <c r="G244">
+        <v>999</v>
+      </c>
+      <c r="H244" t="s">
         <v>753</v>
-      </c>
-      <c r="G244">
-        <v>999</v>
-      </c>
-      <c r="H244" t="s">
-        <v>754</v>
       </c>
       <c r="I244" t="s">
         <v>716</v>
@@ -10630,7 +10672,7 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C245">
         <v>29</v>
@@ -10642,7 +10684,7 @@
         <v>630</v>
       </c>
       <c r="F245" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G245">
         <v>999</v>
@@ -10651,7 +10693,7 @@
         <v>720</v>
       </c>
       <c r="I245" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -10659,7 +10701,7 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C246">
         <v>32</v>
@@ -10671,13 +10713,13 @@
         <v>631</v>
       </c>
       <c r="F246" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G246">
         <v>999</v>
       </c>
       <c r="H246" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I246" t="s">
         <v>721</v>
@@ -10688,7 +10730,7 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C247">
         <v>34</v>
@@ -10700,13 +10742,13 @@
         <v>632</v>
       </c>
       <c r="F247" t="s">
+        <v>756</v>
+      </c>
+      <c r="G247">
+        <v>999</v>
+      </c>
+      <c r="H247" t="s">
         <v>757</v>
-      </c>
-      <c r="G247">
-        <v>999</v>
-      </c>
-      <c r="H247" t="s">
-        <v>758</v>
       </c>
       <c r="I247" t="s">
         <v>721</v>
@@ -10717,7 +10759,7 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C248">
         <v>35</v>
@@ -10729,13 +10771,13 @@
         <v>633</v>
       </c>
       <c r="F248" t="s">
+        <v>758</v>
+      </c>
+      <c r="G248" t="s">
         <v>759</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>760</v>
-      </c>
-      <c r="H248" t="s">
-        <v>761</v>
       </c>
       <c r="I248" t="s">
         <v>668</v>
@@ -10746,7 +10788,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C249">
         <v>38</v>
@@ -10758,7 +10800,7 @@
         <v>634</v>
       </c>
       <c r="F249" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G249">
         <v>999</v>
@@ -10775,7 +10817,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C250">
         <v>40</v>
@@ -10787,16 +10829,16 @@
         <v>635</v>
       </c>
       <c r="F250" t="s">
+        <v>762</v>
+      </c>
+      <c r="G250">
+        <v>999</v>
+      </c>
+      <c r="H250" t="s">
         <v>763</v>
       </c>
-      <c r="G250">
-        <v>999</v>
-      </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>764</v>
-      </c>
-      <c r="I250" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -10804,7 +10846,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C251">
         <v>41</v>
@@ -10816,16 +10858,16 @@
         <v>636</v>
       </c>
       <c r="F251" t="s">
+        <v>765</v>
+      </c>
+      <c r="G251">
+        <v>999</v>
+      </c>
+      <c r="H251" t="s">
         <v>766</v>
       </c>
-      <c r="G251">
-        <v>999</v>
-      </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
         <v>767</v>
-      </c>
-      <c r="I251" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -10833,7 +10875,7 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C252">
         <v>43</v>
@@ -10845,16 +10887,16 @@
         <v>637</v>
       </c>
       <c r="F252" t="s">
+        <v>768</v>
+      </c>
+      <c r="G252">
+        <v>999</v>
+      </c>
+      <c r="H252" t="s">
         <v>769</v>
       </c>
-      <c r="G252">
-        <v>999</v>
-      </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>770</v>
-      </c>
-      <c r="I252" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -10862,7 +10904,7 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C253">
         <v>46</v>
@@ -10874,13 +10916,13 @@
         <v>638</v>
       </c>
       <c r="F253" t="s">
+        <v>771</v>
+      </c>
+      <c r="G253">
+        <v>999</v>
+      </c>
+      <c r="H253" t="s">
         <v>772</v>
-      </c>
-      <c r="G253">
-        <v>999</v>
-      </c>
-      <c r="H253" t="s">
-        <v>773</v>
       </c>
       <c r="I253" t="s">
         <v>690</v>
@@ -10891,7 +10933,7 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C254">
         <v>18</v>
@@ -10903,13 +10945,13 @@
         <v>639</v>
       </c>
       <c r="F254" t="s">
+        <v>833</v>
+      </c>
+      <c r="G254" t="s">
         <v>834</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>835</v>
-      </c>
-      <c r="H254" t="s">
-        <v>836</v>
       </c>
       <c r="I254" t="s">
         <v>716</v>
@@ -10920,7 +10962,7 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C255">
         <v>22</v>
@@ -10932,13 +10974,13 @@
         <v>640</v>
       </c>
       <c r="F255" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G255">
         <v>999</v>
       </c>
       <c r="H255" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I255" t="s">
         <v>716</v>
@@ -10949,7 +10991,7 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C256">
         <v>47</v>
@@ -10961,16 +11003,16 @@
         <v>641</v>
       </c>
       <c r="F256" t="s">
+        <v>838</v>
+      </c>
+      <c r="G256">
+        <v>999</v>
+      </c>
+      <c r="H256" t="s">
         <v>839</v>
       </c>
-      <c r="G256">
-        <v>999</v>
-      </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
         <v>840</v>
-      </c>
-      <c r="I256" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -10978,7 +11020,7 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C257">
         <v>49</v>
@@ -10990,13 +11032,13 @@
         <v>642</v>
       </c>
       <c r="F257" t="s">
+        <v>841</v>
+      </c>
+      <c r="G257">
+        <v>999</v>
+      </c>
+      <c r="H257" t="s">
         <v>842</v>
-      </c>
-      <c r="G257">
-        <v>999</v>
-      </c>
-      <c r="H257" t="s">
-        <v>843</v>
       </c>
       <c r="I257" t="s">
         <v>690</v>
@@ -11007,7 +11049,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C258">
         <v>27</v>
@@ -11019,13 +11061,13 @@
         <v>643</v>
       </c>
       <c r="F258" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G258" t="s">
+        <v>845</v>
+      </c>
+      <c r="H258" t="s">
         <v>846</v>
-      </c>
-      <c r="H258" t="s">
-        <v>847</v>
       </c>
       <c r="I258" t="s">
         <v>716</v>
@@ -11036,7 +11078,7 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C259">
         <v>31</v>
@@ -11048,16 +11090,16 @@
         <v>644</v>
       </c>
       <c r="F259" t="s">
+        <v>847</v>
+      </c>
+      <c r="G259">
+        <v>999</v>
+      </c>
+      <c r="H259" t="s">
+        <v>849</v>
+      </c>
+      <c r="I259" t="s">
         <v>848</v>
-      </c>
-      <c r="G259">
-        <v>999</v>
-      </c>
-      <c r="H259" t="s">
-        <v>850</v>
-      </c>
-      <c r="I259" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -11065,7 +11107,7 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C260">
         <v>33</v>
@@ -11077,13 +11119,13 @@
         <v>645</v>
       </c>
       <c r="F260" t="s">
+        <v>850</v>
+      </c>
+      <c r="G260">
+        <v>999</v>
+      </c>
+      <c r="H260" t="s">
         <v>851</v>
-      </c>
-      <c r="G260">
-        <v>999</v>
-      </c>
-      <c r="H260" t="s">
-        <v>852</v>
       </c>
       <c r="I260">
         <v>999</v>
@@ -11094,7 +11136,7 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C261">
         <v>35</v>
@@ -11106,13 +11148,13 @@
         <v>646</v>
       </c>
       <c r="F261" t="s">
+        <v>852</v>
+      </c>
+      <c r="G261">
+        <v>999</v>
+      </c>
+      <c r="H261" t="s">
         <v>853</v>
-      </c>
-      <c r="G261">
-        <v>999</v>
-      </c>
-      <c r="H261" t="s">
-        <v>854</v>
       </c>
       <c r="I261" t="s">
         <v>668</v>
@@ -11123,7 +11165,7 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C262">
         <v>41</v>
@@ -11135,13 +11177,13 @@
         <v>647</v>
       </c>
       <c r="F262" t="s">
+        <v>854</v>
+      </c>
+      <c r="G262">
+        <v>999</v>
+      </c>
+      <c r="H262" t="s">
         <v>855</v>
-      </c>
-      <c r="G262">
-        <v>999</v>
-      </c>
-      <c r="H262" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -11149,7 +11191,7 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C263">
         <v>43</v>
@@ -11161,13 +11203,13 @@
         <v>648</v>
       </c>
       <c r="F263" t="s">
+        <v>856</v>
+      </c>
+      <c r="G263">
+        <v>999</v>
+      </c>
+      <c r="H263" t="s">
         <v>857</v>
-      </c>
-      <c r="G263">
-        <v>999</v>
-      </c>
-      <c r="H263" t="s">
-        <v>858</v>
       </c>
       <c r="I263">
         <v>999</v>
@@ -11178,7 +11220,7 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C264">
         <v>45</v>
@@ -11190,16 +11232,16 @@
         <v>649</v>
       </c>
       <c r="F264" t="s">
+        <v>858</v>
+      </c>
+      <c r="G264">
+        <v>999</v>
+      </c>
+      <c r="H264" t="s">
         <v>859</v>
       </c>
-      <c r="G264">
-        <v>999</v>
-      </c>
-      <c r="H264" t="s">
+      <c r="I264" t="s">
         <v>860</v>
-      </c>
-      <c r="I264" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -11207,7 +11249,7 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C265">
         <v>18</v>
@@ -11219,16 +11261,16 @@
         <v>650</v>
       </c>
       <c r="F265" t="s">
+        <v>862</v>
+      </c>
+      <c r="G265">
+        <v>999</v>
+      </c>
+      <c r="H265" t="s">
         <v>863</v>
       </c>
-      <c r="G265">
-        <v>999</v>
-      </c>
-      <c r="H265" t="s">
+      <c r="I265" t="s">
         <v>864</v>
-      </c>
-      <c r="I265" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -11236,7 +11278,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C266">
         <v>20</v>
@@ -11248,13 +11290,13 @@
         <v>651</v>
       </c>
       <c r="F266" t="s">
+        <v>865</v>
+      </c>
+      <c r="G266">
+        <v>999</v>
+      </c>
+      <c r="H266" t="s">
         <v>866</v>
-      </c>
-      <c r="G266">
-        <v>999</v>
-      </c>
-      <c r="H266" t="s">
-        <v>867</v>
       </c>
       <c r="I266" t="s">
         <v>716</v>
@@ -11265,7 +11307,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C267">
         <v>22</v>
@@ -11277,16 +11319,16 @@
         <v>652</v>
       </c>
       <c r="F267" t="s">
+        <v>867</v>
+      </c>
+      <c r="G267">
+        <v>999</v>
+      </c>
+      <c r="H267" t="s">
+        <v>876</v>
+      </c>
+      <c r="I267" t="s">
         <v>868</v>
-      </c>
-      <c r="G267">
-        <v>999</v>
-      </c>
-      <c r="H267" t="s">
-        <v>877</v>
-      </c>
-      <c r="I267" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -11294,7 +11336,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C268">
         <v>24</v>
@@ -11306,13 +11348,13 @@
         <v>653</v>
       </c>
       <c r="F268" t="s">
+        <v>869</v>
+      </c>
+      <c r="G268">
+        <v>999</v>
+      </c>
+      <c r="H268" t="s">
         <v>870</v>
-      </c>
-      <c r="G268">
-        <v>999</v>
-      </c>
-      <c r="H268" t="s">
-        <v>871</v>
       </c>
       <c r="I268" t="s">
         <v>716</v>
@@ -11323,7 +11365,7 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C269">
         <v>26</v>
@@ -11335,13 +11377,13 @@
         <v>654</v>
       </c>
       <c r="F269" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G269">
         <v>999</v>
       </c>
       <c r="H269" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I269" t="s">
         <v>716</v>
@@ -11352,7 +11394,7 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C270">
         <v>29</v>
@@ -11364,16 +11406,16 @@
         <v>655</v>
       </c>
       <c r="F270" t="s">
+        <v>873</v>
+      </c>
+      <c r="G270" t="s">
+        <v>877</v>
+      </c>
+      <c r="H270" t="s">
+        <v>875</v>
+      </c>
+      <c r="I270" t="s">
         <v>874</v>
-      </c>
-      <c r="G270" t="s">
-        <v>878</v>
-      </c>
-      <c r="H270" t="s">
-        <v>876</v>
-      </c>
-      <c r="I270" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -11381,7 +11423,7 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C271">
         <v>37</v>
@@ -11393,16 +11435,16 @@
         <v>656</v>
       </c>
       <c r="F271" t="s">
+        <v>878</v>
+      </c>
+      <c r="G271">
+        <v>999</v>
+      </c>
+      <c r="H271" t="s">
         <v>879</v>
       </c>
-      <c r="G271">
-        <v>999</v>
-      </c>
-      <c r="H271" t="s">
+      <c r="I271" t="s">
         <v>880</v>
-      </c>
-      <c r="I271" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -11410,7 +11452,7 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C272">
         <v>40</v>
@@ -11422,7 +11464,7 @@
         <v>657</v>
       </c>
       <c r="F272" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G272">
         <v>999</v>
@@ -11431,7 +11473,7 @@
         <v>690</v>
       </c>
       <c r="I272" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -11439,7 +11481,7 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C273">
         <v>47</v>
@@ -11451,16 +11493,16 @@
         <v>658</v>
       </c>
       <c r="F273" t="s">
+        <v>882</v>
+      </c>
+      <c r="G273" t="s">
         <v>883</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>884</v>
       </c>
-      <c r="H273" t="s">
+      <c r="I273" t="s">
         <v>885</v>
-      </c>
-      <c r="I273" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -11468,7 +11510,7 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C274">
         <v>25</v>
@@ -11480,13 +11522,13 @@
         <v>659</v>
       </c>
       <c r="F274" t="s">
+        <v>887</v>
+      </c>
+      <c r="G274">
+        <v>999</v>
+      </c>
+      <c r="H274" t="s">
         <v>888</v>
-      </c>
-      <c r="G274">
-        <v>999</v>
-      </c>
-      <c r="H274" t="s">
-        <v>889</v>
       </c>
       <c r="I274" t="s">
         <v>716</v>
@@ -11497,7 +11539,7 @@
         <v>9</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C275" s="3">
         <v>27</v>
@@ -11509,16 +11551,16 @@
         <v>660</v>
       </c>
       <c r="F275" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="G275" s="3">
+        <v>999</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I275" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="G275" s="3">
-        <v>999</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11526,7 +11568,7 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C276">
         <v>29</v>
@@ -11538,13 +11580,13 @@
         <v>661</v>
       </c>
       <c r="F276" t="s">
+        <v>891</v>
+      </c>
+      <c r="G276">
+        <v>999</v>
+      </c>
+      <c r="H276" t="s">
         <v>892</v>
-      </c>
-      <c r="G276">
-        <v>999</v>
-      </c>
-      <c r="H276" t="s">
-        <v>893</v>
       </c>
       <c r="I276" t="s">
         <v>721</v>
@@ -11555,7 +11597,7 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C277">
         <v>34</v>
@@ -11567,13 +11609,13 @@
         <v>662</v>
       </c>
       <c r="F277" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G277">
         <v>999</v>
       </c>
       <c r="H277" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I277" t="s">
         <v>668</v>
@@ -11584,7 +11626,7 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C278">
         <v>36</v>
@@ -11596,16 +11638,16 @@
         <v>663</v>
       </c>
       <c r="F278" t="s">
+        <v>894</v>
+      </c>
+      <c r="G278">
+        <v>999</v>
+      </c>
+      <c r="H278" t="s">
         <v>895</v>
       </c>
-      <c r="G278">
-        <v>999</v>
-      </c>
-      <c r="H278" t="s">
+      <c r="I278" t="s">
         <v>896</v>
-      </c>
-      <c r="I278" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -11613,7 +11655,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C279">
         <v>40</v>
@@ -11625,13 +11667,13 @@
         <v>664</v>
       </c>
       <c r="F279" t="s">
+        <v>897</v>
+      </c>
+      <c r="G279">
+        <v>999</v>
+      </c>
+      <c r="H279" t="s">
         <v>898</v>
-      </c>
-      <c r="G279">
-        <v>999</v>
-      </c>
-      <c r="H279" t="s">
-        <v>899</v>
       </c>
       <c r="I279" t="s">
         <v>690</v>
@@ -11642,7 +11684,7 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C280">
         <v>42</v>
@@ -11651,16 +11693,16 @@
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F280" t="s">
+        <v>899</v>
+      </c>
+      <c r="G280">
+        <v>999</v>
+      </c>
+      <c r="H280" t="s">
         <v>900</v>
-      </c>
-      <c r="G280">
-        <v>999</v>
-      </c>
-      <c r="H280" t="s">
-        <v>901</v>
       </c>
       <c r="I280" t="s">
         <v>690</v>
@@ -11671,7 +11713,7 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C281">
         <v>20</v>
@@ -11680,19 +11722,19 @@
         <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F281" t="s">
+        <v>902</v>
+      </c>
+      <c r="G281">
+        <v>999</v>
+      </c>
+      <c r="H281" t="s">
         <v>903</v>
       </c>
-      <c r="G281">
-        <v>999</v>
-      </c>
-      <c r="H281" t="s">
+      <c r="I281" t="s">
         <v>904</v>
-      </c>
-      <c r="I281" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -11700,7 +11742,7 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C282">
         <v>22</v>
@@ -11709,16 +11751,16 @@
         <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F282" t="s">
+        <v>905</v>
+      </c>
+      <c r="G282" t="s">
+        <v>907</v>
+      </c>
+      <c r="H282" t="s">
         <v>906</v>
-      </c>
-      <c r="G282" t="s">
-        <v>908</v>
-      </c>
-      <c r="H282" t="s">
-        <v>907</v>
       </c>
       <c r="I282" t="s">
         <v>716</v>
@@ -11729,7 +11771,7 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C283">
         <v>23</v>
@@ -11738,19 +11780,19 @@
         <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F283" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G283">
         <v>999</v>
       </c>
       <c r="H283" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I283" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -11758,7 +11800,7 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C284">
         <v>31</v>
@@ -11767,16 +11809,16 @@
         <v>13</v>
       </c>
       <c r="E284" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F284" t="s">
+        <v>909</v>
+      </c>
+      <c r="G284">
+        <v>999</v>
+      </c>
+      <c r="H284" t="s">
         <v>910</v>
-      </c>
-      <c r="G284">
-        <v>999</v>
-      </c>
-      <c r="H284" t="s">
-        <v>911</v>
       </c>
       <c r="I284" t="s">
         <v>721</v>
@@ -11787,7 +11829,7 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C285">
         <v>37</v>
@@ -11796,16 +11838,16 @@
         <v>5</v>
       </c>
       <c r="E285" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F285" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G285">
         <v>999</v>
       </c>
       <c r="H285" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I285" t="s">
         <v>668</v>
@@ -11816,7 +11858,7 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C286">
         <v>43</v>
@@ -11825,16 +11867,16 @@
         <v>4</v>
       </c>
       <c r="E286" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F286" t="s">
+        <v>912</v>
+      </c>
+      <c r="G286">
+        <v>999</v>
+      </c>
+      <c r="H286" t="s">
         <v>913</v>
-      </c>
-      <c r="G286">
-        <v>999</v>
-      </c>
-      <c r="H286" t="s">
-        <v>914</v>
       </c>
       <c r="I286" t="s">
         <v>690</v>
@@ -11845,7 +11887,7 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C287">
         <v>45</v>
@@ -11854,19 +11896,19 @@
         <v>3</v>
       </c>
       <c r="E287" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F287" t="s">
+        <v>914</v>
+      </c>
+      <c r="G287">
+        <v>999</v>
+      </c>
+      <c r="H287" t="s">
         <v>915</v>
       </c>
-      <c r="G287">
-        <v>999</v>
-      </c>
-      <c r="H287" t="s">
+      <c r="I287" t="s">
         <v>916</v>
-      </c>
-      <c r="I287" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -11874,7 +11916,7 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C288">
         <v>20</v>
@@ -11883,16 +11925,16 @@
         <v>13</v>
       </c>
       <c r="E288" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F288" t="s">
+        <v>918</v>
+      </c>
+      <c r="G288">
+        <v>999</v>
+      </c>
+      <c r="H288" t="s">
         <v>919</v>
-      </c>
-      <c r="G288">
-        <v>999</v>
-      </c>
-      <c r="H288" t="s">
-        <v>920</v>
       </c>
       <c r="I288" t="s">
         <v>340</v>
@@ -11903,7 +11945,7 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C289">
         <v>22</v>
@@ -11912,16 +11954,16 @@
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F289" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G289">
         <v>999</v>
       </c>
       <c r="H289" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I289" t="s">
         <v>716</v>
@@ -11932,7 +11974,7 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C290">
         <v>23</v>
@@ -11941,16 +11983,16 @@
         <v>7</v>
       </c>
       <c r="E290" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F290" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G290">
         <v>999</v>
       </c>
       <c r="H290" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I290" t="s">
         <v>716</v>
@@ -11961,7 +12003,7 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C291">
         <v>25</v>
@@ -11970,16 +12012,16 @@
         <v>12</v>
       </c>
       <c r="E291" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F291" t="s">
+        <v>922</v>
+      </c>
+      <c r="G291">
+        <v>999</v>
+      </c>
+      <c r="H291" t="s">
         <v>923</v>
-      </c>
-      <c r="G291">
-        <v>999</v>
-      </c>
-      <c r="H291" t="s">
-        <v>924</v>
       </c>
       <c r="I291" t="s">
         <v>716</v>
@@ -11990,7 +12032,7 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C292">
         <v>27</v>
@@ -11999,19 +12041,19 @@
         <v>16</v>
       </c>
       <c r="E292" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F292" t="s">
+        <v>924</v>
+      </c>
+      <c r="G292">
+        <v>999</v>
+      </c>
+      <c r="H292" t="s">
         <v>925</v>
       </c>
-      <c r="G292">
-        <v>999</v>
-      </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
         <v>926</v>
-      </c>
-      <c r="I292" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -12019,7 +12061,7 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C293">
         <v>36</v>
@@ -12028,19 +12070,19 @@
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F293" t="s">
+        <v>927</v>
+      </c>
+      <c r="G293">
+        <v>999</v>
+      </c>
+      <c r="H293" t="s">
         <v>928</v>
       </c>
-      <c r="G293">
-        <v>999</v>
-      </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
         <v>929</v>
-      </c>
-      <c r="I293" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -12048,7 +12090,7 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C294">
         <v>37</v>
@@ -12057,16 +12099,16 @@
         <v>6</v>
       </c>
       <c r="E294" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F294" t="s">
+        <v>930</v>
+      </c>
+      <c r="G294">
+        <v>999</v>
+      </c>
+      <c r="H294" t="s">
         <v>931</v>
-      </c>
-      <c r="G294">
-        <v>999</v>
-      </c>
-      <c r="H294" t="s">
-        <v>932</v>
       </c>
       <c r="I294" t="s">
         <v>668</v>
@@ -12077,7 +12119,7 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C295">
         <v>39</v>
@@ -12086,19 +12128,19 @@
         <v>7</v>
       </c>
       <c r="E295" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F295" t="s">
+        <v>932</v>
+      </c>
+      <c r="G295">
+        <v>999</v>
+      </c>
+      <c r="H295" t="s">
+        <v>931</v>
+      </c>
+      <c r="I295" t="s">
         <v>933</v>
-      </c>
-      <c r="G295">
-        <v>999</v>
-      </c>
-      <c r="H295" t="s">
-        <v>932</v>
-      </c>
-      <c r="I295" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -12106,7 +12148,7 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C296">
         <v>42</v>
@@ -12115,19 +12157,19 @@
         <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F296" t="s">
+        <v>934</v>
+      </c>
+      <c r="G296">
+        <v>999</v>
+      </c>
+      <c r="H296" t="s">
         <v>935</v>
       </c>
-      <c r="G296">
-        <v>999</v>
-      </c>
-      <c r="H296" t="s">
+      <c r="I296" t="s">
         <v>936</v>
-      </c>
-      <c r="I296" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -12135,7 +12177,7 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C297">
         <v>44</v>
@@ -12144,19 +12186,19 @@
         <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F297" t="s">
+        <v>937</v>
+      </c>
+      <c r="G297" t="s">
         <v>938</v>
       </c>
-      <c r="G297" t="s">
+      <c r="H297" t="s">
         <v>939</v>
       </c>
-      <c r="H297" t="s">
+      <c r="I297" t="s">
         <v>940</v>
-      </c>
-      <c r="I297" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -12164,7 +12206,7 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C298">
         <v>29</v>
@@ -12173,16 +12215,16 @@
         <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F298" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G298">
         <v>999</v>
       </c>
       <c r="H298" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I298" t="s">
         <v>721</v>
@@ -12193,7 +12235,7 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C299">
         <v>33</v>
@@ -12202,16 +12244,16 @@
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F299" t="s">
+        <v>943</v>
+      </c>
+      <c r="G299">
+        <v>999</v>
+      </c>
+      <c r="H299" t="s">
         <v>944</v>
-      </c>
-      <c r="G299">
-        <v>999</v>
-      </c>
-      <c r="H299" t="s">
-        <v>945</v>
       </c>
       <c r="I299" t="s">
         <v>668</v>
@@ -12222,7 +12264,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C300">
         <v>25</v>
@@ -12231,16 +12273,16 @@
         <v>6</v>
       </c>
       <c r="E300" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F300" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G300">
         <v>999</v>
       </c>
       <c r="H300" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I300" t="s">
         <v>716</v>
@@ -12251,7 +12293,7 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C301">
         <v>27</v>
@@ -12260,16 +12302,16 @@
         <v>9</v>
       </c>
       <c r="E301" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F301" t="s">
+        <v>947</v>
+      </c>
+      <c r="G301">
+        <v>999</v>
+      </c>
+      <c r="H301" t="s">
         <v>948</v>
-      </c>
-      <c r="G301">
-        <v>999</v>
-      </c>
-      <c r="H301" t="s">
-        <v>949</v>
       </c>
       <c r="I301" t="s">
         <v>716</v>
@@ -12280,7 +12322,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C302">
         <v>30</v>
@@ -12289,19 +12331,19 @@
         <v>2</v>
       </c>
       <c r="E302" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F302" t="s">
+        <v>949</v>
+      </c>
+      <c r="G302">
+        <v>999</v>
+      </c>
+      <c r="H302" t="s">
         <v>950</v>
       </c>
-      <c r="G302">
-        <v>999</v>
-      </c>
-      <c r="H302" t="s">
+      <c r="I302" t="s">
         <v>951</v>
-      </c>
-      <c r="I302" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -12309,7 +12351,7 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C303">
         <v>35</v>
@@ -12318,16 +12360,16 @@
         <v>10</v>
       </c>
       <c r="E303" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F303" t="s">
+        <v>952</v>
+      </c>
+      <c r="G303">
+        <v>999</v>
+      </c>
+      <c r="H303" t="s">
         <v>953</v>
-      </c>
-      <c r="G303">
-        <v>999</v>
-      </c>
-      <c r="H303" t="s">
-        <v>954</v>
       </c>
       <c r="I303">
         <v>999</v>
@@ -12338,7 +12380,7 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C304">
         <v>37</v>
@@ -12347,19 +12389,19 @@
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F304" t="s">
+        <v>954</v>
+      </c>
+      <c r="G304">
+        <v>999</v>
+      </c>
+      <c r="H304" t="s">
         <v>955</v>
       </c>
-      <c r="G304">
-        <v>999</v>
-      </c>
-      <c r="H304" t="s">
+      <c r="I304" t="s">
         <v>956</v>
-      </c>
-      <c r="I304" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -12367,7 +12409,7 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C305">
         <v>39</v>
@@ -12376,16 +12418,16 @@
         <v>3</v>
       </c>
       <c r="E305" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F305" t="s">
+        <v>957</v>
+      </c>
+      <c r="G305">
+        <v>999</v>
+      </c>
+      <c r="H305" t="s">
         <v>958</v>
-      </c>
-      <c r="G305">
-        <v>999</v>
-      </c>
-      <c r="H305" t="s">
-        <v>959</v>
       </c>
       <c r="I305" t="s">
         <v>668</v>
@@ -12396,7 +12438,7 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C306">
         <v>42</v>
@@ -12405,19 +12447,19 @@
         <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F306" t="s">
+        <v>959</v>
+      </c>
+      <c r="G306">
+        <v>999</v>
+      </c>
+      <c r="H306" t="s">
         <v>960</v>
       </c>
-      <c r="G306">
-        <v>999</v>
-      </c>
-      <c r="H306" t="s">
+      <c r="I306" t="s">
         <v>961</v>
-      </c>
-      <c r="I306" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -12425,7 +12467,7 @@
         <v>9</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C307" s="3">
         <v>31</v>
@@ -12434,19 +12476,19 @@
         <v>8</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F307" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="G307" s="3">
+        <v>999</v>
+      </c>
+      <c r="H307" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="G307" s="3">
-        <v>999</v>
-      </c>
-      <c r="H307" s="3" t="s">
+      <c r="I307" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="I307" s="3" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -12454,7 +12496,7 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C308">
         <v>33</v>
@@ -12463,19 +12505,19 @@
         <v>6</v>
       </c>
       <c r="E308" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F308" t="s">
+        <v>966</v>
+      </c>
+      <c r="G308">
+        <v>999</v>
+      </c>
+      <c r="H308" t="s">
         <v>967</v>
       </c>
-      <c r="G308">
-        <v>999</v>
-      </c>
-      <c r="H308" t="s">
+      <c r="I308" t="s">
         <v>968</v>
-      </c>
-      <c r="I308" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -12483,7 +12525,7 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C309">
         <v>26</v>
@@ -12492,16 +12534,16 @@
         <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F309" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G309">
         <v>999</v>
       </c>
       <c r="H309" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I309" t="s">
         <v>716</v>
@@ -12512,7 +12554,7 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C310">
         <v>33</v>
@@ -12521,16 +12563,16 @@
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F310" t="s">
+        <v>971</v>
+      </c>
+      <c r="G310">
+        <v>999</v>
+      </c>
+      <c r="H310" t="s">
         <v>972</v>
-      </c>
-      <c r="G310">
-        <v>999</v>
-      </c>
-      <c r="H310" t="s">
-        <v>973</v>
       </c>
       <c r="I310" t="s">
         <v>668</v>
@@ -12541,7 +12583,7 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C311">
         <v>36</v>
@@ -12550,16 +12592,16 @@
         <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F311" t="s">
+        <v>973</v>
+      </c>
+      <c r="G311">
+        <v>999</v>
+      </c>
+      <c r="H311" t="s">
         <v>974</v>
-      </c>
-      <c r="G311">
-        <v>999</v>
-      </c>
-      <c r="H311" t="s">
-        <v>975</v>
       </c>
       <c r="I311" t="s">
         <v>668</v>
@@ -12570,7 +12612,7 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C312">
         <v>41</v>
@@ -12579,16 +12621,16 @@
         <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F312" t="s">
+        <v>975</v>
+      </c>
+      <c r="G312">
+        <v>999</v>
+      </c>
+      <c r="H312" t="s">
         <v>976</v>
-      </c>
-      <c r="G312">
-        <v>999</v>
-      </c>
-      <c r="H312" t="s">
-        <v>977</v>
       </c>
       <c r="I312" t="s">
         <v>668</v>
@@ -12599,7 +12641,7 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C313">
         <v>24</v>
@@ -12608,16 +12650,16 @@
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F313" t="s">
+        <v>978</v>
+      </c>
+      <c r="G313">
+        <v>999</v>
+      </c>
+      <c r="H313" t="s">
         <v>979</v>
-      </c>
-      <c r="G313">
-        <v>999</v>
-      </c>
-      <c r="H313" t="s">
-        <v>980</v>
       </c>
       <c r="I313" t="s">
         <v>716</v>
@@ -12628,7 +12670,7 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C314">
         <v>27</v>
@@ -12637,19 +12679,19 @@
         <v>1</v>
       </c>
       <c r="E314" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F314" t="s">
+        <v>980</v>
+      </c>
+      <c r="G314">
+        <v>999</v>
+      </c>
+      <c r="H314" t="s">
         <v>981</v>
       </c>
-      <c r="G314">
-        <v>999</v>
-      </c>
-      <c r="H314" t="s">
+      <c r="I314" t="s">
         <v>982</v>
-      </c>
-      <c r="I314" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -12657,7 +12699,7 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C315">
         <v>30</v>
@@ -12666,16 +12708,16 @@
         <v>4</v>
       </c>
       <c r="E315" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F315" t="s">
+        <v>983</v>
+      </c>
+      <c r="G315">
+        <v>999</v>
+      </c>
+      <c r="H315" t="s">
         <v>984</v>
-      </c>
-      <c r="G315">
-        <v>999</v>
-      </c>
-      <c r="H315" t="s">
-        <v>985</v>
       </c>
       <c r="I315" t="s">
         <v>721</v>
@@ -12686,7 +12728,7 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C316">
         <v>32</v>
@@ -12695,16 +12737,16 @@
         <v>1</v>
       </c>
       <c r="E316" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F316" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G316">
         <v>999</v>
       </c>
       <c r="H316" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I316" t="s">
         <v>721</v>
@@ -12715,7 +12757,7 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C317">
         <v>38</v>
@@ -12724,19 +12766,19 @@
         <v>4</v>
       </c>
       <c r="E317" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F317" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G317" t="s">
+        <v>986</v>
+      </c>
+      <c r="H317" t="s">
         <v>987</v>
       </c>
-      <c r="H317" t="s">
-        <v>988</v>
-      </c>
       <c r="I317" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -12744,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C318">
         <v>40</v>
@@ -12753,16 +12795,16 @@
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F318" t="s">
+        <v>988</v>
+      </c>
+      <c r="G318">
+        <v>999</v>
+      </c>
+      <c r="H318" t="s">
         <v>989</v>
-      </c>
-      <c r="G318">
-        <v>999</v>
-      </c>
-      <c r="H318" t="s">
-        <v>990</v>
       </c>
       <c r="I318" t="s">
         <v>668</v>
@@ -12773,7 +12815,7 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C319">
         <v>43</v>
@@ -12782,16 +12824,16 @@
         <v>9</v>
       </c>
       <c r="E319" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F319" t="s">
+        <v>990</v>
+      </c>
+      <c r="G319">
+        <v>999</v>
+      </c>
+      <c r="H319" t="s">
         <v>991</v>
-      </c>
-      <c r="G319">
-        <v>999</v>
-      </c>
-      <c r="H319" t="s">
-        <v>992</v>
       </c>
       <c r="I319" t="s">
         <v>668</v>
@@ -12802,7 +12844,7 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C320">
         <v>25</v>
@@ -12811,16 +12853,16 @@
         <v>8</v>
       </c>
       <c r="E320" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F320" t="s">
+        <v>993</v>
+      </c>
+      <c r="G320">
+        <v>999</v>
+      </c>
+      <c r="H320" t="s">
         <v>994</v>
-      </c>
-      <c r="G320">
-        <v>999</v>
-      </c>
-      <c r="H320" t="s">
-        <v>995</v>
       </c>
       <c r="I320" t="s">
         <v>683</v>
@@ -12831,7 +12873,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C321">
         <v>30</v>
@@ -12840,16 +12882,16 @@
         <v>8</v>
       </c>
       <c r="E321" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F321" t="s">
+        <v>995</v>
+      </c>
+      <c r="G321">
+        <v>999</v>
+      </c>
+      <c r="H321" t="s">
         <v>996</v>
-      </c>
-      <c r="G321">
-        <v>999</v>
-      </c>
-      <c r="H321" t="s">
-        <v>997</v>
       </c>
       <c r="I321">
         <v>999</v>
@@ -12860,7 +12902,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C322">
         <v>31</v>
@@ -12869,19 +12911,19 @@
         <v>7</v>
       </c>
       <c r="E322" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F322" t="s">
+        <v>997</v>
+      </c>
+      <c r="G322">
+        <v>999</v>
+      </c>
+      <c r="H322" t="s">
         <v>998</v>
       </c>
-      <c r="G322">
-        <v>999</v>
-      </c>
-      <c r="H322" t="s">
-        <v>999</v>
-      </c>
       <c r="I322" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12889,7 +12931,7 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C323">
         <v>33</v>
@@ -12898,16 +12940,16 @@
         <v>5</v>
       </c>
       <c r="E323" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F323" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G323">
         <v>999</v>
       </c>
       <c r="H323" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I323" t="s">
         <v>668</v>
@@ -12918,7 +12960,7 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C324">
         <v>35</v>
@@ -12927,16 +12969,16 @@
         <v>5</v>
       </c>
       <c r="E324" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F324" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G324">
+        <v>999</v>
+      </c>
+      <c r="H324" t="s">
         <v>1001</v>
-      </c>
-      <c r="G324">
-        <v>999</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1002</v>
       </c>
       <c r="I324" t="s">
         <v>668</v>
@@ -12947,7 +12989,7 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C325">
         <v>38</v>
@@ -12956,16 +12998,16 @@
         <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F325" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G325">
+        <v>999</v>
+      </c>
+      <c r="H325" t="s">
         <v>1003</v>
-      </c>
-      <c r="G325">
-        <v>999</v>
-      </c>
-      <c r="H325" t="s">
-        <v>1004</v>
       </c>
       <c r="I325" t="s">
         <v>668</v>
@@ -12976,7 +13018,7 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C326">
         <v>41</v>
@@ -12985,16 +13027,16 @@
         <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F326" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G326" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H326" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I326" t="s">
         <v>668</v>
@@ -13005,7 +13047,7 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C327">
         <v>39</v>
@@ -13014,16 +13056,16 @@
         <v>3</v>
       </c>
       <c r="E327" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F327" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G327" t="s">
         <v>1007</v>
       </c>
-      <c r="G327" t="s">
-        <v>1008</v>
-      </c>
       <c r="H327" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I327" t="s">
         <v>668</v>
@@ -13034,7 +13076,7 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C328">
         <v>44</v>
@@ -13043,19 +13085,19 @@
         <v>1</v>
       </c>
       <c r="E328" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F328" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G328">
+        <v>999</v>
+      </c>
+      <c r="H328" t="s">
         <v>1009</v>
       </c>
-      <c r="G328">
-        <v>999</v>
-      </c>
-      <c r="H328" t="s">
-        <v>1010</v>
-      </c>
       <c r="I328" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -13063,7 +13105,7 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C329">
         <v>24</v>
@@ -13072,16 +13114,16 @@
         <v>1</v>
       </c>
       <c r="E329" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F329" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G329" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H329" t="s">
         <v>1012</v>
-      </c>
-      <c r="H329" t="s">
-        <v>1013</v>
       </c>
       <c r="I329" t="s">
         <v>716</v>
@@ -13092,7 +13134,7 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C330">
         <v>25</v>
@@ -13101,16 +13143,16 @@
         <v>10</v>
       </c>
       <c r="E330" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F330" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G330" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H330" t="s">
         <v>1015</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1016</v>
       </c>
       <c r="I330" t="s">
         <v>721</v>
@@ -13121,7 +13163,7 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C331">
         <v>29</v>
@@ -13130,19 +13172,19 @@
         <v>1</v>
       </c>
       <c r="E331" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F331" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G331">
+        <v>999</v>
+      </c>
+      <c r="H331" t="s">
         <v>1018</v>
       </c>
-      <c r="G331">
-        <v>999</v>
-      </c>
-      <c r="H331" t="s">
-        <v>1019</v>
-      </c>
       <c r="I331" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -13150,7 +13192,7 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C332">
         <v>30</v>
@@ -13159,16 +13201,16 @@
         <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F332" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G332">
+        <v>999</v>
+      </c>
+      <c r="H332" t="s">
         <v>1020</v>
-      </c>
-      <c r="G332">
-        <v>999</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1021</v>
       </c>
       <c r="I332" t="s">
         <v>721</v>
@@ -13179,7 +13221,7 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C333">
         <v>34</v>
@@ -13188,16 +13230,16 @@
         <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F333" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G333">
         <v>999</v>
       </c>
       <c r="H333" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I333">
         <v>999</v>
@@ -13208,7 +13250,7 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C334">
         <v>44</v>
@@ -13217,19 +13259,19 @@
         <v>1</v>
       </c>
       <c r="E334" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F334" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I334" t="s">
         <v>1024</v>
-      </c>
-      <c r="G334" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H334" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I334" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -13237,7 +13279,7 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C335">
         <v>28</v>
@@ -13246,19 +13288,19 @@
         <v>10</v>
       </c>
       <c r="E335" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F335" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G335">
         <v>999</v>
       </c>
       <c r="H335" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I335" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -13266,7 +13308,7 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C336">
         <v>36</v>
@@ -13275,16 +13317,16 @@
         <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F336" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G336">
         <v>999</v>
       </c>
       <c r="H336" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I336" t="s">
         <v>668</v>
@@ -13304,19 +13346,164 @@
         <v>10</v>
       </c>
       <c r="E337" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F337" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G337">
         <v>999</v>
       </c>
       <c r="H337" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I337" t="s">
-        <v>739</v>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>832</v>
+      </c>
+      <c r="C338">
+        <v>55</v>
+      </c>
+      <c r="D338">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G338">
+        <v>999</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>832</v>
+      </c>
+      <c r="C339">
+        <v>55</v>
+      </c>
+      <c r="D339">
+        <v>6</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G339">
+        <v>999</v>
+      </c>
+      <c r="H339" t="s">
+        <v>751</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>832</v>
+      </c>
+      <c r="C340">
+        <v>55</v>
+      </c>
+      <c r="D340">
+        <v>7</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H340" t="s">
+        <v>751</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>832</v>
+      </c>
+      <c r="C341">
+        <v>55</v>
+      </c>
+      <c r="D341">
+        <v>8</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G341">
+        <v>999</v>
+      </c>
+      <c r="H341" t="s">
+        <v>751</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>832</v>
+      </c>
+      <c r="C342">
+        <v>55</v>
+      </c>
+      <c r="D342">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H342" t="s">
+        <v>751</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
